--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9452476-05FD-0242-85C5-DE35900C1D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15960" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="194">
   <si>
     <t>Surname</t>
   </si>
@@ -43,369 +52,18 @@
     <t>CW</t>
   </si>
   <si>
-    <t>Bhebhe</t>
-  </si>
-  <si>
-    <t>H220455R</t>
-  </si>
-  <si>
-    <t>ICS</t>
-  </si>
-  <si>
-    <t>Bhero</t>
-  </si>
-  <si>
-    <t>H220546M</t>
-  </si>
-  <si>
-    <t>ISA</t>
-  </si>
-  <si>
-    <t>Botso</t>
-  </si>
-  <si>
-    <t>H210218Q</t>
-  </si>
-  <si>
-    <t>Buwerimwe</t>
-  </si>
-  <si>
-    <t>H220185Z</t>
-  </si>
-  <si>
-    <t>Bvure</t>
-  </si>
-  <si>
-    <t>H220312A</t>
-  </si>
-  <si>
     <t>Charakupa</t>
   </si>
   <si>
     <t>H220013Y</t>
   </si>
   <si>
-    <t>Chiduku</t>
-  </si>
-  <si>
-    <t>H220239E</t>
-  </si>
-  <si>
-    <t>Chigudududze</t>
-  </si>
-  <si>
-    <t>H220730V</t>
-  </si>
-  <si>
-    <t>Chikeya</t>
-  </si>
-  <si>
-    <t>H220538A</t>
-  </si>
-  <si>
-    <t>Chiku</t>
-  </si>
-  <si>
-    <t>H220351Y</t>
-  </si>
-  <si>
-    <t>Chimwe</t>
-  </si>
-  <si>
-    <t>H220345Y</t>
-  </si>
-  <si>
-    <t>Chimwendo</t>
-  </si>
-  <si>
-    <t>H220416V</t>
-  </si>
-  <si>
-    <t>Chinoda</t>
-  </si>
-  <si>
-    <t>H220302Q</t>
-  </si>
-  <si>
-    <t>Chinomona</t>
-  </si>
-  <si>
-    <t>H220662T</t>
-  </si>
-  <si>
-    <t>Chinyere</t>
-  </si>
-  <si>
-    <t>H220670Z</t>
-  </si>
-  <si>
-    <t>Chirima</t>
-  </si>
-  <si>
-    <t>H220091Z</t>
-  </si>
-  <si>
-    <t>Dahwa</t>
-  </si>
-  <si>
-    <t>H220144F</t>
-  </si>
-  <si>
-    <t>Dhihwa</t>
-  </si>
-  <si>
-    <t>H220075W</t>
-  </si>
-  <si>
-    <t>Dube</t>
-  </si>
-  <si>
-    <t>H220283P</t>
-  </si>
-  <si>
-    <t>Dziro</t>
-  </si>
-  <si>
-    <t>H220023E</t>
-  </si>
-  <si>
-    <t>Gandanga</t>
-  </si>
-  <si>
-    <t>H220736W</t>
-  </si>
-  <si>
-    <t>Gavi</t>
-  </si>
-  <si>
-    <t>H220431M</t>
-  </si>
-  <si>
-    <t>Gayahaya</t>
-  </si>
-  <si>
-    <t>H220494C</t>
-  </si>
-  <si>
-    <t>Gonamombe</t>
-  </si>
-  <si>
-    <t>H220084C</t>
-  </si>
-  <si>
-    <t>Gwekwe</t>
-  </si>
-  <si>
-    <t>H220508Q</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>H220349M</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>H220045P</t>
-  </si>
-  <si>
-    <t>Kadema</t>
-  </si>
-  <si>
-    <t>H220673P</t>
-  </si>
-  <si>
-    <t>Kamanga</t>
-  </si>
-  <si>
-    <t>H220052N</t>
-  </si>
-  <si>
-    <t>Kanyuchi</t>
-  </si>
-  <si>
-    <t>H220379X</t>
-  </si>
-  <si>
-    <t>Kasima</t>
-  </si>
-  <si>
-    <t>H220413B</t>
-  </si>
-  <si>
-    <t>Kaunye</t>
-  </si>
-  <si>
-    <t>H220094W</t>
-  </si>
-  <si>
-    <t>Kondo</t>
-  </si>
-  <si>
-    <t>H220122N</t>
-  </si>
-  <si>
-    <t>Kumadiro</t>
-  </si>
-  <si>
-    <t>H220672FR</t>
-  </si>
-  <si>
-    <t>Madanire</t>
-  </si>
-  <si>
-    <t>H220483J</t>
-  </si>
-  <si>
-    <t>Madzore</t>
-  </si>
-  <si>
-    <t>H220184Z</t>
-  </si>
-  <si>
-    <t>Magara</t>
-  </si>
-  <si>
-    <t>H220392X</t>
-  </si>
-  <si>
     <t>Magorimbo</t>
   </si>
   <si>
     <t>H220726Q</t>
   </si>
   <si>
-    <t>Magosi</t>
-  </si>
-  <si>
-    <t>H220187N</t>
-  </si>
-  <si>
-    <t>Mahachi</t>
-  </si>
-  <si>
-    <t>H220421Y</t>
-  </si>
-  <si>
-    <t>Makaza</t>
-  </si>
-  <si>
-    <t>H220671P</t>
-  </si>
-  <si>
-    <t>Mandishe</t>
-  </si>
-  <si>
-    <t>H220315H</t>
-  </si>
-  <si>
-    <t>Mango</t>
-  </si>
-  <si>
-    <t>H220316P</t>
-  </si>
-  <si>
-    <t>Marwizi</t>
-  </si>
-  <si>
-    <t>H220427Q</t>
-  </si>
-  <si>
-    <t>Mashiri</t>
-  </si>
-  <si>
-    <t>H220070V</t>
-  </si>
-  <si>
-    <t>Mataga</t>
-  </si>
-  <si>
-    <t>H220260C</t>
-  </si>
-  <si>
-    <t>Mawoyo</t>
-  </si>
-  <si>
-    <t>H220086F</t>
-  </si>
-  <si>
-    <t>Mbangani</t>
-  </si>
-  <si>
-    <t>H220342Q</t>
-  </si>
-  <si>
-    <t>Mharakurwa</t>
-  </si>
-  <si>
-    <t>H220010Q</t>
-  </si>
-  <si>
-    <t>Midzi</t>
-  </si>
-  <si>
-    <t>H220564G</t>
-  </si>
-  <si>
-    <t>Moyo</t>
-  </si>
-  <si>
-    <t>H220204H</t>
-  </si>
-  <si>
-    <t>H210551Q</t>
-  </si>
-  <si>
-    <t>Mudehwe</t>
-  </si>
-  <si>
-    <t>H220678Q</t>
-  </si>
-  <si>
-    <t>Muduwa</t>
-  </si>
-  <si>
-    <t>H220273W</t>
-  </si>
-  <si>
-    <t>Mudzingwa</t>
-  </si>
-  <si>
-    <t>H220087E</t>
-  </si>
-  <si>
-    <t>Mudzori</t>
-  </si>
-  <si>
-    <t>H220033G</t>
-  </si>
-  <si>
-    <t>Mugabe</t>
-  </si>
-  <si>
-    <t>H220269E</t>
-  </si>
-  <si>
-    <t>Mukarakate</t>
-  </si>
-  <si>
-    <t>H220221G</t>
-  </si>
-  <si>
-    <t>Musamira</t>
-  </si>
-  <si>
-    <t>H220418Y</t>
-  </si>
-  <si>
-    <t>Musarurwa</t>
-  </si>
-  <si>
-    <t>H220333Q</t>
-  </si>
-  <si>
     <t>Mushayapokuvaka</t>
   </si>
   <si>
@@ -415,214 +73,549 @@
     <t>Mushonga</t>
   </si>
   <si>
-    <t>H210392T</t>
-  </si>
-  <si>
-    <t>Mutangi</t>
-  </si>
-  <si>
-    <t>H220552V</t>
-  </si>
-  <si>
-    <t>Muteera</t>
-  </si>
-  <si>
-    <t>H220197V</t>
-  </si>
-  <si>
-    <t>Mutenanhene</t>
-  </si>
-  <si>
-    <t>H220247A</t>
-  </si>
-  <si>
-    <t>Mutori</t>
-  </si>
-  <si>
-    <t>H220223N</t>
-  </si>
-  <si>
-    <t>Mutsago</t>
-  </si>
-  <si>
-    <t>H220710M</t>
-  </si>
-  <si>
-    <t>Mutswe</t>
-  </si>
-  <si>
-    <t>H220615W</t>
-  </si>
-  <si>
-    <t>Muzite</t>
-  </si>
-  <si>
-    <t>H220196A</t>
-  </si>
-  <si>
-    <t>Mwarewangepo</t>
-  </si>
-  <si>
-    <t>H220688A</t>
-  </si>
-  <si>
-    <t>Mwarumba</t>
-  </si>
-  <si>
-    <t>H220026H</t>
-  </si>
-  <si>
-    <t>Ndaradzi</t>
-  </si>
-  <si>
-    <t>H220533P</t>
-  </si>
-  <si>
-    <t>Nyawiri</t>
-  </si>
-  <si>
-    <t>H220290G</t>
-  </si>
-  <si>
-    <t>Paradzai</t>
-  </si>
-  <si>
-    <t>H220147B</t>
-  </si>
-  <si>
-    <t>Pelemba</t>
-  </si>
-  <si>
-    <t>H220243A</t>
-  </si>
-  <si>
-    <t>Pfupajena</t>
-  </si>
-  <si>
-    <t>H220554M</t>
-  </si>
-  <si>
-    <t>Phiri</t>
-  </si>
-  <si>
-    <t>H220415J</t>
-  </si>
-  <si>
-    <t>Rafomoyo</t>
-  </si>
-  <si>
-    <t>H220439A</t>
-  </si>
-  <si>
-    <t>Rusike</t>
-  </si>
-  <si>
-    <t>H220189E</t>
-  </si>
-  <si>
-    <t>Rusimo</t>
-  </si>
-  <si>
-    <t>H220146J</t>
-  </si>
-  <si>
-    <t>Saunyama</t>
-  </si>
-  <si>
-    <t>H190782H</t>
-  </si>
-  <si>
-    <t>Sibanda</t>
-  </si>
-  <si>
-    <t>H220417Y</t>
-  </si>
-  <si>
-    <t>Sibve</t>
-  </si>
-  <si>
-    <t>H220553G</t>
-  </si>
-  <si>
-    <t>Sikosana</t>
-  </si>
-  <si>
-    <t>H220250Q</t>
-  </si>
-  <si>
-    <t>Simon</t>
-  </si>
-  <si>
-    <t>H220652T</t>
-  </si>
-  <si>
-    <t>Sithole</t>
-  </si>
-  <si>
-    <t>H220760C</t>
-  </si>
-  <si>
-    <t>Tseriwa</t>
-  </si>
-  <si>
-    <t>H210661A</t>
-  </si>
-  <si>
-    <t>Tsvangirai</t>
-  </si>
-  <si>
-    <t>H220081X</t>
-  </si>
-  <si>
-    <t>Varaigwai</t>
-  </si>
-  <si>
-    <t>H220105E</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>H220548H</t>
-  </si>
-  <si>
-    <t>Zikali</t>
-  </si>
-  <si>
-    <t>H220215E</t>
-  </si>
-  <si>
-    <t>Zimunhu</t>
-  </si>
-  <si>
-    <t>H220537B</t>
+    <t>Quiz_3</t>
+  </si>
+  <si>
+    <t>Bobo</t>
+  </si>
+  <si>
+    <t>H240194P</t>
+  </si>
+  <si>
+    <t>HICS</t>
+  </si>
+  <si>
+    <t>Bunhu</t>
+  </si>
+  <si>
+    <t>H2401124M</t>
+  </si>
+  <si>
+    <t>Chatsama</t>
+  </si>
+  <si>
+    <t>H240243z</t>
+  </si>
+  <si>
+    <t>Chikwizo</t>
+  </si>
+  <si>
+    <t>H240020J</t>
+  </si>
+  <si>
+    <t>Chitsva</t>
+  </si>
+  <si>
+    <t>H240014H</t>
+  </si>
+  <si>
+    <t>Chivasa</t>
+  </si>
+  <si>
+    <t>H240162Y</t>
+  </si>
+  <si>
+    <t>Dunira</t>
+  </si>
+  <si>
+    <t>H240165R</t>
+  </si>
+  <si>
+    <t>Gambiza Moyo</t>
+  </si>
+  <si>
+    <t>H240299R</t>
+  </si>
+  <si>
+    <t>Garwe</t>
+  </si>
+  <si>
+    <t>H240197J</t>
+  </si>
+  <si>
+    <t>Hama</t>
+  </si>
+  <si>
+    <t>H240131T</t>
+  </si>
+  <si>
+    <t>HUHUYANA</t>
+  </si>
+  <si>
+    <t>H240268H</t>
+  </si>
+  <si>
+    <t>Kahungwa</t>
+  </si>
+  <si>
+    <t>H240329C</t>
+  </si>
+  <si>
+    <t>Kamhoti</t>
+  </si>
+  <si>
+    <t>H240010J</t>
+  </si>
+  <si>
+    <t>Kanyera</t>
+  </si>
+  <si>
+    <t>H240219F</t>
+  </si>
+  <si>
+    <t>Kanyoza</t>
+  </si>
+  <si>
+    <t>H240093R</t>
+  </si>
+  <si>
+    <t>KATIYO</t>
+  </si>
+  <si>
+    <t>H240500J</t>
+  </si>
+  <si>
+    <t>Mabgwe</t>
+  </si>
+  <si>
+    <t>H240013H</t>
+  </si>
+  <si>
+    <t>Magede</t>
+  </si>
+  <si>
+    <t>H240231P</t>
+  </si>
+  <si>
+    <t>Malima</t>
+  </si>
+  <si>
+    <t>H240005W</t>
+  </si>
+  <si>
+    <t>Maponga</t>
+  </si>
+  <si>
+    <t>H240196x</t>
+  </si>
+  <si>
+    <t>Masanganise</t>
+  </si>
+  <si>
+    <t>H240236M</t>
+  </si>
+  <si>
+    <t>Mashayahanya</t>
+  </si>
+  <si>
+    <t>H240249A</t>
+  </si>
+  <si>
+    <t>MAZHINDU</t>
+  </si>
+  <si>
+    <t>H240173M</t>
+  </si>
+  <si>
+    <t>Mlambo</t>
+  </si>
+  <si>
+    <t>H240381Z</t>
+  </si>
+  <si>
+    <t>Moloten</t>
+  </si>
+  <si>
+    <t>H240297q</t>
+  </si>
+  <si>
+    <t>Mubaiwa</t>
+  </si>
+  <si>
+    <t>H240218F</t>
+  </si>
+  <si>
+    <t>Muchini</t>
+  </si>
+  <si>
+    <t>H240260E</t>
+  </si>
+  <si>
+    <t>Mugwede</t>
+  </si>
+  <si>
+    <t>H240117H</t>
+  </si>
+  <si>
+    <t>Mukarati</t>
+  </si>
+  <si>
+    <t>H240318y</t>
+  </si>
+  <si>
+    <t>H240324M</t>
+  </si>
+  <si>
+    <t>Mukorera</t>
+  </si>
+  <si>
+    <t>H240156z</t>
+  </si>
+  <si>
+    <t>Mulilima</t>
+  </si>
+  <si>
+    <t>H170174G</t>
+  </si>
+  <si>
+    <t>Muvaka</t>
+  </si>
+  <si>
+    <t>H240105H</t>
+  </si>
+  <si>
+    <t>Ndhlovu</t>
+  </si>
+  <si>
+    <t>H240185G</t>
+  </si>
+  <si>
+    <t>Nechombo</t>
+  </si>
+  <si>
+    <t>H240330H</t>
+  </si>
+  <si>
+    <t>Ngwenya</t>
+  </si>
+  <si>
+    <t>H240332Z</t>
+  </si>
+  <si>
+    <t>Nyakanyanga</t>
+  </si>
+  <si>
+    <t>H240191A</t>
+  </si>
+  <si>
+    <t>NYATANGA</t>
+  </si>
+  <si>
+    <t>H240281G</t>
+  </si>
+  <si>
+    <t>Patsanza</t>
+  </si>
+  <si>
+    <t>H240723P</t>
+  </si>
+  <si>
+    <t>Pfereka</t>
+  </si>
+  <si>
+    <t>H240029R</t>
+  </si>
+  <si>
+    <t>Ragu</t>
+  </si>
+  <si>
+    <t>H240220J</t>
+  </si>
+  <si>
+    <t>Sheshe</t>
+  </si>
+  <si>
+    <t>H240203F</t>
+  </si>
+  <si>
+    <t>Tavengwa</t>
+  </si>
+  <si>
+    <t>H240272M</t>
+  </si>
+  <si>
+    <t>Tazviwana</t>
+  </si>
+  <si>
+    <t>H240325C</t>
+  </si>
+  <si>
+    <t>Tsiga</t>
+  </si>
+  <si>
+    <t>H240161F</t>
+  </si>
+  <si>
+    <t>Zaina</t>
+  </si>
+  <si>
+    <t>H240266G</t>
+  </si>
+  <si>
+    <t>Chakunda</t>
+  </si>
+  <si>
+    <t>H240129V</t>
+  </si>
+  <si>
+    <t>HISA</t>
+  </si>
+  <si>
+    <t>Chamboko</t>
+  </si>
+  <si>
+    <t>H240648Q</t>
+  </si>
+  <si>
+    <t>Chikandamina</t>
+  </si>
+  <si>
+    <t>H240412J</t>
+  </si>
+  <si>
+    <t>Chikore</t>
+  </si>
+  <si>
+    <t>H240289Z</t>
+  </si>
+  <si>
+    <t>Chikudzuri</t>
+  </si>
+  <si>
+    <t>H240685R</t>
+  </si>
+  <si>
+    <t>Chikumbu</t>
+  </si>
+  <si>
+    <t>H240404N</t>
+  </si>
+  <si>
+    <t>CHIMASHA</t>
+  </si>
+  <si>
+    <t>H240007N</t>
+  </si>
+  <si>
+    <t>CHINGWALU</t>
+  </si>
+  <si>
+    <t>H240334C</t>
+  </si>
+  <si>
+    <t>CHIPURIRO</t>
+  </si>
+  <si>
+    <t>H240011N</t>
+  </si>
+  <si>
+    <t>Chirwa</t>
+  </si>
+  <si>
+    <t>H240575X</t>
+  </si>
+  <si>
+    <t>CHIWARA</t>
+  </si>
+  <si>
+    <t>H240168G</t>
+  </si>
+  <si>
+    <t>Gamba</t>
+  </si>
+  <si>
+    <t>H240309Y</t>
+  </si>
+  <si>
+    <t>GUZHA</t>
+  </si>
+  <si>
+    <t>H240358X</t>
+  </si>
+  <si>
+    <t>KANENGONI</t>
+  </si>
+  <si>
+    <t>H240277N</t>
+  </si>
+  <si>
+    <t>Kaparipari</t>
+  </si>
+  <si>
+    <t>H240775R</t>
+  </si>
+  <si>
+    <t>Letter</t>
+  </si>
+  <si>
+    <t>H240464x</t>
+  </si>
+  <si>
+    <t>Madaka</t>
+  </si>
+  <si>
+    <t>H240557E</t>
+  </si>
+  <si>
+    <t>Mafigu</t>
+  </si>
+  <si>
+    <t>H240480M</t>
+  </si>
+  <si>
+    <t>Makamure</t>
+  </si>
+  <si>
+    <t>H240224V</t>
+  </si>
+  <si>
+    <t>Makanyire</t>
+  </si>
+  <si>
+    <t>H240166g</t>
+  </si>
+  <si>
+    <t>Mangondo</t>
+  </si>
+  <si>
+    <t>H240088G</t>
+  </si>
+  <si>
+    <t>Masarirambi</t>
+  </si>
+  <si>
+    <t>H240079C</t>
+  </si>
+  <si>
+    <t>MASUNDA</t>
+  </si>
+  <si>
+    <t>H240006Y</t>
+  </si>
+  <si>
+    <t>Maunganidze</t>
+  </si>
+  <si>
+    <t>H240287Z</t>
+  </si>
+  <si>
+    <t>Movha</t>
+  </si>
+  <si>
+    <t>H240410Y</t>
+  </si>
+  <si>
+    <t>Muchinapaya</t>
+  </si>
+  <si>
+    <t>H240572Y</t>
+  </si>
+  <si>
+    <t>Mudzva</t>
+  </si>
+  <si>
+    <t>H240379W</t>
+  </si>
+  <si>
+    <t>MUGAVIRI</t>
+  </si>
+  <si>
+    <t>H240279H</t>
+  </si>
+  <si>
+    <t>mukandi</t>
+  </si>
+  <si>
+    <t>H240004A</t>
+  </si>
+  <si>
+    <t>MUKWARA</t>
+  </si>
+  <si>
+    <t>H240380W</t>
+  </si>
+  <si>
+    <t>Murambwa</t>
+  </si>
+  <si>
+    <t>H240215z</t>
+  </si>
+  <si>
+    <t>MURAMWI</t>
+  </si>
+  <si>
+    <t>H240104Y</t>
+  </si>
+  <si>
+    <t>Murudzwa</t>
+  </si>
+  <si>
+    <t>H240574G</t>
+  </si>
+  <si>
+    <t>Mushapaidze</t>
+  </si>
+  <si>
+    <t>H240206J</t>
+  </si>
+  <si>
+    <t>H240523Z</t>
+  </si>
+  <si>
+    <t>Mwaenga</t>
+  </si>
+  <si>
+    <t>H240502G</t>
+  </si>
+  <si>
+    <t>Nyange</t>
+  </si>
+  <si>
+    <t>H240570W</t>
+  </si>
+  <si>
+    <t>Sandinga</t>
+  </si>
+  <si>
+    <t>H240485V</t>
+  </si>
+  <si>
+    <t>Sekanewana</t>
+  </si>
+  <si>
+    <t>H240576F</t>
+  </si>
+  <si>
+    <t>SHIRIHURU</t>
+  </si>
+  <si>
+    <t>H240263N</t>
+  </si>
+  <si>
+    <t>Shumbayaonda</t>
+  </si>
+  <si>
+    <t>H240125B</t>
+  </si>
+  <si>
+    <t>Tarasana</t>
+  </si>
+  <si>
+    <t>H240269f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times Roman"/>
@@ -702,30 +695,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -736,25 +729,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -956,7 +1009,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -974,7 +1027,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1003,7 +1056,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1028,7 +1081,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1053,7 +1106,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1078,7 +1131,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1103,7 +1156,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1128,7 +1181,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1153,7 +1206,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,7 +1231,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1203,7 +1256,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1216,9 +1269,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1235,7 +1294,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1253,7 +1312,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1278,7 +1337,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1303,7 +1362,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1328,7 +1387,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1353,7 +1412,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,7 +1437,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1403,7 +1462,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1428,7 +1487,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1453,7 +1512,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1478,7 +1537,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1491,9 +1550,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1507,7 +1572,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1525,7 +1590,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1554,7 +1619,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1579,7 +1644,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1604,7 +1669,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1629,7 +1694,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1654,7 +1719,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1679,7 +1744,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1704,7 +1769,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1729,7 +1794,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1754,7 +1819,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1767,458 +1832,490 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G92"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.67188" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.35156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.17188" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:11" ht="14.5" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="14.55" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>12</v>
+    <row r="2" spans="1:11" ht="14.5" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4">
-        <v>0.60655737704918</v>
+        <v>0.34</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-    </row>
-    <row r="3" ht="14.35" customHeight="1">
-      <c r="A3" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s" s="5">
-        <v>15</v>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6">
-        <v>0.45</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-    </row>
-    <row r="4" ht="14.35" customHeight="1">
-      <c r="A4" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s" s="5">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s" s="5">
-        <v>12</v>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6">
-        <v>0.950819672131148</v>
+        <v>0</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-    </row>
-    <row r="5" ht="14.35" customHeight="1">
-      <c r="A5" t="s" s="5">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s" s="5">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s" s="5">
-        <v>12</v>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-    </row>
-    <row r="6" ht="14.35" customHeight="1">
-      <c r="A6" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s" s="5">
-        <v>12</v>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6">
-        <v>0.60655737704918</v>
+        <v>0.38</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-    </row>
-    <row r="7" ht="14.35" customHeight="1">
-      <c r="A7" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s" s="5">
-        <v>12</v>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6">
-        <v>0.704918032786885</v>
+        <v>0.45</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-    </row>
-    <row r="8" ht="14.35" customHeight="1">
-      <c r="A8" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s" s="5">
-        <v>12</v>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-    </row>
-    <row r="9" ht="14.35" customHeight="1">
-      <c r="A9" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s" s="5">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s" s="5">
-        <v>12</v>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6">
-        <v>0.639344262295082</v>
+        <v>0.34</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-    </row>
-    <row r="10" ht="14.35" customHeight="1">
-      <c r="A10" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s" s="5">
-        <v>15</v>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6">
-        <v>0.675</v>
+        <v>0.38</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-    </row>
-    <row r="11" ht="14.35" customHeight="1">
-      <c r="A11" t="s" s="5">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s" s="5">
-        <v>12</v>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6">
-        <v>0.688524590163934</v>
+        <v>0.19</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-    </row>
-    <row r="12" ht="14.35" customHeight="1">
-      <c r="A12" t="s" s="5">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s" s="5">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s" s="5">
-        <v>12</v>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6">
-        <v>0.8032786885245899</v>
+        <v>0.38</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-    </row>
-    <row r="13" ht="14.35" customHeight="1">
-      <c r="A13" t="s" s="5">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s" s="5">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s" s="5">
-        <v>15</v>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6">
-        <v>0.75</v>
+        <v>0.47</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-    </row>
-    <row r="14" ht="14.35" customHeight="1">
-      <c r="A14" t="s" s="5">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s" s="5">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s" s="5">
-        <v>12</v>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6">
-        <v>0.655737704918033</v>
+        <v>0.32</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-    </row>
-    <row r="15" ht="14.35" customHeight="1">
-      <c r="A15" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s" s="5">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s" s="5">
-        <v>12</v>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6">
-        <v>0.655737704918033</v>
+        <v>0.38</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-    </row>
-    <row r="16" ht="14.35" customHeight="1">
-      <c r="A16" t="s" s="5">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s" s="5">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s" s="5">
-        <v>15</v>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6">
-        <v>0.8375</v>
+        <v>0.34</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-    </row>
-    <row r="17" ht="14.35" customHeight="1">
-      <c r="A17" t="s" s="5">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s" s="5">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s" s="5">
-        <v>15</v>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6">
-        <v>0.88</v>
+        <v>0.68</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-    </row>
-    <row r="18" ht="14.35" customHeight="1">
-      <c r="A18" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s" s="5">
-        <v>12</v>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6">
-        <v>0.8032786885245899</v>
+        <v>0.72</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-    </row>
-    <row r="19" ht="14.35" customHeight="1">
-      <c r="A19" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s" s="5">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s" s="5">
-        <v>15</v>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-    </row>
-    <row r="20" ht="14.35" customHeight="1">
-      <c r="A20" t="s" s="5">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s" s="5">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s" s="5">
-        <v>15</v>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6">
-        <v>0.8</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-    </row>
-    <row r="21" ht="14.35" customHeight="1">
-      <c r="A21" t="s" s="5">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s" s="5">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s" s="5">
-        <v>15</v>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -2229,1450 +2326,1429 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-    </row>
-    <row r="22" ht="14.35" customHeight="1">
-      <c r="A22" t="s" s="5">
-        <v>52</v>
-      </c>
-      <c r="B22" t="s" s="5">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s" s="5">
-        <v>12</v>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-    </row>
-    <row r="23" ht="14.35" customHeight="1">
-      <c r="A23" t="s" s="5">
-        <v>54</v>
-      </c>
-      <c r="B23" t="s" s="5">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s" s="5">
-        <v>12</v>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6">
-        <v>0.901639344262295</v>
+        <v>0.04</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-    </row>
-    <row r="24" ht="14.35" customHeight="1">
-      <c r="A24" t="s" s="5">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s" s="5">
-        <v>57</v>
-      </c>
-      <c r="C24" t="s" s="5">
-        <v>12</v>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6">
-        <v>0.901639344262295</v>
+        <v>0.49</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-    </row>
-    <row r="25" ht="14.35" customHeight="1">
-      <c r="A25" t="s" s="5">
-        <v>58</v>
-      </c>
-      <c r="B25" t="s" s="5">
-        <v>59</v>
-      </c>
-      <c r="C25" t="s" s="5">
-        <v>15</v>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
-    </row>
-    <row r="26" ht="14.35" customHeight="1">
-      <c r="A26" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="B26" t="s" s="5">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s" s="5">
-        <v>12</v>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-    </row>
-    <row r="27" ht="14.35" customHeight="1">
-      <c r="A27" t="s" s="5">
-        <v>62</v>
-      </c>
-      <c r="B27" t="s" s="5">
-        <v>63</v>
-      </c>
-      <c r="C27" t="s" s="5">
-        <v>15</v>
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6">
-        <v>0.8375</v>
+        <v>0.43</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-    </row>
-    <row r="28" ht="14.35" customHeight="1">
-      <c r="A28" t="s" s="5">
-        <v>64</v>
-      </c>
-      <c r="B28" t="s" s="5">
-        <v>65</v>
-      </c>
-      <c r="C28" t="s" s="5">
-        <v>15</v>
+      <c r="K27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6">
-        <v>0.6</v>
+        <v>0.19</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-    </row>
-    <row r="29" ht="14.35" customHeight="1">
-      <c r="A29" t="s" s="5">
-        <v>66</v>
-      </c>
-      <c r="B29" t="s" s="5">
-        <v>67</v>
-      </c>
-      <c r="C29" t="s" s="5">
-        <v>15</v>
+      <c r="K28" s="6"/>
+    </row>
+    <row r="29" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-    </row>
-    <row r="30" ht="14.35" customHeight="1">
-      <c r="A30" t="s" s="5">
-        <v>68</v>
-      </c>
-      <c r="B30" t="s" s="5">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s" s="5">
-        <v>12</v>
+      <c r="K29" s="6"/>
+    </row>
+    <row r="30" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6">
-        <v>0.360655737704918</v>
+        <v>0.47</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-    </row>
-    <row r="31" ht="14.35" customHeight="1">
-      <c r="A31" t="s" s="5">
-        <v>70</v>
-      </c>
-      <c r="B31" t="s" s="5">
-        <v>71</v>
-      </c>
-      <c r="C31" t="s" s="5">
-        <v>12</v>
+      <c r="K30" s="6"/>
+    </row>
+    <row r="31" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6">
-        <v>0.901639344262295</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-    </row>
-    <row r="32" ht="14.35" customHeight="1">
-      <c r="A32" t="s" s="5">
-        <v>72</v>
-      </c>
-      <c r="B32" t="s" s="5">
-        <v>73</v>
-      </c>
-      <c r="C32" t="s" s="5">
-        <v>15</v>
+      <c r="K31" s="6"/>
+    </row>
+    <row r="32" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6">
-        <v>0.8375</v>
+        <v>0.09</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
-    </row>
-    <row r="33" ht="14.35" customHeight="1">
-      <c r="A33" t="s" s="5">
-        <v>74</v>
-      </c>
-      <c r="B33" t="s" s="5">
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A33" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C33" t="s" s="5">
-        <v>12</v>
+      <c r="B33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6">
-        <v>0.737704918032787</v>
+        <v>0.06</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
-    </row>
-    <row r="34" ht="14.35" customHeight="1">
-      <c r="A34" t="s" s="5">
-        <v>76</v>
-      </c>
-      <c r="B34" t="s" s="5">
-        <v>77</v>
-      </c>
-      <c r="C34" t="s" s="5">
-        <v>15</v>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6">
-        <v>0.5600000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
-    </row>
-    <row r="35" ht="14.35" customHeight="1">
-      <c r="A35" t="s" s="5">
-        <v>78</v>
-      </c>
-      <c r="B35" t="s" s="5">
-        <v>79</v>
-      </c>
-      <c r="C35" t="s" s="5">
-        <v>15</v>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-    </row>
-    <row r="36" ht="14.35" customHeight="1">
-      <c r="A36" t="s" s="5">
-        <v>80</v>
-      </c>
-      <c r="B36" t="s" s="5">
-        <v>81</v>
-      </c>
-      <c r="C36" t="s" s="5">
-        <v>12</v>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
-    </row>
-    <row r="37" ht="14.35" customHeight="1">
-      <c r="A37" t="s" s="5">
-        <v>82</v>
-      </c>
-      <c r="B37" t="s" s="5">
-        <v>83</v>
-      </c>
-      <c r="C37" t="s" s="5">
-        <v>15</v>
+      <c r="K36" s="6"/>
+    </row>
+    <row r="37" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-    </row>
-    <row r="38" ht="14.35" customHeight="1">
-      <c r="A38" t="s" s="5">
-        <v>84</v>
-      </c>
-      <c r="B38" t="s" s="5">
-        <v>85</v>
-      </c>
-      <c r="C38" t="s" s="5">
-        <v>12</v>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6">
-        <v>0.754098360655738</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-    </row>
-    <row r="39" ht="14.35" customHeight="1">
-      <c r="A39" t="s" s="5">
-        <v>86</v>
-      </c>
-      <c r="B39" t="s" s="5">
-        <v>87</v>
-      </c>
-      <c r="C39" t="s" s="5">
-        <v>15</v>
+      <c r="K38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-    </row>
-    <row r="40" ht="14.35" customHeight="1">
-      <c r="A40" t="s" s="5">
-        <v>88</v>
-      </c>
-      <c r="B40" t="s" s="5">
-        <v>89</v>
-      </c>
-      <c r="C40" t="s" s="5">
-        <v>15</v>
+      <c r="K39" s="6"/>
+    </row>
+    <row r="40" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6">
-        <v>0.575</v>
+        <v>0.43</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
-    </row>
-    <row r="41" ht="14.35" customHeight="1">
-      <c r="A41" t="s" s="5">
-        <v>90</v>
-      </c>
-      <c r="B41" t="s" s="5">
-        <v>91</v>
-      </c>
-      <c r="C41" t="s" s="5">
-        <v>12</v>
+      <c r="K40" s="6"/>
+    </row>
+    <row r="41" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6">
-        <v>0.737704918032787</v>
+        <v>0.51</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-    </row>
-    <row r="42" ht="14.35" customHeight="1">
-      <c r="A42" t="s" s="5">
-        <v>92</v>
-      </c>
-      <c r="B42" t="s" s="5">
-        <v>93</v>
-      </c>
-      <c r="C42" t="s" s="5">
-        <v>15</v>
+      <c r="K41" s="6"/>
+    </row>
+    <row r="42" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
-    </row>
-    <row r="43" ht="14.35" customHeight="1">
-      <c r="A43" t="s" s="5">
-        <v>94</v>
-      </c>
-      <c r="B43" t="s" s="5">
-        <v>95</v>
-      </c>
-      <c r="C43" t="s" s="5">
-        <v>12</v>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6">
-        <v>0.754098360655738</v>
+        <v>0.26</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-    </row>
-    <row r="44" ht="14.35" customHeight="1">
-      <c r="A44" t="s" s="5">
-        <v>96</v>
-      </c>
-      <c r="B44" t="s" s="5">
-        <v>97</v>
-      </c>
-      <c r="C44" t="s" s="5">
-        <v>12</v>
+      <c r="K43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6">
-        <v>0.901639344262295</v>
+        <v>0.34</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
-    </row>
-    <row r="45" ht="14.35" customHeight="1">
-      <c r="A45" t="s" s="5">
-        <v>98</v>
-      </c>
-      <c r="B45" t="s" s="5">
-        <v>99</v>
-      </c>
-      <c r="C45" t="s" s="5">
-        <v>12</v>
+      <c r="K44" s="6"/>
+    </row>
+    <row r="45" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6">
-        <v>0.836065573770492</v>
+        <v>0.36</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
-    </row>
-    <row r="46" ht="14.35" customHeight="1">
-      <c r="A46" t="s" s="5">
-        <v>100</v>
-      </c>
-      <c r="B46" t="s" s="5">
-        <v>101</v>
-      </c>
-      <c r="C46" t="s" s="5">
-        <v>15</v>
+      <c r="K45" s="6"/>
+    </row>
+    <row r="46" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6">
-        <v>0.475</v>
+        <v>0.11</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
-    </row>
-    <row r="47" ht="14.35" customHeight="1">
-      <c r="A47" t="s" s="5">
-        <v>102</v>
-      </c>
-      <c r="B47" t="s" s="5">
-        <v>103</v>
-      </c>
-      <c r="C47" t="s" s="5">
-        <v>15</v>
+      <c r="K46" s="6"/>
+    </row>
+    <row r="47" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-    </row>
-    <row r="48" ht="14.35" customHeight="1">
-      <c r="A48" t="s" s="5">
-        <v>104</v>
-      </c>
-      <c r="B48" t="s" s="5">
-        <v>105</v>
-      </c>
-      <c r="C48" t="s" s="5">
-        <v>12</v>
+      <c r="K47" s="6"/>
+    </row>
+    <row r="48" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6">
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
-    </row>
-    <row r="49" ht="14.35" customHeight="1">
-      <c r="A49" t="s" s="5">
-        <v>106</v>
-      </c>
-      <c r="B49" t="s" s="5">
-        <v>107</v>
-      </c>
-      <c r="C49" t="s" s="5">
-        <v>12</v>
+      <c r="K48" s="6"/>
+    </row>
+    <row r="49" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-    </row>
-    <row r="50" ht="14.35" customHeight="1">
-      <c r="A50" t="s" s="5">
-        <v>108</v>
-      </c>
-      <c r="B50" t="s" s="5">
-        <v>109</v>
-      </c>
-      <c r="C50" t="s" s="5">
-        <v>15</v>
+      <c r="K49" s="6"/>
+    </row>
+    <row r="50" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="6">
-        <v>0.6625</v>
-      </c>
+      <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
-    </row>
-    <row r="51" ht="14.35" customHeight="1">
-      <c r="A51" t="s" s="5">
-        <v>110</v>
-      </c>
-      <c r="B51" t="s" s="5">
-        <v>111</v>
-      </c>
-      <c r="C51" t="s" s="5">
-        <v>15</v>
+      <c r="K50" s="6"/>
+    </row>
+    <row r="51" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="6">
-        <v>0.5</v>
-      </c>
+      <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-    </row>
-    <row r="52" ht="14.35" customHeight="1">
-      <c r="A52" t="s" s="5">
-        <v>112</v>
-      </c>
-      <c r="B52" t="s" s="5">
-        <v>113</v>
-      </c>
-      <c r="C52" t="s" s="5">
-        <v>12</v>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="6">
-        <v>0.639344262295082</v>
-      </c>
+      <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
-    </row>
-    <row r="53" ht="14.35" customHeight="1">
-      <c r="A53" t="s" s="5">
-        <v>112</v>
-      </c>
-      <c r="B53" t="s" s="5">
-        <v>114</v>
-      </c>
-      <c r="C53" t="s" s="5">
-        <v>12</v>
+      <c r="K52" s="6"/>
+    </row>
+    <row r="53" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="6">
-        <v>0.8032786885245899</v>
-      </c>
+      <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-    </row>
-    <row r="54" ht="14.35" customHeight="1">
-      <c r="A54" t="s" s="5">
-        <v>115</v>
-      </c>
-      <c r="B54" t="s" s="5">
-        <v>116</v>
-      </c>
-      <c r="C54" t="s" s="5">
-        <v>15</v>
+      <c r="K53" s="6"/>
+    </row>
+    <row r="54" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="6">
-        <v>0</v>
-      </c>
+      <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
-    </row>
-    <row r="55" ht="14.35" customHeight="1">
-      <c r="A55" t="s" s="5">
-        <v>117</v>
-      </c>
-      <c r="B55" t="s" s="5">
-        <v>118</v>
-      </c>
-      <c r="C55" t="s" s="5">
-        <v>15</v>
+      <c r="K54" s="6"/>
+    </row>
+    <row r="55" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="6">
-        <v>0.5875</v>
-      </c>
+      <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-    </row>
-    <row r="56" ht="14.35" customHeight="1">
-      <c r="A56" t="s" s="5">
-        <v>119</v>
-      </c>
-      <c r="B56" t="s" s="5">
-        <v>120</v>
-      </c>
-      <c r="C56" t="s" s="5">
-        <v>12</v>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="6">
-        <v>0.852459016393443</v>
-      </c>
+      <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
-    </row>
-    <row r="57" ht="14.35" customHeight="1">
-      <c r="A57" t="s" s="5">
-        <v>121</v>
-      </c>
-      <c r="B57" t="s" s="5">
-        <v>122</v>
-      </c>
-      <c r="C57" t="s" s="5">
-        <v>15</v>
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="6">
-        <v>0</v>
-      </c>
+      <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
-    </row>
-    <row r="58" ht="14.35" customHeight="1">
-      <c r="A58" t="s" s="5">
-        <v>123</v>
-      </c>
-      <c r="B58" t="s" s="5">
-        <v>124</v>
-      </c>
-      <c r="C58" t="s" s="5">
-        <v>12</v>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="6">
-        <v>0.8032786885245899</v>
-      </c>
+      <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
-    </row>
-    <row r="59" ht="14.35" customHeight="1">
-      <c r="A59" t="s" s="5">
-        <v>125</v>
-      </c>
-      <c r="B59" t="s" s="5">
-        <v>126</v>
-      </c>
-      <c r="C59" t="s" s="5">
-        <v>12</v>
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="6">
-        <v>0.327868852459016</v>
-      </c>
+      <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
-    </row>
-    <row r="60" ht="14.35" customHeight="1">
-      <c r="A60" t="s" s="5">
-        <v>127</v>
-      </c>
-      <c r="B60" t="s" s="5">
-        <v>128</v>
-      </c>
-      <c r="C60" t="s" s="5">
-        <v>15</v>
+      <c r="K59" s="6"/>
+    </row>
+    <row r="60" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="6">
-        <v>0</v>
-      </c>
+      <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
-    </row>
-    <row r="61" ht="14.35" customHeight="1">
-      <c r="A61" t="s" s="5">
-        <v>129</v>
-      </c>
-      <c r="B61" t="s" s="5">
-        <v>130</v>
-      </c>
-      <c r="C61" t="s" s="5">
-        <v>15</v>
+      <c r="K60" s="6"/>
+    </row>
+    <row r="61" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="6">
-        <v>0.8625</v>
-      </c>
+      <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
-    </row>
-    <row r="62" ht="14.35" customHeight="1">
-      <c r="A62" t="s" s="5">
-        <v>131</v>
-      </c>
-      <c r="B62" t="s" s="5">
-        <v>132</v>
-      </c>
-      <c r="C62" t="s" s="5">
-        <v>15</v>
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="6">
-        <v>0</v>
-      </c>
+      <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
-    </row>
-    <row r="63" ht="14.35" customHeight="1">
-      <c r="A63" t="s" s="5">
-        <v>133</v>
-      </c>
-      <c r="B63" t="s" s="5">
-        <v>134</v>
-      </c>
-      <c r="C63" t="s" s="5">
-        <v>15</v>
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="6">
-        <v>0.4875</v>
-      </c>
+      <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
-    </row>
-    <row r="64" ht="14.35" customHeight="1">
-      <c r="A64" t="s" s="5">
-        <v>135</v>
-      </c>
-      <c r="B64" t="s" s="5">
-        <v>136</v>
-      </c>
-      <c r="C64" t="s" s="5">
-        <v>15</v>
+      <c r="K63" s="6"/>
+    </row>
+    <row r="64" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="6">
-        <v>0</v>
-      </c>
+      <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
-    </row>
-    <row r="65" ht="14.35" customHeight="1">
-      <c r="A65" t="s" s="5">
-        <v>137</v>
-      </c>
-      <c r="B65" t="s" s="5">
-        <v>138</v>
-      </c>
-      <c r="C65" t="s" s="5">
-        <v>12</v>
+      <c r="K64" s="6"/>
+    </row>
+    <row r="65" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="6">
-        <v>0.836065573770492</v>
-      </c>
+      <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
-    </row>
-    <row r="66" ht="14.35" customHeight="1">
-      <c r="A66" t="s" s="5">
-        <v>139</v>
-      </c>
-      <c r="B66" t="s" s="5">
-        <v>140</v>
-      </c>
-      <c r="C66" t="s" s="5">
-        <v>12</v>
+      <c r="K65" s="6"/>
+    </row>
+    <row r="66" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="6">
-        <v>0.901639344262295</v>
-      </c>
+      <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
-    </row>
-    <row r="67" ht="14.35" customHeight="1">
-      <c r="A67" t="s" s="5">
-        <v>141</v>
-      </c>
-      <c r="B67" t="s" s="5">
-        <v>142</v>
-      </c>
-      <c r="C67" t="s" s="5">
-        <v>15</v>
+      <c r="K66" s="6"/>
+    </row>
+    <row r="67" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="6">
-        <v>0.8125</v>
-      </c>
+      <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
-    </row>
-    <row r="68" ht="14.35" customHeight="1">
-      <c r="A68" t="s" s="5">
-        <v>143</v>
-      </c>
-      <c r="B68" t="s" s="5">
-        <v>144</v>
-      </c>
-      <c r="C68" t="s" s="5">
-        <v>12</v>
+      <c r="K67" s="6"/>
+    </row>
+    <row r="68" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A68" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="6">
-        <v>0.639344262295082</v>
-      </c>
+      <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
-    </row>
-    <row r="69" ht="14.35" customHeight="1">
-      <c r="A69" t="s" s="5">
-        <v>145</v>
-      </c>
-      <c r="B69" t="s" s="5">
-        <v>146</v>
-      </c>
-      <c r="C69" t="s" s="5">
-        <v>12</v>
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A69" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="6">
-        <v>0.639344262295082</v>
-      </c>
+      <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
-    </row>
-    <row r="70" ht="14.35" customHeight="1">
-      <c r="A70" t="s" s="5">
-        <v>147</v>
-      </c>
-      <c r="B70" t="s" s="5">
-        <v>148</v>
-      </c>
-      <c r="C70" t="s" s="5">
-        <v>15</v>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A70" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="6">
-        <v>0</v>
-      </c>
+      <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
-    </row>
-    <row r="71" ht="14.35" customHeight="1">
-      <c r="A71" t="s" s="5">
-        <v>149</v>
-      </c>
-      <c r="B71" t="s" s="5">
-        <v>150</v>
-      </c>
-      <c r="C71" t="s" s="5">
-        <v>15</v>
+      <c r="K70" s="6"/>
+    </row>
+    <row r="71" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="6">
-        <v>0.775</v>
-      </c>
+      <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
-    </row>
-    <row r="72" ht="14.35" customHeight="1">
-      <c r="A72" t="s" s="5">
-        <v>151</v>
-      </c>
-      <c r="B72" t="s" s="5">
-        <v>152</v>
-      </c>
-      <c r="C72" t="s" s="5">
-        <v>15</v>
+      <c r="K71" s="6"/>
+    </row>
+    <row r="72" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="6">
-        <v>0.5375</v>
-      </c>
+      <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
-    </row>
-    <row r="73" ht="14.35" customHeight="1">
-      <c r="A73" t="s" s="5">
-        <v>153</v>
-      </c>
-      <c r="B73" t="s" s="5">
-        <v>154</v>
-      </c>
-      <c r="C73" t="s" s="5">
-        <v>15</v>
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A73" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="6">
-        <v>0.7375</v>
-      </c>
+      <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
-    </row>
-    <row r="74" ht="14.35" customHeight="1">
-      <c r="A74" t="s" s="5">
-        <v>155</v>
-      </c>
-      <c r="B74" t="s" s="5">
-        <v>156</v>
-      </c>
-      <c r="C74" t="s" s="5">
-        <v>12</v>
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A74" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="6">
-        <v>0.770491803278689</v>
-      </c>
+      <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
-    </row>
-    <row r="75" ht="14.35" customHeight="1">
-      <c r="A75" t="s" s="5">
-        <v>157</v>
-      </c>
-      <c r="B75" t="s" s="5">
-        <v>158</v>
-      </c>
-      <c r="C75" t="s" s="5">
-        <v>15</v>
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A75" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="6">
-        <v>0</v>
-      </c>
+      <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
-    </row>
-    <row r="76" ht="14.35" customHeight="1">
-      <c r="A76" t="s" s="5">
-        <v>159</v>
-      </c>
-      <c r="B76" t="s" s="5">
-        <v>160</v>
-      </c>
-      <c r="C76" t="s" s="5">
-        <v>12</v>
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A76" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="6">
-        <v>0.8032786885245899</v>
-      </c>
+      <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
-    </row>
-    <row r="77" ht="14.35" customHeight="1">
-      <c r="A77" t="s" s="5">
-        <v>161</v>
-      </c>
-      <c r="B77" t="s" s="5">
-        <v>162</v>
-      </c>
-      <c r="C77" t="s" s="5">
-        <v>15</v>
+      <c r="K76" s="6"/>
+    </row>
+    <row r="77" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A77" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="6">
-        <v>0.5875</v>
-      </c>
+      <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
-    </row>
-    <row r="78" ht="14.35" customHeight="1">
-      <c r="A78" t="s" s="5">
-        <v>163</v>
-      </c>
-      <c r="B78" t="s" s="5">
-        <v>164</v>
-      </c>
-      <c r="C78" t="s" s="5">
-        <v>15</v>
+      <c r="K77" s="6"/>
+    </row>
+    <row r="78" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A78" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="6">
-        <v>0</v>
-      </c>
+      <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
-    </row>
-    <row r="79" ht="14.35" customHeight="1">
-      <c r="A79" t="s" s="5">
-        <v>165</v>
-      </c>
-      <c r="B79" t="s" s="5">
-        <v>166</v>
-      </c>
-      <c r="C79" t="s" s="5">
-        <v>15</v>
+      <c r="K78" s="6"/>
+    </row>
+    <row r="79" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A79" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="6">
-        <v>0.675</v>
-      </c>
+      <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
-    </row>
-    <row r="80" ht="14.35" customHeight="1">
-      <c r="A80" t="s" s="5">
-        <v>167</v>
-      </c>
-      <c r="B80" t="s" s="5">
-        <v>168</v>
-      </c>
-      <c r="C80" t="s" s="5">
-        <v>12</v>
+      <c r="K79" s="6"/>
+    </row>
+    <row r="80" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A80" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="6">
-        <v>0.278688524590164</v>
-      </c>
+      <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
-    </row>
-    <row r="81" ht="14.35" customHeight="1">
-      <c r="A81" t="s" s="5">
-        <v>169</v>
-      </c>
-      <c r="B81" t="s" s="5">
-        <v>170</v>
-      </c>
-      <c r="C81" t="s" s="5">
-        <v>12</v>
+      <c r="K80" s="6"/>
+    </row>
+    <row r="81" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A81" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="6">
-        <v>0.901639344262295</v>
-      </c>
+      <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
-    </row>
-    <row r="82" ht="14.35" customHeight="1">
-      <c r="A82" t="s" s="5">
-        <v>171</v>
-      </c>
-      <c r="B82" t="s" s="5">
-        <v>172</v>
-      </c>
-      <c r="C82" t="s" s="5">
-        <v>12</v>
+      <c r="K81" s="6"/>
+    </row>
+    <row r="82" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A82" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="6">
-        <v>0.475409836065574</v>
-      </c>
+      <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
-    </row>
-    <row r="83" ht="14.35" customHeight="1">
-      <c r="A83" t="s" s="5">
-        <v>173</v>
-      </c>
-      <c r="B83" t="s" s="5">
-        <v>174</v>
-      </c>
-      <c r="C83" t="s" s="5">
-        <v>12</v>
+      <c r="K82" s="6"/>
+    </row>
+    <row r="83" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A83" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="6">
-        <v>0</v>
-      </c>
+      <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
-    </row>
-    <row r="84" ht="14.35" customHeight="1">
-      <c r="A84" t="s" s="5">
-        <v>175</v>
-      </c>
-      <c r="B84" t="s" s="5">
-        <v>176</v>
-      </c>
-      <c r="C84" t="s" s="5">
+      <c r="K83" s="6"/>
+    </row>
+    <row r="84" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="6">
-        <v>0</v>
-      </c>
+      <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
-    </row>
-    <row r="85" ht="14.35" customHeight="1">
-      <c r="A85" t="s" s="5">
-        <v>177</v>
-      </c>
-      <c r="B85" t="s" s="5">
-        <v>178</v>
-      </c>
-      <c r="C85" t="s" s="5">
-        <v>12</v>
+      <c r="K84" s="6"/>
+    </row>
+    <row r="85" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A85" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="6">
-        <v>0.901639344262295</v>
-      </c>
+      <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
-    </row>
-    <row r="86" ht="14.35" customHeight="1">
-      <c r="A86" t="s" s="5">
-        <v>179</v>
-      </c>
-      <c r="B86" t="s" s="5">
+      <c r="K85" s="6"/>
+    </row>
+    <row r="86" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A86" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C86" t="s" s="5">
-        <v>15</v>
+      <c r="B86" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="6">
-        <v>0</v>
-      </c>
+      <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
-    </row>
-    <row r="87" ht="14.35" customHeight="1">
-      <c r="A87" t="s" s="5">
-        <v>181</v>
-      </c>
-      <c r="B87" t="s" s="5">
+      <c r="K86" s="6"/>
+    </row>
+    <row r="87" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A87" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C87" t="s" s="5">
-        <v>12</v>
+      <c r="B87" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="6">
-        <v>0.655737704918033</v>
-      </c>
+      <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
-    </row>
-    <row r="88" ht="14.35" customHeight="1">
-      <c r="A88" t="s" s="5">
-        <v>183</v>
-      </c>
-      <c r="B88" t="s" s="5">
+      <c r="K87" s="6"/>
+    </row>
+    <row r="88" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A88" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C88" t="s" s="5">
-        <v>12</v>
+      <c r="B88" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="6">
-        <v>0.295081967213115</v>
-      </c>
+      <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
-    </row>
-    <row r="89" ht="14.35" customHeight="1">
-      <c r="A89" t="s" s="5">
-        <v>185</v>
-      </c>
-      <c r="B89" t="s" s="5">
+      <c r="K88" s="6"/>
+    </row>
+    <row r="89" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A89" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C89" t="s" s="5">
-        <v>12</v>
+      <c r="B89" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="6">
-        <v>0.8032786885245899</v>
-      </c>
+      <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
-    </row>
-    <row r="90" ht="14.35" customHeight="1">
-      <c r="A90" t="s" s="5">
-        <v>187</v>
-      </c>
-      <c r="B90" t="s" s="5">
+      <c r="K89" s="6"/>
+    </row>
+    <row r="90" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A90" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C90" t="s" s="5">
-        <v>15</v>
+      <c r="B90" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="6">
-        <v>0</v>
-      </c>
+      <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
-    </row>
-    <row r="91" ht="14.35" customHeight="1">
-      <c r="A91" t="s" s="5">
-        <v>189</v>
-      </c>
-      <c r="B91" t="s" s="5">
+      <c r="K90" s="6"/>
+    </row>
+    <row r="91" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A91" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C91" t="s" s="5">
-        <v>15</v>
+      <c r="B91" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="6">
-        <v>0.5600000000000001</v>
-      </c>
+      <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
-    </row>
-    <row r="92" ht="14.35" customHeight="1">
-      <c r="A92" t="s" s="5">
-        <v>191</v>
-      </c>
-      <c r="B92" t="s" s="5">
+      <c r="K91" s="6"/>
+    </row>
+    <row r="92" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A92" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C92" t="s" s="5">
-        <v>15</v>
+      <c r="B92" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
-      <c r="G92" s="6">
-        <v>0.625</v>
-      </c>
+      <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
-    </row>
-    <row r="93" ht="14.35" customHeight="1">
-      <c r="A93" t="s" s="5">
-        <v>193</v>
-      </c>
-      <c r="B93" t="s" s="5">
-        <v>194</v>
-      </c>
-      <c r="C93" t="s" s="5">
-        <v>15</v>
-      </c>
+      <c r="K92" s="6"/>
+    </row>
+    <row r="93" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="6">
-        <v>0.5375</v>
-      </c>
+      <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9452476-05FD-0242-85C5-DE35900C1D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F09FCA-927B-5647-8938-48CD9401FD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15960" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="800" windowWidth="15960" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1853,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G92"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2929,7 +2929,9 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="G50" s="6">
+        <v>0.45</v>
+      </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
@@ -2948,7 +2950,9 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
+      <c r="G51" s="6">
+        <v>0.37</v>
+      </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
@@ -2967,7 +2971,9 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="G52" s="6">
+        <v>0.48</v>
+      </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -2986,7 +2992,9 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+      <c r="G53" s="6">
+        <v>0.32</v>
+      </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
@@ -3005,7 +3013,9 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="G54" s="6">
+        <v>0.43</v>
+      </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
@@ -3024,7 +3034,9 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+      <c r="G55" s="6">
+        <v>0.2</v>
+      </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
@@ -3043,7 +3055,9 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
+      <c r="G56" s="6">
+        <v>0.32</v>
+      </c>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
@@ -3062,7 +3076,9 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
+      <c r="G57" s="6">
+        <v>0.39</v>
+      </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
@@ -3081,7 +3097,9 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="G58" s="6">
+        <v>0.47</v>
+      </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
@@ -3100,7 +3118,9 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="G59" s="6">
+        <v>0.37</v>
+      </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
@@ -3119,7 +3139,9 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
+      <c r="G60" s="6">
+        <v>0.32</v>
+      </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
@@ -3138,7 +3160,9 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
+      <c r="G61" s="6">
+        <v>0.42</v>
+      </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
@@ -3157,7 +3181,9 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
+      <c r="G62" s="6">
+        <v>0.41</v>
+      </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
@@ -3176,7 +3202,9 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
+      <c r="G63" s="6">
+        <v>0.39</v>
+      </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -3195,7 +3223,9 @@
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
+      <c r="G64" s="6">
+        <v>0.53</v>
+      </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
@@ -3214,7 +3244,9 @@
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
+      <c r="G65" s="6">
+        <v>0.38</v>
+      </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -3233,7 +3265,9 @@
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
+      <c r="G66" s="6">
+        <v>0.51</v>
+      </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
@@ -3252,7 +3286,9 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
+      <c r="G67" s="6">
+        <v>0.41</v>
+      </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
@@ -3271,7 +3307,9 @@
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
+      <c r="G68" s="6">
+        <v>0</v>
+      </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
@@ -3290,7 +3328,9 @@
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
+      <c r="G69" s="6">
+        <v>0.45</v>
+      </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -3309,7 +3349,9 @@
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
+      <c r="G70" s="6">
+        <v>0.6</v>
+      </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
@@ -3328,7 +3370,9 @@
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
+      <c r="G71" s="6">
+        <v>0.43</v>
+      </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
@@ -3347,7 +3391,9 @@
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
+      <c r="G72" s="6">
+        <v>0.35</v>
+      </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
@@ -3366,7 +3412,9 @@
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
+      <c r="G73" s="6">
+        <v>0</v>
+      </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
@@ -3385,7 +3433,9 @@
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
+      <c r="G74" s="6">
+        <v>0.38</v>
+      </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
@@ -3404,7 +3454,9 @@
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
+      <c r="G75" s="6">
+        <v>0.4</v>
+      </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
@@ -3423,7 +3475,9 @@
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
+      <c r="G76" s="6">
+        <v>0</v>
+      </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
@@ -3442,7 +3496,9 @@
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
+      <c r="G77" s="6">
+        <v>0</v>
+      </c>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
@@ -3461,7 +3517,9 @@
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
+      <c r="G78" s="6">
+        <v>0.46</v>
+      </c>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
@@ -3480,7 +3538,9 @@
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
+      <c r="G79" s="6">
+        <v>0</v>
+      </c>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
@@ -3499,7 +3559,9 @@
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
+      <c r="G80" s="6">
+        <v>0</v>
+      </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
@@ -3518,7 +3580,9 @@
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
+      <c r="G81" s="6">
+        <v>0.45</v>
+      </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
@@ -3537,7 +3601,9 @@
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
+      <c r="G82" s="6">
+        <v>0.48</v>
+      </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
@@ -3556,7 +3622,9 @@
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
+      <c r="G83" s="6">
+        <v>0.44</v>
+      </c>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
@@ -3575,7 +3643,9 @@
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
+      <c r="G84" s="6">
+        <v>0</v>
+      </c>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
@@ -3594,7 +3664,9 @@
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
+      <c r="G85" s="6">
+        <v>0.12</v>
+      </c>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
@@ -3613,7 +3685,9 @@
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
+      <c r="G86" s="6">
+        <v>0</v>
+      </c>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
@@ -3632,7 +3706,9 @@
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
+      <c r="G87" s="6">
+        <v>0.4</v>
+      </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
@@ -3651,7 +3727,9 @@
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
+      <c r="G88" s="6">
+        <v>0</v>
+      </c>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
@@ -3670,7 +3748,9 @@
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
+      <c r="G89" s="6">
+        <v>0.42</v>
+      </c>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
@@ -3689,7 +3769,9 @@
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
+      <c r="G90" s="6">
+        <v>0.34</v>
+      </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
@@ -3708,7 +3790,9 @@
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
+      <c r="G91" s="6">
+        <v>0.32</v>
+      </c>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
@@ -3727,7 +3811,9 @@
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
+      <c r="G92" s="6">
+        <v>0.52</v>
+      </c>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F09FCA-927B-5647-8938-48CD9401FD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99B4DF3-B104-2F45-A621-FF26E93EE520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="800" windowWidth="15960" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="760" windowWidth="15960" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1854,7 +1854,7 @@
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2932,7 +2932,9 @@
       <c r="G50" s="6">
         <v>0.45</v>
       </c>
-      <c r="H50" s="6"/>
+      <c r="H50" s="6">
+        <v>0.88</v>
+      </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
@@ -2953,7 +2955,9 @@
       <c r="G51" s="6">
         <v>0.37</v>
       </c>
-      <c r="H51" s="6"/>
+      <c r="H51" s="6">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
@@ -2974,7 +2978,9 @@
       <c r="G52" s="6">
         <v>0.48</v>
       </c>
-      <c r="H52" s="6"/>
+      <c r="H52" s="6">
+        <v>0.61</v>
+      </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6"/>
@@ -2995,7 +3001,9 @@
       <c r="G53" s="6">
         <v>0.32</v>
       </c>
-      <c r="H53" s="6"/>
+      <c r="H53" s="6">
+        <v>0.39</v>
+      </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
@@ -3016,7 +3024,9 @@
       <c r="G54" s="6">
         <v>0.43</v>
       </c>
-      <c r="H54" s="6"/>
+      <c r="H54" s="6">
+        <v>0.35</v>
+      </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
@@ -3037,7 +3047,9 @@
       <c r="G55" s="6">
         <v>0.2</v>
       </c>
-      <c r="H55" s="6"/>
+      <c r="H55" s="6">
+        <v>0.41</v>
+      </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
@@ -3058,7 +3070,9 @@
       <c r="G56" s="6">
         <v>0.32</v>
       </c>
-      <c r="H56" s="6"/>
+      <c r="H56" s="6">
+        <v>0.63</v>
+      </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6"/>
@@ -3079,7 +3093,9 @@
       <c r="G57" s="6">
         <v>0.39</v>
       </c>
-      <c r="H57" s="6"/>
+      <c r="H57" s="6">
+        <v>0.67</v>
+      </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
@@ -3100,7 +3116,9 @@
       <c r="G58" s="6">
         <v>0.47</v>
       </c>
-      <c r="H58" s="6"/>
+      <c r="H58" s="6">
+        <v>0.63</v>
+      </c>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
       <c r="K58" s="6"/>
@@ -3121,7 +3139,9 @@
       <c r="G59" s="6">
         <v>0.37</v>
       </c>
-      <c r="H59" s="6"/>
+      <c r="H59" s="6">
+        <v>0.51</v>
+      </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
@@ -3142,7 +3162,9 @@
       <c r="G60" s="6">
         <v>0.32</v>
       </c>
-      <c r="H60" s="6"/>
+      <c r="H60" s="6">
+        <v>0.51</v>
+      </c>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
       <c r="K60" s="6"/>
@@ -3163,7 +3185,9 @@
       <c r="G61" s="6">
         <v>0.42</v>
       </c>
-      <c r="H61" s="6"/>
+      <c r="H61" s="6">
+        <v>0.18</v>
+      </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
@@ -3184,7 +3208,9 @@
       <c r="G62" s="6">
         <v>0.41</v>
       </c>
-      <c r="H62" s="6"/>
+      <c r="H62" s="6">
+        <v>0.27</v>
+      </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
@@ -3205,7 +3231,9 @@
       <c r="G63" s="6">
         <v>0.39</v>
       </c>
-      <c r="H63" s="6"/>
+      <c r="H63" s="6">
+        <v>0</v>
+      </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -3226,7 +3254,9 @@
       <c r="G64" s="6">
         <v>0.53</v>
       </c>
-      <c r="H64" s="6"/>
+      <c r="H64" s="6">
+        <v>0.45</v>
+      </c>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
       <c r="K64" s="6"/>
@@ -3247,7 +3277,9 @@
       <c r="G65" s="6">
         <v>0.38</v>
       </c>
-      <c r="H65" s="6"/>
+      <c r="H65" s="6">
+        <v>0.31</v>
+      </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
       <c r="K65" s="6"/>
@@ -3268,7 +3300,9 @@
       <c r="G66" s="6">
         <v>0.51</v>
       </c>
-      <c r="H66" s="6"/>
+      <c r="H66" s="6">
+        <v>0.69</v>
+      </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
       <c r="K66" s="6"/>
@@ -3289,7 +3323,9 @@
       <c r="G67" s="6">
         <v>0.41</v>
       </c>
-      <c r="H67" s="6"/>
+      <c r="H67" s="6">
+        <v>0.43</v>
+      </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="6"/>
@@ -3310,7 +3346,9 @@
       <c r="G68" s="6">
         <v>0</v>
       </c>
-      <c r="H68" s="6"/>
+      <c r="H68" s="6">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
@@ -3331,7 +3369,9 @@
       <c r="G69" s="6">
         <v>0.45</v>
       </c>
-      <c r="H69" s="6"/>
+      <c r="H69" s="6">
+        <v>0.47</v>
+      </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
@@ -3352,7 +3392,9 @@
       <c r="G70" s="6">
         <v>0.6</v>
       </c>
-      <c r="H70" s="6"/>
+      <c r="H70" s="6">
+        <v>0.96</v>
+      </c>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6"/>
@@ -3373,7 +3415,9 @@
       <c r="G71" s="6">
         <v>0.43</v>
       </c>
-      <c r="H71" s="6"/>
+      <c r="H71" s="6">
+        <v>0.76</v>
+      </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6"/>
@@ -3394,7 +3438,9 @@
       <c r="G72" s="6">
         <v>0.35</v>
       </c>
-      <c r="H72" s="6"/>
+      <c r="H72" s="6">
+        <v>0.49</v>
+      </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6"/>
@@ -3415,7 +3461,9 @@
       <c r="G73" s="6">
         <v>0</v>
       </c>
-      <c r="H73" s="6"/>
+      <c r="H73" s="6">
+        <v>0</v>
+      </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
@@ -3436,7 +3484,9 @@
       <c r="G74" s="6">
         <v>0.38</v>
       </c>
-      <c r="H74" s="6"/>
+      <c r="H74" s="6">
+        <v>0.41</v>
+      </c>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6"/>
@@ -3457,7 +3507,9 @@
       <c r="G75" s="6">
         <v>0.4</v>
       </c>
-      <c r="H75" s="6"/>
+      <c r="H75" s="6">
+        <v>0.71</v>
+      </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
@@ -3478,7 +3530,9 @@
       <c r="G76" s="6">
         <v>0</v>
       </c>
-      <c r="H76" s="6"/>
+      <c r="H76" s="6">
+        <v>0</v>
+      </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
@@ -3499,7 +3553,9 @@
       <c r="G77" s="6">
         <v>0</v>
       </c>
-      <c r="H77" s="6"/>
+      <c r="H77" s="6">
+        <v>0.51</v>
+      </c>
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
@@ -3520,7 +3576,9 @@
       <c r="G78" s="6">
         <v>0.46</v>
       </c>
-      <c r="H78" s="6"/>
+      <c r="H78" s="6">
+        <v>0.35</v>
+      </c>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
@@ -3541,7 +3599,9 @@
       <c r="G79" s="6">
         <v>0</v>
       </c>
-      <c r="H79" s="6"/>
+      <c r="H79" s="6">
+        <v>0.43</v>
+      </c>
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
       <c r="K79" s="6"/>
@@ -3562,7 +3622,9 @@
       <c r="G80" s="6">
         <v>0</v>
       </c>
-      <c r="H80" s="6"/>
+      <c r="H80" s="6">
+        <v>0.47</v>
+      </c>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
@@ -3583,7 +3645,9 @@
       <c r="G81" s="6">
         <v>0.45</v>
       </c>
-      <c r="H81" s="6"/>
+      <c r="H81" s="6">
+        <v>0.96</v>
+      </c>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
@@ -3604,7 +3668,9 @@
       <c r="G82" s="6">
         <v>0.48</v>
       </c>
-      <c r="H82" s="6"/>
+      <c r="H82" s="6">
+        <v>0.47</v>
+      </c>
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
       <c r="K82" s="6"/>
@@ -3625,7 +3691,9 @@
       <c r="G83" s="6">
         <v>0.44</v>
       </c>
-      <c r="H83" s="6"/>
+      <c r="H83" s="6">
+        <v>0.45</v>
+      </c>
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
       <c r="K83" s="6"/>
@@ -3646,7 +3714,9 @@
       <c r="G84" s="6">
         <v>0</v>
       </c>
-      <c r="H84" s="6"/>
+      <c r="H84" s="6">
+        <v>0</v>
+      </c>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
@@ -3667,7 +3737,9 @@
       <c r="G85" s="6">
         <v>0.12</v>
       </c>
-      <c r="H85" s="6"/>
+      <c r="H85" s="6">
+        <v>0.31</v>
+      </c>
       <c r="I85" s="6"/>
       <c r="J85" s="6"/>
       <c r="K85" s="6"/>
@@ -3688,7 +3760,9 @@
       <c r="G86" s="6">
         <v>0</v>
       </c>
-      <c r="H86" s="6"/>
+      <c r="H86" s="6">
+        <v>0</v>
+      </c>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
       <c r="K86" s="6"/>
@@ -3709,7 +3783,9 @@
       <c r="G87" s="6">
         <v>0.4</v>
       </c>
-      <c r="H87" s="6"/>
+      <c r="H87" s="6">
+        <v>0.59</v>
+      </c>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
@@ -3730,7 +3806,9 @@
       <c r="G88" s="6">
         <v>0</v>
       </c>
-      <c r="H88" s="6"/>
+      <c r="H88" s="6">
+        <v>0</v>
+      </c>
       <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
@@ -3751,7 +3829,9 @@
       <c r="G89" s="6">
         <v>0.42</v>
       </c>
-      <c r="H89" s="6"/>
+      <c r="H89" s="6">
+        <v>0.88</v>
+      </c>
       <c r="I89" s="6"/>
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
@@ -3772,7 +3852,9 @@
       <c r="G90" s="6">
         <v>0.34</v>
       </c>
-      <c r="H90" s="6"/>
+      <c r="H90" s="6">
+        <v>0.45</v>
+      </c>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
       <c r="K90" s="6"/>
@@ -3793,7 +3875,9 @@
       <c r="G91" s="6">
         <v>0.32</v>
       </c>
-      <c r="H91" s="6"/>
+      <c r="H91" s="6">
+        <v>0.47</v>
+      </c>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
@@ -3814,7 +3898,9 @@
       <c r="G92" s="6">
         <v>0.52</v>
       </c>
-      <c r="H92" s="6"/>
+      <c r="H92" s="6">
+        <v>0.63</v>
+      </c>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
       <c r="K92" s="6"/>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99B4DF3-B104-2F45-A621-FF26E93EE520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6F7829-4BEC-7446-8CC5-F39ABB5BCF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="760" windowWidth="15960" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10640" yWindow="840" windowWidth="15960" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1853,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2930,7 +2930,7 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6">
-        <v>0.45</v>
+        <v>0.73</v>
       </c>
       <c r="H50" s="6">
         <v>0.88</v>
@@ -2953,7 +2953,7 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6">
-        <v>0.37</v>
+        <v>0.6</v>
       </c>
       <c r="H51" s="6">
         <v>0.55000000000000004</v>
@@ -2976,7 +2976,7 @@
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6">
-        <v>0.48</v>
+        <v>0.77</v>
       </c>
       <c r="H52" s="6">
         <v>0.61</v>
@@ -2999,7 +2999,7 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6">
-        <v>0.32</v>
+        <v>0.52</v>
       </c>
       <c r="H53" s="6">
         <v>0.39</v>
@@ -3022,7 +3022,7 @@
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6">
-        <v>0.43</v>
+        <v>0.69</v>
       </c>
       <c r="H54" s="6">
         <v>0.35</v>
@@ -3045,7 +3045,7 @@
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="H55" s="6">
         <v>0.41</v>
@@ -3068,7 +3068,7 @@
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6">
-        <v>0.32</v>
+        <v>0.52</v>
       </c>
       <c r="H56" s="6">
         <v>0.63</v>
@@ -3091,7 +3091,7 @@
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6">
-        <v>0.39</v>
+        <v>0.63</v>
       </c>
       <c r="H57" s="6">
         <v>0.67</v>
@@ -3114,7 +3114,7 @@
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6">
-        <v>0.47</v>
+        <v>0.76</v>
       </c>
       <c r="H58" s="6">
         <v>0.63</v>
@@ -3137,7 +3137,7 @@
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6">
-        <v>0.37</v>
+        <v>0.6</v>
       </c>
       <c r="H59" s="6">
         <v>0.51</v>
@@ -3160,7 +3160,7 @@
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6">
-        <v>0.32</v>
+        <v>0.52</v>
       </c>
       <c r="H60" s="6">
         <v>0.51</v>
@@ -3183,7 +3183,7 @@
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6">
-        <v>0.42</v>
+        <v>0.68</v>
       </c>
       <c r="H61" s="6">
         <v>0.18</v>
@@ -3206,7 +3206,7 @@
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6">
-        <v>0.41</v>
+        <v>0.66</v>
       </c>
       <c r="H62" s="6">
         <v>0.27</v>
@@ -3229,7 +3229,7 @@
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6">
-        <v>0.39</v>
+        <v>0.63</v>
       </c>
       <c r="H63" s="6">
         <v>0</v>
@@ -3252,7 +3252,7 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6">
-        <v>0.53</v>
+        <v>0.85</v>
       </c>
       <c r="H64" s="6">
         <v>0.45</v>
@@ -3275,7 +3275,7 @@
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6">
-        <v>0.38</v>
+        <v>0.61</v>
       </c>
       <c r="H65" s="6">
         <v>0.31</v>
@@ -3298,7 +3298,7 @@
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6">
-        <v>0.51</v>
+        <v>0.82</v>
       </c>
       <c r="H66" s="6">
         <v>0.69</v>
@@ -3321,7 +3321,7 @@
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="6">
-        <v>0.41</v>
+        <v>0.66</v>
       </c>
       <c r="H67" s="6">
         <v>0.43</v>
@@ -3367,7 +3367,7 @@
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="6">
-        <v>0.45</v>
+        <v>0.73</v>
       </c>
       <c r="H69" s="6">
         <v>0.47</v>
@@ -3390,7 +3390,7 @@
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6">
-        <v>0.6</v>
+        <v>0.97</v>
       </c>
       <c r="H70" s="6">
         <v>0.96</v>
@@ -3413,7 +3413,7 @@
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6">
-        <v>0.43</v>
+        <v>0.69</v>
       </c>
       <c r="H71" s="6">
         <v>0.76</v>
@@ -3436,7 +3436,7 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6">
-        <v>0.35</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H72" s="6">
         <v>0.49</v>
@@ -3482,7 +3482,7 @@
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="6">
-        <v>0.38</v>
+        <v>0.61</v>
       </c>
       <c r="H74" s="6">
         <v>0.41</v>
@@ -3505,7 +3505,7 @@
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="H75" s="6">
         <v>0.71</v>
@@ -3574,7 +3574,7 @@
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="6">
-        <v>0.46</v>
+        <v>0.74</v>
       </c>
       <c r="H78" s="6">
         <v>0.35</v>
@@ -3597,7 +3597,7 @@
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="H79" s="6">
         <v>0.43</v>
@@ -3643,7 +3643,7 @@
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6">
-        <v>0.45</v>
+        <v>0.73</v>
       </c>
       <c r="H81" s="6">
         <v>0.96</v>
@@ -3666,7 +3666,7 @@
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6">
-        <v>0.48</v>
+        <v>0.77</v>
       </c>
       <c r="H82" s="6">
         <v>0.47</v>
@@ -3689,7 +3689,7 @@
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6">
-        <v>0.44</v>
+        <v>0.71</v>
       </c>
       <c r="H83" s="6">
         <v>0.45</v>
@@ -3735,7 +3735,7 @@
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="H85" s="6">
         <v>0.31</v>
@@ -3781,7 +3781,7 @@
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="H87" s="6">
         <v>0.59</v>
@@ -3827,7 +3827,7 @@
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6">
-        <v>0.42</v>
+        <v>0.68</v>
       </c>
       <c r="H89" s="6">
         <v>0.88</v>
@@ -3850,7 +3850,7 @@
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6">
-        <v>0.34</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H90" s="6">
         <v>0.45</v>
@@ -3873,7 +3873,7 @@
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6">
-        <v>0.32</v>
+        <v>0.52</v>
       </c>
       <c r="H91" s="6">
         <v>0.47</v>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6F7829-4BEC-7446-8CC5-F39ABB5BCF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75175B93-37AC-684C-83CB-272569B307B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10640" yWindow="840" windowWidth="15960" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1853,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -3620,7 +3620,7 @@
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6">
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="H80" s="6">
         <v>0.47</v>
@@ -3896,10 +3896,10 @@
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6">
-        <v>0.52</v>
+        <v>0.84</v>
       </c>
       <c r="H92" s="6">
-        <v>0.63</v>
+        <v>0.69</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9780145-2F54-8A40-9A50-650F5677CB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE892C46-7556-7949-82A6-370C659EA522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="1240" windowWidth="21820" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6700" yWindow="720" windowWidth="21820" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -776,65 +776,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Times Roman"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="10"/>
-        </left>
-        <right style="thin">
-          <color indexed="10"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <name val="Times Roman"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1272,16 +1213,75 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Times Roman"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="11"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Times Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="10"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1366,23 +1366,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E12D2C3A-56FF-EE48-BF21-6E043A7A5D80}" name="Table1" displayName="Table1" ref="A1:K93" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="13" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E12D2C3A-56FF-EE48-BF21-6E043A7A5D80}" name="Table1" displayName="Table1" ref="A1:K93" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
   <autoFilter ref="A1:K93" xr:uid="{E12D2C3A-56FF-EE48-BF21-6E043A7A5D80}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K93">
     <sortCondition ref="C1:C93"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{CA68C236-9B81-6943-9124-FCB1EFF82B61}" name="Surname" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{772AD85A-09E9-824D-920B-32ECA0508909}" name="Reg" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{19CF2E5D-B4B7-E04D-8776-FF144460D950}" name="Dept" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{E87336A0-4BDA-FA47-AD74-82EC3F149A91}" name="Quiz_1" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{FAC627FA-AD03-4640-83D5-C316A650FDA0}" name="Quiz_2" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{4BA926F4-730D-824B-8373-6D78B9323821}" name="Quiz_3" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{4BF9782F-8E5B-614A-A28C-A3AF428C2B3B}" name="Test_1" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{99D84DCE-7040-C54F-8C73-B2AB39CAB36C}" name="Test_2" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{87033C86-6194-A341-9E8E-123C36BF91AE}" name="Test_3" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{07C69C5C-5C64-A249-BACD-8290E9A17F3A}" name="AS_1" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{791909E3-DD60-2844-A81E-180A04C85B15}" name="CW" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{CA68C236-9B81-6943-9124-FCB1EFF82B61}" name="Surname" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{772AD85A-09E9-824D-920B-32ECA0508909}" name="Reg" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{19CF2E5D-B4B7-E04D-8776-FF144460D950}" name="Dept" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{E87336A0-4BDA-FA47-AD74-82EC3F149A91}" name="Quiz_1" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{FAC627FA-AD03-4640-83D5-C316A650FDA0}" name="Quiz_2" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{4BA926F4-730D-824B-8373-6D78B9323821}" name="Quiz_3" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{4BF9782F-8E5B-614A-A28C-A3AF428C2B3B}" name="Test_1" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{99D84DCE-7040-C54F-8C73-B2AB39CAB36C}" name="Test_2" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{87033C86-6194-A341-9E8E-123C36BF91AE}" name="Test_3" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{07C69C5C-5C64-A249-BACD-8290E9A17F3A}" name="AS_1" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{791909E3-DD60-2844-A81E-180A04C85B15}" name="CW" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2435,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2500,7 +2500,9 @@
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3">
+        <v>0.83</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3">
@@ -2523,7 +2525,9 @@
       <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5">
+        <v>0.54</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
@@ -2546,7 +2550,9 @@
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5">
+        <v>0.54</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5">
@@ -2569,7 +2575,9 @@
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5">
+        <v>0.74</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
@@ -2592,7 +2600,9 @@
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <v>0.64</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
@@ -2615,7 +2625,9 @@
       <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5">
@@ -2638,7 +2650,9 @@
       <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>0.78</v>
+      </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
@@ -2661,7 +2675,9 @@
       <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5">
+        <v>0.54</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
@@ -2684,7 +2700,9 @@
       <c r="C10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <v>0.62</v>
+      </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5">
@@ -2707,7 +2725,9 @@
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5">
+        <v>0.75</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5">
@@ -2730,7 +2750,9 @@
       <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5">
+        <v>0.74</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
@@ -2753,7 +2775,9 @@
       <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5">
+        <v>0.74</v>
+      </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
@@ -2776,7 +2800,9 @@
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5">
+        <v>0.38</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5">
@@ -2799,7 +2825,9 @@
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5">
+        <v>0.67</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5">
@@ -2822,7 +2850,9 @@
       <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5">
+        <v>0.43</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5">
@@ -2845,7 +2875,9 @@
       <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5">
+        <v>0.83</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5">
@@ -2868,7 +2900,9 @@
       <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5">
+        <v>0.78</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5">
@@ -2891,7 +2925,9 @@
       <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="5">
+        <v>0.71</v>
+      </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5">
@@ -2914,7 +2950,9 @@
       <c r="C20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5">
+        <v>0.74</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
@@ -2937,7 +2975,9 @@
       <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5">
@@ -2960,7 +3000,9 @@
       <c r="C22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="5"/>
+      <c r="D22" s="5">
+        <v>0.83</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
@@ -2983,7 +3025,9 @@
       <c r="C23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5">
+        <v>0.83</v>
+      </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5">
@@ -3006,7 +3050,9 @@
       <c r="C24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5">
+        <v>0.74</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5">
@@ -3029,7 +3075,9 @@
       <c r="C25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5">
+        <v>0.59</v>
+      </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5">
@@ -3052,7 +3100,9 @@
       <c r="C26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5">
+        <v>0.54</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5">
@@ -3075,7 +3125,9 @@
       <c r="C27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="5">
+        <v>0.83</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5">
@@ -3098,7 +3150,9 @@
       <c r="C28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="5">
+        <v>0.67</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5">
@@ -3121,7 +3175,9 @@
       <c r="C29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5">
+        <v>0.62</v>
+      </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5">
@@ -3144,7 +3200,9 @@
       <c r="C30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="5"/>
+      <c r="D30" s="5">
+        <v>0.71</v>
+      </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5">
@@ -3167,7 +3225,9 @@
       <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="5">
+        <v>0.54</v>
+      </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5">
@@ -3190,7 +3250,9 @@
       <c r="C32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5">
@@ -3213,7 +3275,9 @@
       <c r="C33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="5">
+        <v>0.59</v>
+      </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5">
@@ -3236,7 +3300,9 @@
       <c r="C34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="5"/>
+      <c r="D34" s="5">
+        <v>0.54</v>
+      </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5">
@@ -3259,7 +3325,9 @@
       <c r="C35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="5"/>
+      <c r="D35" s="5">
+        <v>0.91</v>
+      </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5">
@@ -3282,7 +3350,9 @@
       <c r="C36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="5"/>
+      <c r="D36" s="5">
+        <v>0.74</v>
+      </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5">
@@ -3305,7 +3375,9 @@
       <c r="C37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="5"/>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5">
@@ -3328,7 +3400,9 @@
       <c r="C38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="5"/>
+      <c r="D38" s="5">
+        <v>0.64</v>
+      </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5">
@@ -3351,7 +3425,9 @@
       <c r="C39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="5"/>
+      <c r="D39" s="5">
+        <v>0.74</v>
+      </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5">
@@ -3374,7 +3450,9 @@
       <c r="C40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="5"/>
+      <c r="D40" s="5">
+        <v>0.43</v>
+      </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5">
@@ -3397,7 +3475,9 @@
       <c r="C41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="11"/>
+      <c r="D41" s="11">
+        <v>0.75</v>
+      </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="5">
@@ -3420,7 +3500,9 @@
       <c r="C42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D42" s="5">
+        <v>0.62</v>
+      </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5">
@@ -3443,7 +3525,9 @@
       <c r="C43" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="5"/>
+      <c r="D43" s="5">
+        <v>0.49</v>
+      </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5">
@@ -3466,7 +3550,9 @@
       <c r="C44" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="5"/>
+      <c r="D44" s="5">
+        <v>0.78</v>
+      </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5">
@@ -3489,7 +3575,9 @@
       <c r="C45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="5"/>
+      <c r="D45" s="5">
+        <v>0.67</v>
+      </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5">
@@ -3512,7 +3600,9 @@
       <c r="C46" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="5"/>
+      <c r="D46" s="5">
+        <v>0.91</v>
+      </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5">
@@ -3535,7 +3625,9 @@
       <c r="C47" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="5"/>
+      <c r="D47" s="5">
+        <v>0.74</v>
+      </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5">
@@ -3558,7 +3650,9 @@
       <c r="C48" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="5"/>
+      <c r="D48" s="5">
+        <v>0.67</v>
+      </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5">
@@ -3581,7 +3675,9 @@
       <c r="C49" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="5"/>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5">
@@ -3604,7 +3700,9 @@
       <c r="C50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="5"/>
+      <c r="D50" s="5">
+        <v>0.78</v>
+      </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5">
@@ -3627,7 +3725,9 @@
       <c r="C51" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="5"/>
+      <c r="D51" s="5">
+        <v>0.91</v>
+      </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5">
@@ -3650,7 +3750,9 @@
       <c r="C52" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D52" s="5"/>
+      <c r="D52" s="5">
+        <v>0.7</v>
+      </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5">
@@ -3673,7 +3775,9 @@
       <c r="C53" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="5"/>
+      <c r="D53" s="5">
+        <v>0.89</v>
+      </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5">
@@ -3696,7 +3800,9 @@
       <c r="C54" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="5"/>
+      <c r="D54" s="5">
+        <v>0.84</v>
+      </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5">
@@ -3719,7 +3825,9 @@
       <c r="C55" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="5"/>
+      <c r="D55" s="5">
+        <v>0.8</v>
+      </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5">
@@ -3742,7 +3850,9 @@
       <c r="C56" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D56" s="5"/>
+      <c r="D56" s="5">
+        <v>0.91</v>
+      </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5">
@@ -3765,7 +3875,9 @@
       <c r="C57" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="5"/>
+      <c r="D57" s="5">
+        <v>0.91</v>
+      </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5">
@@ -3788,7 +3900,9 @@
       <c r="C58" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="5"/>
+      <c r="D58" s="5">
+        <v>0.68</v>
+      </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5">
@@ -3811,7 +3925,9 @@
       <c r="C59" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="5"/>
+      <c r="D59" s="5">
+        <v>0.84</v>
+      </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5">
@@ -3834,7 +3950,9 @@
       <c r="C60" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="5"/>
+      <c r="D60" s="5">
+        <v>0.91</v>
+      </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5">
@@ -3857,7 +3975,9 @@
       <c r="C61" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D61" s="5"/>
+      <c r="D61" s="5">
+        <v>0.89</v>
+      </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5">
@@ -3880,7 +4000,9 @@
       <c r="C62" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="5"/>
+      <c r="D62" s="5">
+        <v>0.84</v>
+      </c>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5">
@@ -3903,7 +4025,9 @@
       <c r="C63" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D63" s="5"/>
+      <c r="D63" s="5">
+        <v>0.89</v>
+      </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5">
@@ -3926,7 +4050,9 @@
       <c r="C64" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D64" s="5"/>
+      <c r="D64" s="5">
+        <v>0.91</v>
+      </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5">
@@ -3949,7 +4075,9 @@
       <c r="C65" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D65" s="5"/>
+      <c r="D65" s="5">
+        <v>0.84</v>
+      </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5">
@@ -3972,7 +4100,9 @@
       <c r="C66" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D66" s="5"/>
+      <c r="D66" s="5">
+        <v>0.91</v>
+      </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5">
@@ -3995,7 +4125,9 @@
       <c r="C67" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D67" s="5"/>
+      <c r="D67" s="5">
+        <v>0.91</v>
+      </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5">
@@ -4018,7 +4150,9 @@
       <c r="C68" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D68" s="5"/>
+      <c r="D68" s="5">
+        <v>0</v>
+      </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5">
@@ -4041,7 +4175,9 @@
       <c r="C69" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D69" s="5"/>
+      <c r="D69" s="5">
+        <v>0.91</v>
+      </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5">
@@ -4064,7 +4200,9 @@
       <c r="C70" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="5"/>
+      <c r="D70" s="5">
+        <v>0.91</v>
+      </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5">
@@ -4087,7 +4225,9 @@
       <c r="C71" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D71" s="5"/>
+      <c r="D71" s="5">
+        <v>0.84</v>
+      </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5">
@@ -4110,7 +4250,9 @@
       <c r="C72" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D72" s="5"/>
+      <c r="D72" s="5">
+        <v>0.78</v>
+      </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5">
@@ -4133,7 +4275,9 @@
       <c r="C73" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D73" s="5"/>
+      <c r="D73" s="5">
+        <v>0.84</v>
+      </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5">
@@ -4156,7 +4300,9 @@
       <c r="C74" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D74" s="5"/>
+      <c r="D74" s="5">
+        <v>0</v>
+      </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5">
@@ -4179,7 +4325,9 @@
       <c r="C75" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D75" s="5"/>
+      <c r="D75" s="5">
+        <v>0.81</v>
+      </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5">
@@ -4202,11 +4350,13 @@
       <c r="C76" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D76" s="5"/>
+      <c r="D76" s="5">
+        <v>0.91</v>
+      </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5">
-        <v>0.65</v>
+        <v>0.81</v>
       </c>
       <c r="H76" s="5">
         <v>0.71</v>
@@ -4225,7 +4375,9 @@
       <c r="C77" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D77" s="5"/>
+      <c r="D77" s="5">
+        <v>0.91</v>
+      </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5">
@@ -4248,7 +4400,9 @@
       <c r="C78" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D78" s="5"/>
+      <c r="D78" s="5">
+        <v>0.91</v>
+      </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5">
@@ -4271,7 +4425,9 @@
       <c r="C79" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D79" s="5"/>
+      <c r="D79" s="5">
+        <v>0</v>
+      </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5">
@@ -4294,7 +4450,9 @@
       <c r="C80" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D80" s="5"/>
+      <c r="D80" s="5">
+        <v>0.7</v>
+      </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5">
@@ -4317,7 +4475,9 @@
       <c r="C81" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D81" s="5"/>
+      <c r="D81" s="5">
+        <v>0.91</v>
+      </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5">
@@ -4340,7 +4500,9 @@
       <c r="C82" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D82" s="5"/>
+      <c r="D82" s="5">
+        <v>0.91</v>
+      </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5">
@@ -4363,7 +4525,9 @@
       <c r="C83" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D83" s="5"/>
+      <c r="D83" s="5">
+        <v>0.91</v>
+      </c>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="5">
@@ -4386,7 +4550,9 @@
       <c r="C84" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D84" s="5"/>
+      <c r="D84" s="5">
+        <v>0.84</v>
+      </c>
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="5">
@@ -4409,7 +4575,9 @@
       <c r="C85" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D85" s="5"/>
+      <c r="D85" s="5">
+        <v>0</v>
+      </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="5">
@@ -4432,7 +4600,9 @@
       <c r="C86" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D86" s="5"/>
+      <c r="D86" s="5">
+        <v>0.88</v>
+      </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="5">
@@ -4455,7 +4625,9 @@
       <c r="C87" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D87" s="5"/>
+      <c r="D87" s="5">
+        <v>0</v>
+      </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5">
@@ -4478,7 +4650,9 @@
       <c r="C88" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D88" s="5"/>
+      <c r="D88" s="5">
+        <v>0.91</v>
+      </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="5">
@@ -4501,7 +4675,9 @@
       <c r="C89" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D89" s="5"/>
+      <c r="D89" s="5">
+        <v>0.41</v>
+      </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="5">
@@ -4524,7 +4700,9 @@
       <c r="C90" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D90" s="5"/>
+      <c r="D90" s="5">
+        <v>0.91</v>
+      </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5">
@@ -4547,7 +4725,9 @@
       <c r="C91" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D91" s="5"/>
+      <c r="D91" s="5">
+        <v>0.84</v>
+      </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="5">
@@ -4570,7 +4750,9 @@
       <c r="C92" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D92" s="7"/>
+      <c r="D92" s="7">
+        <v>0.91</v>
+      </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7">
@@ -4593,7 +4775,9 @@
       <c r="C93" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D93" s="9"/>
+      <c r="D93" s="9">
+        <v>0.91</v>
+      </c>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9">

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE892C46-7556-7949-82A6-370C659EA522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B59BE8-B6DB-2A40-A782-45B6D46BA2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="720" windowWidth="21820" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6700" yWindow="680" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2436,7 +2436,7 @@
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -3736,7 +3736,9 @@
       <c r="H51" s="5">
         <v>0.88</v>
       </c>
-      <c r="I51" s="5"/>
+      <c r="I51" s="5">
+        <v>0.81</v>
+      </c>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
     </row>
@@ -3761,7 +3763,9 @@
       <c r="H52" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I52" s="5"/>
+      <c r="I52" s="5">
+        <v>0.44</v>
+      </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
     </row>
@@ -3786,7 +3790,9 @@
       <c r="H53" s="5">
         <v>0.61</v>
       </c>
-      <c r="I53" s="5"/>
+      <c r="I53" s="5">
+        <v>0.77</v>
+      </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
     </row>
@@ -3811,7 +3817,9 @@
       <c r="H54" s="5">
         <v>0.39</v>
       </c>
-      <c r="I54" s="5"/>
+      <c r="I54" s="5">
+        <v>0</v>
+      </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
     </row>
@@ -3836,7 +3844,9 @@
       <c r="H55" s="5">
         <v>0.35</v>
       </c>
-      <c r="I55" s="5"/>
+      <c r="I55" s="5">
+        <v>0.75</v>
+      </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
     </row>
@@ -3861,7 +3871,9 @@
       <c r="H56" s="5">
         <v>0.41</v>
       </c>
-      <c r="I56" s="5"/>
+      <c r="I56" s="5">
+        <v>0.25</v>
+      </c>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
     </row>
@@ -3886,7 +3898,9 @@
       <c r="H57" s="5">
         <v>0.63</v>
       </c>
-      <c r="I57" s="5"/>
+      <c r="I57" s="5">
+        <v>0.44</v>
+      </c>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
     </row>
@@ -3911,7 +3925,9 @@
       <c r="H58" s="5">
         <v>0.67</v>
       </c>
-      <c r="I58" s="5"/>
+      <c r="I58" s="5">
+        <v>0.44</v>
+      </c>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
     </row>
@@ -3936,7 +3952,9 @@
       <c r="H59" s="5">
         <v>0.63</v>
       </c>
-      <c r="I59" s="5"/>
+      <c r="I59" s="5">
+        <v>0</v>
+      </c>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
     </row>
@@ -3961,7 +3979,9 @@
       <c r="H60" s="5">
         <v>0.51</v>
       </c>
-      <c r="I60" s="5"/>
+      <c r="I60" s="5">
+        <v>0</v>
+      </c>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
     </row>
@@ -3986,7 +4006,9 @@
       <c r="H61" s="5">
         <v>0.51</v>
       </c>
-      <c r="I61" s="5"/>
+      <c r="I61" s="5">
+        <v>0.69</v>
+      </c>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
     </row>
@@ -4011,7 +4033,9 @@
       <c r="H62" s="5">
         <v>0.18</v>
       </c>
-      <c r="I62" s="5"/>
+      <c r="I62" s="5">
+        <v>0.5</v>
+      </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
     </row>
@@ -4036,7 +4060,9 @@
       <c r="H63" s="5">
         <v>0.27</v>
       </c>
-      <c r="I63" s="5"/>
+      <c r="I63" s="5">
+        <v>0.65</v>
+      </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
     </row>
@@ -4061,7 +4087,9 @@
       <c r="H64" s="5">
         <v>0</v>
       </c>
-      <c r="I64" s="5"/>
+      <c r="I64" s="5">
+        <v>0.27</v>
+      </c>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
     </row>
@@ -4086,7 +4114,9 @@
       <c r="H65" s="5">
         <v>0.45</v>
       </c>
-      <c r="I65" s="5"/>
+      <c r="I65" s="5">
+        <v>0.79</v>
+      </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
     </row>
@@ -4111,7 +4141,9 @@
       <c r="H66" s="5">
         <v>0.31</v>
       </c>
-      <c r="I66" s="5"/>
+      <c r="I66" s="5">
+        <v>0.5</v>
+      </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
     </row>
@@ -4136,7 +4168,9 @@
       <c r="H67" s="5">
         <v>0.69</v>
       </c>
-      <c r="I67" s="5"/>
+      <c r="I67" s="5">
+        <v>0.75</v>
+      </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
     </row>
@@ -4161,7 +4195,9 @@
       <c r="H68" s="5">
         <v>0.43</v>
       </c>
-      <c r="I68" s="5"/>
+      <c r="I68" s="5">
+        <v>0.46</v>
+      </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
     </row>
@@ -4186,7 +4222,9 @@
       <c r="H69" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I69" s="5"/>
+      <c r="I69" s="5">
+        <v>0.75</v>
+      </c>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
     </row>
@@ -4211,7 +4249,9 @@
       <c r="H70" s="5">
         <v>0.47</v>
       </c>
-      <c r="I70" s="5"/>
+      <c r="I70" s="5">
+        <v>0.73</v>
+      </c>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
     </row>
@@ -4236,7 +4276,9 @@
       <c r="H71" s="5">
         <v>0.96</v>
       </c>
-      <c r="I71" s="5"/>
+      <c r="I71" s="5">
+        <v>0.52</v>
+      </c>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
     </row>
@@ -4261,7 +4303,9 @@
       <c r="H72" s="5">
         <v>0.76</v>
       </c>
-      <c r="I72" s="5"/>
+      <c r="I72" s="5">
+        <v>0</v>
+      </c>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
     </row>
@@ -4286,7 +4330,9 @@
       <c r="H73" s="5">
         <v>0.49</v>
       </c>
-      <c r="I73" s="5"/>
+      <c r="I73" s="5">
+        <v>0.75</v>
+      </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
     </row>
@@ -4311,7 +4357,9 @@
       <c r="H74" s="5">
         <v>0</v>
       </c>
-      <c r="I74" s="5"/>
+      <c r="I74" s="5">
+        <v>0</v>
+      </c>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
     </row>
@@ -4336,7 +4384,9 @@
       <c r="H75" s="5">
         <v>0.41</v>
       </c>
-      <c r="I75" s="5"/>
+      <c r="I75" s="5">
+        <v>0.67</v>
+      </c>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
     </row>
@@ -4361,7 +4411,9 @@
       <c r="H76" s="5">
         <v>0.71</v>
       </c>
-      <c r="I76" s="5"/>
+      <c r="I76" s="5">
+        <v>0.92</v>
+      </c>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
     </row>
@@ -4386,7 +4438,9 @@
       <c r="H77" s="5">
         <v>0</v>
       </c>
-      <c r="I77" s="5"/>
+      <c r="I77" s="5">
+        <v>0.15</v>
+      </c>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
     </row>
@@ -4411,7 +4465,9 @@
       <c r="H78" s="5">
         <v>0.51</v>
       </c>
-      <c r="I78" s="5"/>
+      <c r="I78" s="5">
+        <v>0.6</v>
+      </c>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
     </row>
@@ -4436,7 +4492,9 @@
       <c r="H79" s="5">
         <v>0.35</v>
       </c>
-      <c r="I79" s="5"/>
+      <c r="I79" s="5">
+        <v>0.4</v>
+      </c>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
     </row>
@@ -4461,7 +4519,9 @@
       <c r="H80" s="5">
         <v>0.43</v>
       </c>
-      <c r="I80" s="5"/>
+      <c r="I80" s="5">
+        <v>0.21</v>
+      </c>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
     </row>
@@ -4486,7 +4546,9 @@
       <c r="H81" s="5">
         <v>0.47</v>
       </c>
-      <c r="I81" s="5"/>
+      <c r="I81" s="5">
+        <v>0.48</v>
+      </c>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
     </row>
@@ -4511,7 +4573,9 @@
       <c r="H82" s="5">
         <v>0.96</v>
       </c>
-      <c r="I82" s="5"/>
+      <c r="I82" s="5">
+        <v>0.81</v>
+      </c>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
     </row>
@@ -4536,7 +4600,9 @@
       <c r="H83" s="5">
         <v>0.47</v>
       </c>
-      <c r="I83" s="5"/>
+      <c r="I83" s="5">
+        <v>0.65</v>
+      </c>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
     </row>
@@ -4561,7 +4627,9 @@
       <c r="H84" s="5">
         <v>0.45</v>
       </c>
-      <c r="I84" s="5"/>
+      <c r="I84" s="5">
+        <v>0.35</v>
+      </c>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
     </row>
@@ -4586,7 +4654,9 @@
       <c r="H85" s="5">
         <v>0</v>
       </c>
-      <c r="I85" s="5"/>
+      <c r="I85" s="5">
+        <v>0</v>
+      </c>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
     </row>
@@ -4611,7 +4681,9 @@
       <c r="H86" s="5">
         <v>0.31</v>
       </c>
-      <c r="I86" s="5"/>
+      <c r="I86" s="5">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
     </row>
@@ -4636,7 +4708,9 @@
       <c r="H87" s="5">
         <v>0</v>
       </c>
-      <c r="I87" s="5"/>
+      <c r="I87" s="5">
+        <v>0</v>
+      </c>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
     </row>
@@ -4661,7 +4735,9 @@
       <c r="H88" s="5">
         <v>0.59</v>
       </c>
-      <c r="I88" s="5"/>
+      <c r="I88" s="5">
+        <v>0.42</v>
+      </c>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
     </row>
@@ -4686,7 +4762,9 @@
       <c r="H89" s="5">
         <v>0</v>
       </c>
-      <c r="I89" s="5"/>
+      <c r="I89" s="5">
+        <v>0</v>
+      </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
     </row>
@@ -4711,7 +4789,9 @@
       <c r="H90" s="5">
         <v>0.88</v>
       </c>
-      <c r="I90" s="5"/>
+      <c r="I90" s="5">
+        <v>0.88</v>
+      </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
     </row>
@@ -4736,7 +4816,9 @@
       <c r="H91" s="5">
         <v>0.45</v>
       </c>
-      <c r="I91" s="5"/>
+      <c r="I91" s="5">
+        <v>0.85</v>
+      </c>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
     </row>
@@ -4761,7 +4843,9 @@
       <c r="H92" s="7">
         <v>0.47</v>
       </c>
-      <c r="I92" s="5"/>
+      <c r="I92" s="5">
+        <v>0.42</v>
+      </c>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
     </row>
@@ -4786,7 +4870,9 @@
       <c r="H93" s="9">
         <v>0.69</v>
       </c>
-      <c r="I93" s="12"/>
+      <c r="I93" s="12">
+        <v>0.87</v>
+      </c>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
     </row>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B59BE8-B6DB-2A40-A782-45B6D46BA2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7D99F1-BFAE-3849-B17E-C13E381976C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6700" yWindow="680" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2435,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2512,7 +2512,9 @@
         <v>1</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="J2" s="3">
+        <v>0.64</v>
+      </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1">
@@ -2587,7 +2589,9 @@
         <v>0.59</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="J5" s="5">
+        <v>0.73</v>
+      </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1">
@@ -2612,7 +2616,9 @@
         <v>0.83</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="J6" s="5">
+        <v>0.48</v>
+      </c>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1">
@@ -2637,7 +2643,9 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="J7" s="5">
+        <v>0.86</v>
+      </c>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1">
@@ -2662,7 +2670,9 @@
         <v>0.9</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="J8" s="5">
+        <v>0.95</v>
+      </c>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1">
@@ -2687,7 +2697,9 @@
         <v>0.9</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="J9" s="5">
+        <v>0.64</v>
+      </c>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1">
@@ -2737,7 +2749,9 @@
         <v>0.93</v>
       </c>
       <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="J11" s="5">
+        <v>0.77</v>
+      </c>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1">
@@ -2837,7 +2851,9 @@
         <v>0.93</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="J15" s="5">
+        <v>0.75</v>
+      </c>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
@@ -2862,7 +2878,9 @@
         <v>0.9</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="J16" s="5">
+        <v>0.82</v>
+      </c>
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1">
@@ -2887,7 +2905,9 @@
         <v>0.85</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="J17" s="5">
+        <v>0.8</v>
+      </c>
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1">

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7D99F1-BFAE-3849-B17E-C13E381976C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DE588D-841C-4E46-BDEF-149D308666A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6700" yWindow="680" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2436,7 +2436,7 @@
   <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -3132,7 +3132,9 @@
         <v>0.61</v>
       </c>
       <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="J26" s="5">
+        <v>0.84</v>
+      </c>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1">
@@ -3182,7 +3184,9 @@
         <v>0.76</v>
       </c>
       <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="J28" s="5">
+        <v>0.64</v>
+      </c>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1">
@@ -3257,7 +3261,9 @@
         <v>0.66</v>
       </c>
       <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="J31" s="5">
+        <v>0.73</v>
+      </c>
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1">
@@ -3532,7 +3538,9 @@
         <v>0.63</v>
       </c>
       <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+      <c r="J42" s="5">
+        <v>0.73</v>
+      </c>
       <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1">
@@ -3657,7 +3665,9 @@
         <v>0.68</v>
       </c>
       <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
+      <c r="J47" s="5">
+        <v>0.7</v>
+      </c>
       <c r="K47" s="5"/>
     </row>
     <row r="48" spans="1:11" ht="14.25" customHeight="1">
@@ -3682,7 +3692,9 @@
         <v>0.9</v>
       </c>
       <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
+      <c r="J48" s="5">
+        <v>0.82</v>
+      </c>
       <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:11" ht="14.25" customHeight="1">

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DE588D-841C-4E46-BDEF-149D308666A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBC6E2D-F6F2-CA47-9D6F-B29A3F319FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6700" yWindow="680" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="200">
   <si>
     <t>Surname</t>
   </si>
@@ -608,6 +608,18 @@
   </si>
   <si>
     <t>H240124M</t>
+  </si>
+  <si>
+    <t>Karenga</t>
+  </si>
+  <si>
+    <t>H210085R</t>
+  </si>
+  <si>
+    <t>Mutero</t>
+  </si>
+  <si>
+    <t>H170218A</t>
   </si>
 </sst>
 </file>
@@ -632,7 +644,7 @@
       <name val="Times Roman"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -643,6 +655,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -731,7 +749,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -769,6 +787,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1366,10 +1390,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E12D2C3A-56FF-EE48-BF21-6E043A7A5D80}" name="Table1" displayName="Table1" ref="A1:K93" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="A1:K93" xr:uid="{E12D2C3A-56FF-EE48-BF21-6E043A7A5D80}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K93">
-    <sortCondition ref="C1:C93"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E12D2C3A-56FF-EE48-BF21-6E043A7A5D80}" name="Table1" displayName="Table1" ref="A1:K95" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+  <autoFilter ref="A1:K95" xr:uid="{E12D2C3A-56FF-EE48-BF21-6E043A7A5D80}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K95">
+    <sortCondition ref="C1:C95"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{CA68C236-9B81-6943-9124-FCB1EFF82B61}" name="Surname" dataDxfId="10"/>
@@ -2433,10 +2457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2503,7 +2527,9 @@
       <c r="D2" s="3">
         <v>0.83</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3">
+        <v>0.91</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3">
         <v>0.34</v>
@@ -2530,7 +2556,9 @@
       <c r="D3" s="5">
         <v>0.54</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>0.94</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5">
         <v>0.28000000000000003</v>
@@ -2555,7 +2583,9 @@
       <c r="D4" s="5">
         <v>0.54</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5">
+        <v>0.91</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5">
         <v>0</v>
@@ -2580,7 +2610,9 @@
       <c r="D5" s="5">
         <v>0.74</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <v>0.6</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5">
         <v>0.47</v>
@@ -2607,7 +2639,9 @@
       <c r="D6" s="5">
         <v>0.64</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5">
+        <v>0.91</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5">
         <v>0.38</v>
@@ -2634,7 +2668,9 @@
       <c r="D7" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5">
+        <v>0.94</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5">
         <v>0.45</v>
@@ -2661,7 +2697,9 @@
       <c r="D8" s="5">
         <v>0.78</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5">
+        <v>0.79</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
         <v>0.26</v>
@@ -2688,7 +2726,9 @@
       <c r="D9" s="5">
         <v>0.54</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5">
+        <v>0.47</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
         <v>0.34</v>
@@ -2715,7 +2755,9 @@
       <c r="D10" s="5">
         <v>0.62</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5">
+        <v>0.94</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5">
         <v>0.38</v>
@@ -2740,7 +2782,9 @@
       <c r="D11" s="5">
         <v>0.75</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5">
+        <v>0.91</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5">
         <v>0.19</v>
@@ -2767,7 +2811,9 @@
       <c r="D12" s="5">
         <v>0.74</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
         <v>0.38</v>
@@ -2792,7 +2838,9 @@
       <c r="D13" s="5">
         <v>0.74</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5">
+        <v>0.53</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5">
         <v>0.47</v>
@@ -2817,7 +2865,9 @@
       <c r="D14" s="5">
         <v>0.38</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5">
+        <v>0.91</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5">
         <v>0.32</v>
@@ -2842,7 +2892,9 @@
       <c r="D15" s="5">
         <v>0.67</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5">
+        <v>0.91</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5">
         <v>0.38</v>
@@ -2869,7 +2921,9 @@
       <c r="D16" s="5">
         <v>0.43</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5">
+        <v>0.94</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5">
         <v>0.34</v>
@@ -2896,7 +2950,9 @@
       <c r="D17" s="5">
         <v>0.83</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5">
         <v>0.68</v>
@@ -2911,50 +2967,52 @@
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="A18" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13">
+        <v>0.74</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="E19" s="5"/>
+        <v>0.78</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.94</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="H19" s="5">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -2962,24 +3020,26 @@
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="5">
-        <v>0.74</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>0.71</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.64</v>
       </c>
       <c r="H20" s="5">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -2987,24 +3047,26 @@
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="5">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>0.74</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H21" s="5">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -3012,24 +3074,26 @@
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="E22" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="H22" s="5">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -3037,10 +3101,10 @@
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>18</v>
@@ -3048,13 +3112,15 @@
       <c r="D23" s="5">
         <v>0.83</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5">
-        <v>0.04</v>
+        <v>0.62</v>
       </c>
       <c r="H23" s="5">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -3062,24 +3128,26 @@
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="5">
-        <v>0.74</v>
-      </c>
-      <c r="E24" s="5"/>
+        <v>0.83</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5">
-        <v>0.49</v>
+        <v>0.04</v>
       </c>
       <c r="H24" s="5">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -3087,24 +3155,26 @@
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="E25" s="5"/>
+        <v>0.74</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.91</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5">
-        <v>0.36</v>
+        <v>0.49</v>
       </c>
       <c r="H25" s="5">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -3112,128 +3182,138 @@
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="E26" s="5"/>
+        <v>0.59</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.68</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.36</v>
       </c>
       <c r="H26" s="5">
-        <v>0.61</v>
+        <v>0.88</v>
       </c>
       <c r="I26" s="5"/>
-      <c r="J26" s="5">
-        <v>0.84</v>
-      </c>
+      <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="E27" s="5"/>
+        <v>0.54</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.91</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5">
-        <v>0.43</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H27" s="5">
-        <v>0.83</v>
+        <v>0.61</v>
       </c>
       <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="J27" s="5">
+        <v>0.84</v>
+      </c>
       <c r="K27" s="5"/>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="E28" s="5"/>
+        <v>0.83</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5">
-        <v>0.19</v>
+        <v>0.43</v>
       </c>
       <c r="H28" s="5">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="I28" s="5"/>
-      <c r="J28" s="5">
-        <v>0.64</v>
-      </c>
+      <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="E29" s="5"/>
+        <v>0.67</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.81</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5">
-        <v>0.62</v>
+        <v>0.19</v>
       </c>
       <c r="H29" s="5">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="J29" s="5">
+        <v>0.64</v>
+      </c>
       <c r="K29" s="5"/>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="E30" s="5"/>
+        <v>0.62</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5">
-        <v>0.47</v>
+        <v>0.62</v>
       </c>
       <c r="H30" s="5">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -3241,54 +3321,58 @@
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="E31" s="5"/>
+        <v>0.71</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.91</v>
+      </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.47</v>
       </c>
       <c r="H31" s="5">
-        <v>0.66</v>
+        <v>0.95</v>
       </c>
       <c r="I31" s="5"/>
-      <c r="J31" s="5">
-        <v>0.73</v>
-      </c>
+      <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="5">
-        <v>0</v>
-      </c>
-      <c r="E32" s="5"/>
+        <v>0.54</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.94</v>
+      </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5">
-        <v>0.09</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H32" s="5">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="J32" s="5">
+        <v>0.73</v>
+      </c>
       <c r="K32" s="5"/>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1">
@@ -3296,21 +3380,23 @@
         <v>72</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="E33" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.43</v>
+      </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="H33" s="5">
-        <v>0.61</v>
+        <v>0.68</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -3318,24 +3404,26 @@
     </row>
     <row r="34" spans="1:11" ht="14.25" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="E34" s="5"/>
+        <v>0.59</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5">
-        <v>0.47</v>
+        <v>0.06</v>
       </c>
       <c r="H34" s="5">
-        <v>0.83</v>
+        <v>0.61</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -3343,24 +3431,26 @@
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="E35" s="5"/>
+        <v>0.54</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5">
-        <v>0.13</v>
+        <v>0.47</v>
       </c>
       <c r="H35" s="5">
-        <v>0.98</v>
+        <v>0.83</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
@@ -3368,74 +3458,80 @@
     </row>
     <row r="36" spans="1:11" ht="14.25" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="5">
-        <v>0.74</v>
-      </c>
-      <c r="E36" s="5"/>
+        <v>0.91</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5">
-        <v>0.36</v>
+        <v>0.13</v>
       </c>
       <c r="H36" s="5">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="A37" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="13">
         <v>0</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5">
-        <v>0.21</v>
-      </c>
-      <c r="H37" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+      <c r="E37" s="13">
+        <v>0.74</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11" ht="14.25" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="E38" s="5"/>
+        <v>0.74</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.36</v>
       </c>
       <c r="H38" s="5">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
@@ -3443,24 +3539,26 @@
     </row>
     <row r="39" spans="1:11" ht="14.25" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="5">
-        <v>0.74</v>
-      </c>
-      <c r="E39" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.66</v>
+      </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="H39" s="5">
-        <v>0.66</v>
+        <v>0.54</v>
       </c>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
@@ -3468,24 +3566,26 @@
     </row>
     <row r="40" spans="1:11" ht="14.25" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="5">
-        <v>0.43</v>
-      </c>
-      <c r="E40" s="5"/>
+        <v>0.64</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
       <c r="F40" s="5"/>
       <c r="G40" s="5">
-        <v>0.43</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H40" s="5">
-        <v>0.73</v>
+        <v>0.85</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -3493,126 +3593,136 @@
     </row>
     <row r="41" spans="1:11" ht="14.25" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="D41" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0</v>
+      </c>
+      <c r="F41" s="5"/>
       <c r="G41" s="5">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="H41" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
+        <v>0.66</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="E42" s="5"/>
+        <v>0.43</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.72</v>
+      </c>
       <c r="F42" s="5"/>
       <c r="G42" s="5">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
       <c r="H42" s="5">
-        <v>0.63</v>
+        <v>0.73</v>
       </c>
       <c r="I42" s="5"/>
-      <c r="J42" s="5">
-        <v>0.73</v>
-      </c>
+      <c r="J42" s="5"/>
       <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="5">
-        <v>0.49</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="D43" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="E43" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="F43" s="11"/>
       <c r="G43" s="5">
         <v>0</v>
       </c>
       <c r="H43" s="5">
         <v>0.63</v>
       </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
     </row>
     <row r="44" spans="1:11" ht="14.25" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="E44" s="5"/>
+        <v>0.62</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.4</v>
+      </c>
       <c r="F44" s="5"/>
       <c r="G44" s="5">
-        <v>0.26</v>
+        <v>0.51</v>
       </c>
       <c r="H44" s="5">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
+      <c r="J44" s="5">
+        <v>0.73</v>
+      </c>
       <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11" ht="14.25" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="E45" s="5"/>
+        <v>0.49</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0.66</v>
+      </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="H45" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -3620,24 +3730,26 @@
     </row>
     <row r="46" spans="1:11" ht="14.25" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="E46" s="5"/>
+        <v>0.78</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
       <c r="H46" s="5">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
@@ -3645,438 +3757,466 @@
     </row>
     <row r="47" spans="1:11" ht="14.25" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="5">
-        <v>0.74</v>
-      </c>
-      <c r="E47" s="5"/>
+        <v>0.67</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.3</v>
+      </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5">
-        <v>0.11</v>
+        <v>0.34</v>
       </c>
       <c r="H47" s="5">
-        <v>0.68</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I47" s="5"/>
-      <c r="J47" s="5">
-        <v>0.7</v>
-      </c>
+      <c r="J47" s="5"/>
       <c r="K47" s="5"/>
     </row>
     <row r="48" spans="1:11" ht="14.25" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="E48" s="5"/>
+        <v>0.91</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="H48" s="5">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="I48" s="5"/>
-      <c r="J48" s="5">
-        <v>0.82</v>
-      </c>
+      <c r="J48" s="5"/>
       <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:11" ht="14.25" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D49" s="5">
-        <v>0</v>
-      </c>
-      <c r="E49" s="5"/>
+        <v>0.74</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.91</v>
+      </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5">
-        <v>0.69</v>
+        <v>0.11</v>
       </c>
       <c r="H49" s="5">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
+      <c r="J49" s="5">
+        <v>0.7</v>
+      </c>
       <c r="K49" s="5"/>
     </row>
     <row r="50" spans="1:11" ht="14.25" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="E50" s="5"/>
+        <v>0.67</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="H50" s="5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
+      <c r="J50" s="5">
+        <v>0.82</v>
+      </c>
       <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:11" ht="14.25" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="D51" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="E51" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0.81</v>
+      </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5">
-        <v>0.73</v>
+        <v>0.69</v>
       </c>
       <c r="H51" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="I51" s="5">
-        <v>0.81</v>
-      </c>
+        <v>0.71</v>
+      </c>
+      <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11" ht="14.25" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="D52" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="E52" s="5"/>
+        <v>0.78</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.87</v>
+      </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5">
-        <v>0.6</v>
+        <v>0.32</v>
       </c>
       <c r="H52" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I52" s="5">
-        <v>0.44</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" ht="14.25" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D53" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="E53" s="5"/>
+        <v>0.91</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1</v>
+      </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="H53" s="5">
-        <v>0.61</v>
+        <v>0.88</v>
       </c>
       <c r="I53" s="5">
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
     </row>
     <row r="54" spans="1:11" ht="14.25" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D54" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="E54" s="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.96</v>
+      </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="H54" s="5">
-        <v>0.39</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I54" s="5">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
     </row>
     <row r="55" spans="1:11" ht="14.25" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D55" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="E55" s="5"/>
+        <v>0.89</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0.85</v>
+      </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5">
-        <v>0.69</v>
+        <v>0.77</v>
       </c>
       <c r="H55" s="5">
-        <v>0.35</v>
+        <v>0.61</v>
       </c>
       <c r="I55" s="5">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
     </row>
     <row r="56" spans="1:11" ht="14.25" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D56" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="E56" s="5"/>
+        <v>0.84</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1</v>
+      </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5">
-        <v>0.32</v>
+        <v>0.52</v>
       </c>
       <c r="H56" s="5">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="I56" s="5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
     </row>
     <row r="57" spans="1:11" ht="14.25" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D57" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="E57" s="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0.96</v>
+      </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5">
-        <v>0.52</v>
+        <v>0.69</v>
       </c>
       <c r="H57" s="5">
-        <v>0.63</v>
+        <v>0.35</v>
       </c>
       <c r="I57" s="5">
-        <v>0.44</v>
+        <v>0.75</v>
       </c>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
     </row>
     <row r="58" spans="1:11" ht="14.25" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D58" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="E58" s="5"/>
+        <v>0.91</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0.88</v>
+      </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5">
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
       <c r="H58" s="5">
-        <v>0.67</v>
+        <v>0.41</v>
       </c>
       <c r="I58" s="5">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
     </row>
     <row r="59" spans="1:11" ht="14.25" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D59" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="E59" s="5"/>
+        <v>0.91</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0.92</v>
+      </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5">
-        <v>0.76</v>
+        <v>0.52</v>
       </c>
       <c r="H59" s="5">
         <v>0.63</v>
       </c>
       <c r="I59" s="5">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
     </row>
     <row r="60" spans="1:11" ht="14.25" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="E60" s="5"/>
+        <v>0.68</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0.96</v>
+      </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="H60" s="5">
-        <v>0.51</v>
+        <v>0.67</v>
       </c>
       <c r="I60" s="5">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:11" ht="14.25" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D61" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="E61" s="5"/>
+        <v>0.84</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0.88</v>
+      </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5">
-        <v>0.52</v>
+        <v>0.76</v>
       </c>
       <c r="H61" s="5">
-        <v>0.51</v>
+        <v>0.63</v>
       </c>
       <c r="I61" s="5">
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
     </row>
     <row r="62" spans="1:11" ht="14.25" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D62" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="E62" s="5"/>
+        <v>0.91</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0.96</v>
+      </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="H62" s="5">
-        <v>0.18</v>
+        <v>0.51</v>
       </c>
       <c r="I62" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
     </row>
     <row r="63" spans="1:11" ht="14.25" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>109</v>
@@ -4084,80 +4224,86 @@
       <c r="D63" s="5">
         <v>0.89</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5">
-        <v>0.66</v>
+        <v>0.52</v>
       </c>
       <c r="H63" s="5">
-        <v>0.27</v>
+        <v>0.51</v>
       </c>
       <c r="I63" s="5">
-        <v>0.65</v>
+        <v>0.69</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
     </row>
     <row r="64" spans="1:11" ht="14.25" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D64" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="E64" s="5"/>
+        <v>0.84</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0.96</v>
+      </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="H64" s="5">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="I64" s="5">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D65" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="E65" s="5"/>
+        <v>0.89</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0.92</v>
+      </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5">
-        <v>0.85</v>
+        <v>0.66</v>
       </c>
       <c r="H65" s="5">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="I65" s="5">
-        <v>0.79</v>
+        <v>0.65</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
     </row>
     <row r="66" spans="1:11" ht="14.25" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>109</v>
@@ -4165,80 +4311,86 @@
       <c r="D66" s="5">
         <v>0.91</v>
       </c>
-      <c r="E66" s="5"/>
+      <c r="E66" s="5">
+        <v>0.96</v>
+      </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="H66" s="5">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="I66" s="5">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
     </row>
     <row r="67" spans="1:11" ht="14.25" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D67" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="E67" s="5"/>
+        <v>0.84</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0.96</v>
+      </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="H67" s="5">
-        <v>0.69</v>
+        <v>0.45</v>
       </c>
       <c r="I67" s="5">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
     </row>
     <row r="68" spans="1:11" ht="14.25" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D68" s="5">
-        <v>0</v>
-      </c>
-      <c r="E68" s="5"/>
+        <v>0.91</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0.96</v>
+      </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5">
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
       <c r="H68" s="5">
-        <v>0.43</v>
+        <v>0.31</v>
       </c>
       <c r="I68" s="5">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>109</v>
@@ -4246,13 +4398,15 @@
       <c r="D69" s="5">
         <v>0.91</v>
       </c>
-      <c r="E69" s="5"/>
+      <c r="E69" s="5">
+        <v>0.96</v>
+      </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="H69" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.69</v>
       </c>
       <c r="I69" s="5">
         <v>0.75</v>
@@ -4262,91 +4416,97 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D70" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="E70" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="5">
+        <v>0.96</v>
+      </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5">
-        <v>0.73</v>
+        <v>0.66</v>
       </c>
       <c r="H70" s="5">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="I70" s="5">
-        <v>0.73</v>
+        <v>0.46</v>
       </c>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
     </row>
     <row r="71" spans="1:11" ht="14.25" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D71" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="E71" s="5"/>
+        <v>0.91</v>
+      </c>
+      <c r="E71" s="5">
+        <v>0.69</v>
+      </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="H71" s="5">
-        <v>0.96</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I71" s="5">
-        <v>0.52</v>
+        <v>0.75</v>
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
     </row>
     <row r="72" spans="1:11" ht="14.25" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D72" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="E72" s="5"/>
+        <v>0.91</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0.96</v>
+      </c>
       <c r="F72" s="5"/>
       <c r="G72" s="5">
-        <v>0.69</v>
+        <v>0.73</v>
       </c>
       <c r="H72" s="5">
-        <v>0.76</v>
+        <v>0.47</v>
       </c>
       <c r="I72" s="5">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
     </row>
     <row r="73" spans="1:11" ht="14.25" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>109</v>
@@ -4354,40 +4514,44 @@
       <c r="D73" s="5">
         <v>0.84</v>
       </c>
-      <c r="E73" s="5"/>
+      <c r="E73" s="5">
+        <v>0.96</v>
+      </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.97</v>
       </c>
       <c r="H73" s="5">
-        <v>0.49</v>
+        <v>0.96</v>
       </c>
       <c r="I73" s="5">
-        <v>0.75</v>
+        <v>0.52</v>
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:11" ht="14.25" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D74" s="5">
-        <v>0</v>
-      </c>
-      <c r="E74" s="5"/>
+        <v>0.78</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0.96</v>
+      </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5">
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="H74" s="5">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="I74" s="5">
         <v>0</v>
@@ -4397,91 +4561,97 @@
     </row>
     <row r="75" spans="1:11" ht="14.25" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D75" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="E75" s="5"/>
+        <v>0.84</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0.92</v>
+      </c>
       <c r="F75" s="5"/>
       <c r="G75" s="5">
-        <v>0.61</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H75" s="5">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="I75" s="5">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
     </row>
     <row r="76" spans="1:11" ht="14.25" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D76" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="E76" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0</v>
+      </c>
       <c r="F76" s="5"/>
       <c r="G76" s="5">
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="H76" s="5">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="I76" s="5">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
     </row>
     <row r="77" spans="1:11" ht="14.25" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D77" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="E77" s="5"/>
+        <v>0.81</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0.92</v>
+      </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="H77" s="5">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="I77" s="5">
-        <v>0.15</v>
+        <v>0.67</v>
       </c>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
     </row>
     <row r="78" spans="1:11" ht="14.25" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>109</v>
@@ -4489,134 +4659,144 @@
       <c r="D78" s="5">
         <v>0.91</v>
       </c>
-      <c r="E78" s="5"/>
+      <c r="E78" s="5">
+        <v>0.96</v>
+      </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5">
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="H78" s="5">
-        <v>0.51</v>
+        <v>0.71</v>
       </c>
       <c r="I78" s="5">
-        <v>0.6</v>
+        <v>0.92</v>
       </c>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
     </row>
     <row r="79" spans="1:11" ht="14.25" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D79" s="5">
-        <v>0</v>
-      </c>
-      <c r="E79" s="5"/>
+        <v>0.91</v>
+      </c>
+      <c r="E79" s="5">
+        <v>0.96</v>
+      </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="H79" s="5">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="I79" s="5">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
     </row>
     <row r="80" spans="1:11" ht="14.25" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D80" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="E80" s="5"/>
+        <v>0.91</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0.81</v>
+      </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="H80" s="5">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="I80" s="5">
-        <v>0.21</v>
+        <v>0.6</v>
       </c>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
     </row>
     <row r="81" spans="1:11" ht="14.25" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D81" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="E81" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="5">
+        <v>0.92</v>
+      </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5">
-        <v>0.69</v>
+        <v>0.74</v>
       </c>
       <c r="H81" s="5">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="I81" s="5">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
     </row>
     <row r="82" spans="1:11" ht="14.25" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D82" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="E82" s="5"/>
+        <v>0.7</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0.92</v>
+      </c>
       <c r="F82" s="5"/>
       <c r="G82" s="5">
-        <v>0.73</v>
+        <v>0.53</v>
       </c>
       <c r="H82" s="5">
-        <v>0.96</v>
+        <v>0.43</v>
       </c>
       <c r="I82" s="5">
-        <v>0.81</v>
+        <v>0.21</v>
       </c>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
     </row>
     <row r="83" spans="1:11" ht="14.25" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>109</v>
@@ -4624,107 +4804,115 @@
       <c r="D83" s="5">
         <v>0.91</v>
       </c>
-      <c r="E83" s="5"/>
+      <c r="E83" s="5">
+        <v>0.96</v>
+      </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5">
-        <v>0.77</v>
+        <v>0.69</v>
       </c>
       <c r="H83" s="5">
         <v>0.47</v>
       </c>
       <c r="I83" s="5">
-        <v>0.65</v>
+        <v>0.48</v>
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
     </row>
     <row r="84" spans="1:11" ht="14.25" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D84" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="E84" s="5"/>
+        <v>0.91</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0.88</v>
+      </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="H84" s="5">
-        <v>0.45</v>
+        <v>0.96</v>
       </c>
       <c r="I84" s="5">
-        <v>0.35</v>
+        <v>0.81</v>
       </c>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
     </row>
     <row r="85" spans="1:11" ht="14.25" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D85" s="5">
-        <v>0</v>
-      </c>
-      <c r="E85" s="5"/>
+        <v>0.91</v>
+      </c>
+      <c r="E85" s="5">
+        <v>1</v>
+      </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="H85" s="5">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="I85" s="5">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
     </row>
     <row r="86" spans="1:11" ht="14.25" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D86" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="E86" s="5"/>
+        <v>0.84</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0.92</v>
+      </c>
       <c r="F86" s="5"/>
       <c r="G86" s="5">
-        <v>0.19</v>
+        <v>0.71</v>
       </c>
       <c r="H86" s="5">
-        <v>0.31</v>
+        <v>0.45</v>
       </c>
       <c r="I86" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.35</v>
       </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
     </row>
     <row r="87" spans="1:11" ht="14.25" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>109</v>
@@ -4732,7 +4920,9 @@
       <c r="D87" s="5">
         <v>0</v>
       </c>
-      <c r="E87" s="5"/>
+      <c r="E87" s="5">
+        <v>0</v>
+      </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5">
         <v>0</v>
@@ -4748,45 +4938,49 @@
     </row>
     <row r="88" spans="1:11" ht="14.25" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D88" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="E88" s="5"/>
+        <v>0.88</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0.92</v>
+      </c>
       <c r="F88" s="5"/>
       <c r="G88" s="5">
-        <v>0.65</v>
+        <v>0.19</v>
       </c>
       <c r="H88" s="5">
-        <v>0.59</v>
+        <v>0.31</v>
       </c>
       <c r="I88" s="5">
-        <v>0.42</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
     </row>
     <row r="89" spans="1:11" ht="14.25" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D89" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="E89" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0</v>
+      </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5">
         <v>0</v>
@@ -4802,10 +4996,10 @@
     </row>
     <row r="90" spans="1:11" ht="14.25" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>109</v>
@@ -4813,53 +5007,57 @@
       <c r="D90" s="5">
         <v>0.91</v>
       </c>
-      <c r="E90" s="5"/>
+      <c r="E90" s="5">
+        <v>0</v>
+      </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="H90" s="5">
-        <v>0.88</v>
+        <v>0.59</v>
       </c>
       <c r="I90" s="5">
-        <v>0.88</v>
+        <v>0.42</v>
       </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
     </row>
     <row r="91" spans="1:11" ht="14.25" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D91" s="5">
-        <v>0.84</v>
-      </c>
-      <c r="E91" s="5"/>
+        <v>0.41</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="F91" s="5"/>
       <c r="G91" s="5">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H91" s="5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="I91" s="5">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="J91" s="5"/>
       <c r="K91" s="5"/>
     </row>
     <row r="92" spans="1:11" ht="14.25" customHeight="1">
       <c r="A92" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>109</v>
@@ -4867,46 +5065,108 @@
       <c r="D92" s="7">
         <v>0.91</v>
       </c>
-      <c r="E92" s="7"/>
+      <c r="E92" s="7">
+        <v>1</v>
+      </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7">
-        <v>0.52</v>
+        <v>0.68</v>
       </c>
       <c r="H92" s="7">
-        <v>0.47</v>
+        <v>0.88</v>
       </c>
       <c r="I92" s="5">
-        <v>0.42</v>
+        <v>0.88</v>
       </c>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="1:11" ht="20" customHeight="1">
-      <c r="A93" s="8" t="s">
+    <row r="93" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A93" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D93" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="E93" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H93" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="I93" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+    </row>
+    <row r="94" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A94" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D94" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="E94" s="7">
+        <v>1</v>
+      </c>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="H94" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="I94" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+    </row>
+    <row r="95" spans="1:11" ht="20" customHeight="1">
+      <c r="A95" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B95" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C95" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D95" s="9">
         <v>0.91</v>
       </c>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9">
+      <c r="E95" s="9">
+        <v>1</v>
+      </c>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9">
         <v>0.84</v>
       </c>
-      <c r="H93" s="9">
+      <c r="H95" s="9">
         <v>0.69</v>
       </c>
-      <c r="I93" s="12">
+      <c r="I95" s="12">
         <v>0.87</v>
       </c>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBC6E2D-F6F2-CA47-9D6F-B29A3F319FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D365F5-6712-3844-B3CF-F4C167021DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="680" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13140" yWindow="780" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2459,8 +2459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2537,7 +2537,9 @@
       <c r="H2" s="3">
         <v>1</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3">
+        <v>0.95</v>
+      </c>
       <c r="J2" s="3">
         <v>0.64</v>
       </c>
@@ -2566,7 +2568,9 @@
       <c r="H3" s="5">
         <v>0.8</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="5">
+        <v>0.71</v>
+      </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
@@ -2593,7 +2597,9 @@
       <c r="H4" s="5">
         <v>0.51</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="5">
+        <v>0.45</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
@@ -2620,7 +2626,9 @@
       <c r="H5" s="5">
         <v>0.59</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="5">
+        <v>0.86</v>
+      </c>
       <c r="J5" s="5">
         <v>0.73</v>
       </c>
@@ -2649,7 +2657,9 @@
       <c r="H6" s="5">
         <v>0.83</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5">
+        <v>0.62</v>
+      </c>
       <c r="J6" s="5">
         <v>0.48</v>
       </c>
@@ -2678,7 +2688,9 @@
       <c r="H7" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5">
+        <v>0.45</v>
+      </c>
       <c r="J7" s="5">
         <v>0.86</v>
       </c>
@@ -2707,7 +2719,9 @@
       <c r="H8" s="5">
         <v>0.9</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5">
+        <v>0.74</v>
+      </c>
       <c r="J8" s="5">
         <v>0.95</v>
       </c>
@@ -2736,7 +2750,9 @@
       <c r="H9" s="5">
         <v>0.9</v>
       </c>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5">
+        <v>0.71</v>
+      </c>
       <c r="J9" s="5">
         <v>0.64</v>
       </c>
@@ -2765,7 +2781,9 @@
       <c r="H10" s="5">
         <v>0.98</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5">
+        <v>0.74</v>
+      </c>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
@@ -2792,7 +2810,9 @@
       <c r="H11" s="5">
         <v>0.93</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="5">
+        <v>0.81</v>
+      </c>
       <c r="J11" s="5">
         <v>0.77</v>
       </c>
@@ -2821,7 +2841,9 @@
       <c r="H12" s="5">
         <v>0.73</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="5">
+        <v>0.95</v>
+      </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
@@ -2848,7 +2870,9 @@
       <c r="H13" s="5">
         <v>0.98</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5">
+        <v>0.93</v>
+      </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
@@ -2875,7 +2899,9 @@
       <c r="H14" s="5">
         <v>0.83</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5">
+        <v>0.6</v>
+      </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
@@ -2902,7 +2928,9 @@
       <c r="H15" s="5">
         <v>0.93</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5">
+        <v>0.67</v>
+      </c>
       <c r="J15" s="5">
         <v>0.75</v>
       </c>
@@ -2931,7 +2959,9 @@
       <c r="H16" s="5">
         <v>0.9</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5">
+        <v>0.6</v>
+      </c>
       <c r="J16" s="5">
         <v>0.82</v>
       </c>
@@ -2960,7 +2990,9 @@
       <c r="H17" s="5">
         <v>0.85</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="5">
+        <v>0.9</v>
+      </c>
       <c r="J17" s="5">
         <v>0.8</v>
       </c>
@@ -2987,7 +3019,9 @@
       <c r="H18" s="13">
         <v>0</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="13">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
     </row>
@@ -3014,7 +3048,9 @@
       <c r="H19" s="5">
         <v>0.93</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
@@ -3041,7 +3077,9 @@
       <c r="H20" s="5">
         <v>0.95</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="5">
+        <v>0.86</v>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
@@ -3068,7 +3106,9 @@
       <c r="H21" s="5">
         <v>0.83</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="5">
+        <v>0.48</v>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
@@ -3095,7 +3135,9 @@
       <c r="H22" s="5">
         <v>0</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
@@ -3122,7 +3164,9 @@
       <c r="H23" s="5">
         <v>0.83</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="5">
+        <v>0.81</v>
+      </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
@@ -3149,7 +3193,9 @@
       <c r="H24" s="5">
         <v>0.17</v>
       </c>
-      <c r="I24" s="5"/>
+      <c r="I24" s="5">
+        <v>0.48</v>
+      </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
@@ -3176,7 +3222,9 @@
       <c r="H25" s="5">
         <v>1</v>
       </c>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5">
+        <v>0.52</v>
+      </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
@@ -3203,7 +3251,9 @@
       <c r="H26" s="5">
         <v>0.88</v>
       </c>
-      <c r="I26" s="5"/>
+      <c r="I26" s="5">
+        <v>0.86</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
@@ -3230,7 +3280,9 @@
       <c r="H27" s="5">
         <v>0.61</v>
       </c>
-      <c r="I27" s="5"/>
+      <c r="I27" s="5">
+        <v>0.6</v>
+      </c>
       <c r="J27" s="5">
         <v>0.84</v>
       </c>
@@ -3259,7 +3311,9 @@
       <c r="H28" s="5">
         <v>0.83</v>
       </c>
-      <c r="I28" s="5"/>
+      <c r="I28" s="5">
+        <v>0.95</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
@@ -3286,7 +3340,9 @@
       <c r="H29" s="5">
         <v>0.76</v>
       </c>
-      <c r="I29" s="5"/>
+      <c r="I29" s="5">
+        <v>0.33</v>
+      </c>
       <c r="J29" s="5">
         <v>0.64</v>
       </c>
@@ -3315,7 +3371,9 @@
       <c r="H30" s="5">
         <v>1</v>
       </c>
-      <c r="I30" s="5"/>
+      <c r="I30" s="5">
+        <v>0.9</v>
+      </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
     </row>
@@ -3342,7 +3400,9 @@
       <c r="H31" s="5">
         <v>0.95</v>
       </c>
-      <c r="I31" s="5"/>
+      <c r="I31" s="5">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
@@ -3369,7 +3429,9 @@
       <c r="H32" s="5">
         <v>0.66</v>
       </c>
-      <c r="I32" s="5"/>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
       <c r="J32" s="5">
         <v>0.73</v>
       </c>
@@ -3398,7 +3460,9 @@
       <c r="H33" s="5">
         <v>0.68</v>
       </c>
-      <c r="I33" s="5"/>
+      <c r="I33" s="5">
+        <v>0.48</v>
+      </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
     </row>
@@ -3425,7 +3489,9 @@
       <c r="H34" s="5">
         <v>0.61</v>
       </c>
-      <c r="I34" s="5"/>
+      <c r="I34" s="5">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
@@ -3452,7 +3518,9 @@
       <c r="H35" s="5">
         <v>0.83</v>
       </c>
-      <c r="I35" s="5"/>
+      <c r="I35" s="5">
+        <v>0.6</v>
+      </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
@@ -3479,7 +3547,9 @@
       <c r="H36" s="5">
         <v>0.98</v>
       </c>
-      <c r="I36" s="5"/>
+      <c r="I36" s="5">
+        <v>0.74</v>
+      </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
@@ -3506,7 +3576,9 @@
       <c r="H37" s="13">
         <v>0</v>
       </c>
-      <c r="I37" s="13"/>
+      <c r="I37" s="13">
+        <v>0.52</v>
+      </c>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
     </row>
@@ -3533,7 +3605,9 @@
       <c r="H38" s="5">
         <v>0.88</v>
       </c>
-      <c r="I38" s="5"/>
+      <c r="I38" s="5">
+        <v>0.93</v>
+      </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
@@ -3560,7 +3634,9 @@
       <c r="H39" s="5">
         <v>0.54</v>
       </c>
-      <c r="I39" s="5"/>
+      <c r="I39" s="5">
+        <v>0.81</v>
+      </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
     </row>
@@ -3587,7 +3663,9 @@
       <c r="H40" s="5">
         <v>0.85</v>
       </c>
-      <c r="I40" s="5"/>
+      <c r="I40" s="5">
+        <v>0.86</v>
+      </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
@@ -3614,7 +3692,9 @@
       <c r="H41" s="5">
         <v>0.66</v>
       </c>
-      <c r="I41" s="5"/>
+      <c r="I41" s="5">
+        <v>0.6</v>
+      </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
@@ -3641,7 +3721,9 @@
       <c r="H42" s="5">
         <v>0.73</v>
       </c>
-      <c r="I42" s="5"/>
+      <c r="I42" s="5">
+        <v>0.71</v>
+      </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
     </row>
@@ -3668,7 +3750,9 @@
       <c r="H43" s="5">
         <v>0.63</v>
       </c>
-      <c r="I43" s="11"/>
+      <c r="I43" s="11">
+        <v>0.36</v>
+      </c>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
     </row>
@@ -3695,7 +3779,9 @@
       <c r="H44" s="5">
         <v>0.63</v>
       </c>
-      <c r="I44" s="5"/>
+      <c r="I44" s="5">
+        <v>0.36</v>
+      </c>
       <c r="J44" s="5">
         <v>0.73</v>
       </c>
@@ -3724,7 +3810,9 @@
       <c r="H45" s="5">
         <v>0.63</v>
       </c>
-      <c r="I45" s="5"/>
+      <c r="I45" s="5">
+        <v>0.62</v>
+      </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
     </row>
@@ -3751,7 +3839,9 @@
       <c r="H46" s="5">
         <v>0.88</v>
       </c>
-      <c r="I46" s="5"/>
+      <c r="I46" s="5">
+        <v>0.69</v>
+      </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
     </row>
@@ -3778,7 +3868,9 @@
       <c r="H47" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I47" s="5"/>
+      <c r="I47" s="5">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
     </row>
@@ -3805,7 +3897,9 @@
       <c r="H48" s="5">
         <v>0.95</v>
       </c>
-      <c r="I48" s="5"/>
+      <c r="I48" s="5">
+        <v>0.64</v>
+      </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
     </row>
@@ -3832,7 +3926,9 @@
       <c r="H49" s="5">
         <v>0.68</v>
       </c>
-      <c r="I49" s="5"/>
+      <c r="I49" s="5">
+        <v>0.48</v>
+      </c>
       <c r="J49" s="5">
         <v>0.7</v>
       </c>
@@ -3861,7 +3957,9 @@
       <c r="H50" s="5">
         <v>0.9</v>
       </c>
-      <c r="I50" s="5"/>
+      <c r="I50" s="5">
+        <v>0.67</v>
+      </c>
       <c r="J50" s="5">
         <v>0.82</v>
       </c>
@@ -3890,7 +3988,9 @@
       <c r="H51" s="5">
         <v>0.71</v>
       </c>
-      <c r="I51" s="5"/>
+      <c r="I51" s="5">
+        <v>0.86</v>
+      </c>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
     </row>
@@ -3917,7 +4017,9 @@
       <c r="H52" s="5">
         <v>0.8</v>
       </c>
-      <c r="I52" s="5"/>
+      <c r="I52" s="5">
+        <v>0.71</v>
+      </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
     </row>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D365F5-6712-3844-B3CF-F4C167021DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DA6892-B908-D940-AB50-5CBC1FB0D76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="780" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5800" yWindow="800" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2459,8 +2472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2571,7 +2584,9 @@
       <c r="I3" s="5">
         <v>0.71</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="5">
+        <v>0.8</v>
+      </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1">
@@ -2600,7 +2615,9 @@
       <c r="I4" s="5">
         <v>0.45</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="5">
+        <v>0.77</v>
+      </c>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1">
@@ -2784,7 +2801,9 @@
       <c r="I10" s="5">
         <v>0.74</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10" s="5">
+        <v>0.59</v>
+      </c>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1">
@@ -2844,7 +2863,9 @@
       <c r="I12" s="5">
         <v>0.95</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="5">
+        <v>0.86</v>
+      </c>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1">
@@ -2873,7 +2894,9 @@
       <c r="I13" s="5">
         <v>0.93</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13" s="5">
+        <v>0.61</v>
+      </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1">
@@ -2902,7 +2925,9 @@
       <c r="I14" s="5">
         <v>0.6</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="J14" s="5">
+        <v>0.59</v>
+      </c>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
@@ -3022,7 +3047,9 @@
       <c r="I18" s="13">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J18" s="13"/>
+      <c r="J18" s="13">
+        <v>0.59</v>
+      </c>
       <c r="K18" s="13"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1">
@@ -3051,7 +3078,9 @@
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="J19" s="5">
+        <v>0.7</v>
+      </c>
       <c r="K19" s="5"/>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1">
@@ -3080,7 +3109,9 @@
       <c r="I20" s="5">
         <v>0.86</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="J20" s="5">
+        <v>0.86</v>
+      </c>
       <c r="K20" s="5"/>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1">
@@ -3109,7 +3140,9 @@
       <c r="I21" s="5">
         <v>0.48</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="J21" s="5">
+        <v>0.3</v>
+      </c>
       <c r="K21" s="5"/>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1">
@@ -3138,7 +3171,9 @@
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="J22" s="5"/>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
       <c r="K22" s="5"/>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1">
@@ -3167,7 +3202,9 @@
       <c r="I23" s="5">
         <v>0.81</v>
       </c>
-      <c r="J23" s="5"/>
+      <c r="J23" s="5">
+        <v>0.77</v>
+      </c>
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1">
@@ -3196,7 +3233,9 @@
       <c r="I24" s="5">
         <v>0.48</v>
       </c>
-      <c r="J24" s="5"/>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1">
@@ -3225,7 +3264,9 @@
       <c r="I25" s="5">
         <v>0.52</v>
       </c>
-      <c r="J25" s="5"/>
+      <c r="J25" s="5">
+        <v>0.82</v>
+      </c>
       <c r="K25" s="5"/>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1">
@@ -3254,7 +3295,9 @@
       <c r="I26" s="5">
         <v>0.86</v>
       </c>
-      <c r="J26" s="5"/>
+      <c r="J26" s="5">
+        <v>0.73</v>
+      </c>
       <c r="K26" s="5"/>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1">
@@ -3314,7 +3357,9 @@
       <c r="I28" s="5">
         <v>0.95</v>
       </c>
-      <c r="J28" s="5"/>
+      <c r="J28" s="5">
+        <v>0.64</v>
+      </c>
       <c r="K28" s="5"/>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1">
@@ -3344,7 +3389,7 @@
         <v>0.33</v>
       </c>
       <c r="J29" s="5">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="K29" s="5"/>
     </row>
@@ -3374,7 +3419,9 @@
       <c r="I30" s="5">
         <v>0.9</v>
       </c>
-      <c r="J30" s="5"/>
+      <c r="J30" s="5">
+        <v>0.86</v>
+      </c>
       <c r="K30" s="5"/>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1">
@@ -3403,7 +3450,9 @@
       <c r="I31" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J31" s="5"/>
+      <c r="J31" s="5">
+        <v>0.7</v>
+      </c>
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1">
@@ -3463,7 +3512,9 @@
       <c r="I33" s="5">
         <v>0.48</v>
       </c>
-      <c r="J33" s="5"/>
+      <c r="J33" s="5">
+        <v>0.41</v>
+      </c>
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" ht="14.25" customHeight="1">
@@ -3492,7 +3543,9 @@
       <c r="I34" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J34" s="5"/>
+      <c r="J34" s="5">
+        <v>0.61</v>
+      </c>
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1">
@@ -3521,7 +3574,9 @@
       <c r="I35" s="5">
         <v>0.6</v>
       </c>
-      <c r="J35" s="5"/>
+      <c r="J35" s="5">
+        <v>0.68</v>
+      </c>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="14.25" customHeight="1">
@@ -3550,7 +3605,9 @@
       <c r="I36" s="5">
         <v>0.74</v>
       </c>
-      <c r="J36" s="5"/>
+      <c r="J36" s="5">
+        <v>0.45</v>
+      </c>
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" ht="14.25" customHeight="1">
@@ -3579,7 +3636,9 @@
       <c r="I37" s="13">
         <v>0.52</v>
       </c>
-      <c r="J37" s="13"/>
+      <c r="J37" s="13">
+        <v>0.27</v>
+      </c>
       <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11" ht="14.25" customHeight="1">
@@ -3608,7 +3667,9 @@
       <c r="I38" s="5">
         <v>0.93</v>
       </c>
-      <c r="J38" s="5"/>
+      <c r="J38" s="5">
+        <v>0.68</v>
+      </c>
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" ht="14.25" customHeight="1">
@@ -3637,7 +3698,9 @@
       <c r="I39" s="5">
         <v>0.81</v>
       </c>
-      <c r="J39" s="5"/>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:11" ht="14.25" customHeight="1">
@@ -3666,7 +3729,9 @@
       <c r="I40" s="5">
         <v>0.86</v>
       </c>
-      <c r="J40" s="5"/>
+      <c r="J40" s="5">
+        <v>0.82</v>
+      </c>
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" ht="14.25" customHeight="1">
@@ -3695,7 +3760,9 @@
       <c r="I41" s="5">
         <v>0.6</v>
       </c>
-      <c r="J41" s="5"/>
+      <c r="J41" s="5">
+        <v>0.66</v>
+      </c>
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1">
@@ -3724,7 +3791,9 @@
       <c r="I42" s="5">
         <v>0.71</v>
       </c>
-      <c r="J42" s="5"/>
+      <c r="J42" s="5">
+        <v>0.73</v>
+      </c>
       <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1">
@@ -3753,7 +3822,9 @@
       <c r="I43" s="11">
         <v>0.36</v>
       </c>
-      <c r="J43" s="11"/>
+      <c r="J43" s="11">
+        <v>0.75</v>
+      </c>
       <c r="K43" s="11"/>
     </row>
     <row r="44" spans="1:11" ht="14.25" customHeight="1">
@@ -3813,7 +3884,9 @@
       <c r="I45" s="5">
         <v>0.62</v>
       </c>
-      <c r="J45" s="5"/>
+      <c r="J45" s="5">
+        <v>0.82</v>
+      </c>
       <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:11" ht="14.25" customHeight="1">
@@ -3842,7 +3915,9 @@
       <c r="I46" s="5">
         <v>0.69</v>
       </c>
-      <c r="J46" s="5"/>
+      <c r="J46" s="5">
+        <v>0.68</v>
+      </c>
       <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:11" ht="14.25" customHeight="1">
@@ -3871,7 +3946,9 @@
       <c r="I47" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J47" s="5"/>
+      <c r="J47" s="5">
+        <v>0.8</v>
+      </c>
       <c r="K47" s="5"/>
     </row>
     <row r="48" spans="1:11" ht="14.25" customHeight="1">
@@ -3900,7 +3977,9 @@
       <c r="I48" s="5">
         <v>0.64</v>
       </c>
-      <c r="J48" s="5"/>
+      <c r="J48" s="5">
+        <v>0.77</v>
+      </c>
       <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:11" ht="14.25" customHeight="1">
@@ -3991,7 +4070,9 @@
       <c r="I51" s="5">
         <v>0.86</v>
       </c>
-      <c r="J51" s="5"/>
+      <c r="J51" s="5">
+        <v>0.45</v>
+      </c>
       <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11" ht="14.25" customHeight="1">
@@ -4020,7 +4101,9 @@
       <c r="I52" s="5">
         <v>0.71</v>
       </c>
-      <c r="J52" s="5"/>
+      <c r="J52" s="5">
+        <v>0.86</v>
+      </c>
       <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" ht="14.25" customHeight="1">
@@ -4917,7 +5000,7 @@
         <v>0.47</v>
       </c>
       <c r="I83" s="5">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DA6892-B908-D940-AB50-5CBC1FB0D76E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1731BA5-E2A5-8F49-B4AF-336606F133C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="800" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="620" windowWidth="21820" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2472,8 +2472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -4161,7 +4161,9 @@
       <c r="I54" s="5">
         <v>0.44</v>
       </c>
-      <c r="J54" s="5"/>
+      <c r="J54" s="5">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="K54" s="5"/>
     </row>
     <row r="55" spans="1:11" ht="14.25" customHeight="1">
@@ -4480,7 +4482,9 @@
       <c r="I65" s="5">
         <v>0.65</v>
       </c>
-      <c r="J65" s="5"/>
+      <c r="J65" s="5">
+        <v>0.38</v>
+      </c>
       <c r="K65" s="5"/>
     </row>
     <row r="66" spans="1:11" ht="14.25" customHeight="1">
@@ -4538,7 +4542,9 @@
       <c r="I67" s="5">
         <v>0.79</v>
       </c>
-      <c r="J67" s="5"/>
+      <c r="J67" s="5">
+        <v>0.63</v>
+      </c>
       <c r="K67" s="5"/>
     </row>
     <row r="68" spans="1:11" ht="14.25" customHeight="1">
@@ -4683,7 +4689,9 @@
       <c r="I72" s="5">
         <v>0.73</v>
       </c>
-      <c r="J72" s="5"/>
+      <c r="J72" s="5">
+        <v>0.54</v>
+      </c>
       <c r="K72" s="5"/>
     </row>
     <row r="73" spans="1:11" ht="14.25" customHeight="1">
@@ -4712,7 +4720,9 @@
       <c r="I73" s="5">
         <v>0.52</v>
       </c>
-      <c r="J73" s="5"/>
+      <c r="J73" s="5">
+        <v>0.63</v>
+      </c>
       <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:11" ht="14.25" customHeight="1">
@@ -5031,7 +5041,9 @@
       <c r="I84" s="5">
         <v>0.81</v>
       </c>
-      <c r="J84" s="5"/>
+      <c r="J84" s="5">
+        <v>0.54</v>
+      </c>
       <c r="K84" s="5"/>
     </row>
     <row r="85" spans="1:11" ht="14.25" customHeight="1">

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1731BA5-E2A5-8F49-B4AF-336606F133C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAE866B-6B97-9D4D-AFBF-3ABE4DF29213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="620" windowWidth="21820" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5800" yWindow="800" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="202">
   <si>
     <t>Surname</t>
   </si>
@@ -633,13 +633,19 @@
   </si>
   <si>
     <t>H170218A</t>
+  </si>
+  <si>
+    <t>AS_2</t>
+  </si>
+  <si>
+    <t>AS_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -655,6 +661,11 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -812,7 +823,89 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Times Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Times Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="10"/>
+        </left>
+        <right style="thin">
+          <color indexed="10"/>
+        </right>
+        <top style="thin">
+          <color indexed="10"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="10"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1403,23 +1496,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E12D2C3A-56FF-EE48-BF21-6E043A7A5D80}" name="Table1" displayName="Table1" ref="A1:K95" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
-  <autoFilter ref="A1:K95" xr:uid="{E12D2C3A-56FF-EE48-BF21-6E043A7A5D80}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E12D2C3A-56FF-EE48-BF21-6E043A7A5D80}" name="Table1" displayName="Table1" ref="A1:M95" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+  <autoFilter ref="A1:M95" xr:uid="{E12D2C3A-56FF-EE48-BF21-6E043A7A5D80}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M95">
     <sortCondition ref="C1:C95"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{CA68C236-9B81-6943-9124-FCB1EFF82B61}" name="Surname" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{772AD85A-09E9-824D-920B-32ECA0508909}" name="Reg" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{19CF2E5D-B4B7-E04D-8776-FF144460D950}" name="Dept" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{E87336A0-4BDA-FA47-AD74-82EC3F149A91}" name="Quiz_1" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{FAC627FA-AD03-4640-83D5-C316A650FDA0}" name="Quiz_2" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{4BA926F4-730D-824B-8373-6D78B9323821}" name="Quiz_3" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{4BF9782F-8E5B-614A-A28C-A3AF428C2B3B}" name="Test_1" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{99D84DCE-7040-C54F-8C73-B2AB39CAB36C}" name="Test_2" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{87033C86-6194-A341-9E8E-123C36BF91AE}" name="Test_3" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{07C69C5C-5C64-A249-BACD-8290E9A17F3A}" name="AS_1" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{791909E3-DD60-2844-A81E-180A04C85B15}" name="CW" dataDxfId="0"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{CA68C236-9B81-6943-9124-FCB1EFF82B61}" name="Surname" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{772AD85A-09E9-824D-920B-32ECA0508909}" name="Reg" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{19CF2E5D-B4B7-E04D-8776-FF144460D950}" name="Dept" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{E87336A0-4BDA-FA47-AD74-82EC3F149A91}" name="Quiz_1" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{FAC627FA-AD03-4640-83D5-C316A650FDA0}" name="Quiz_2" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{4BA926F4-730D-824B-8373-6D78B9323821}" name="Quiz_3" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{4BF9782F-8E5B-614A-A28C-A3AF428C2B3B}" name="Test_1" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{99D84DCE-7040-C54F-8C73-B2AB39CAB36C}" name="Test_2" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{87033C86-6194-A341-9E8E-123C36BF91AE}" name="Test_3" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{07C69C5C-5C64-A249-BACD-8290E9A17F3A}" name="AS_1" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{C7AA010D-240A-9045-96E7-67319A9D8BEE}" name="AS_2" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{8B47A38A-88F2-5E4C-BC4B-4A7E3733A68C}" name="AS_3" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{791909E3-DD60-2844-A81E-180A04C85B15}" name="CW" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2470,10 +2565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2486,13 +2581,13 @@
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
     <col min="7" max="8" width="10.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="16.33203125" style="1"/>
+    <col min="10" max="12" width="9.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.5" customHeight="1">
+    <row r="1" spans="1:13" ht="14.5" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2524,10 +2619,16 @@
         <v>8</v>
       </c>
       <c r="K1" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.5" customHeight="1">
+    <row r="2" spans="1:13" ht="14.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -2557,8 +2658,10 @@
         <v>0.64</v>
       </c>
       <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -2588,8 +2691,10 @@
         <v>0.8</v>
       </c>
       <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>191</v>
       </c>
@@ -2619,8 +2724,10 @@
         <v>0.77</v>
       </c>
       <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -2650,8 +2757,10 @@
         <v>0.73</v>
       </c>
       <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
@@ -2681,8 +2790,10 @@
         <v>0.48</v>
       </c>
       <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -2712,8 +2823,10 @@
         <v>0.86</v>
       </c>
       <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -2743,8 +2856,10 @@
         <v>0.95</v>
       </c>
       <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -2774,8 +2889,10 @@
         <v>0.64</v>
       </c>
       <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -2805,8 +2922,10 @@
         <v>0.59</v>
       </c>
       <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2836,8 +2955,10 @@
         <v>0.77</v>
       </c>
       <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -2867,8 +2988,10 @@
         <v>0.86</v>
       </c>
       <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
@@ -2898,8 +3021,10 @@
         <v>0.61</v>
       </c>
       <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>38</v>
       </c>
@@ -2929,8 +3054,10 @@
         <v>0.59</v>
       </c>
       <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
@@ -2960,8 +3087,10 @@
         <v>0.75</v>
       </c>
       <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -2991,8 +3120,10 @@
         <v>0.82</v>
       </c>
       <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" ht="14.25" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>44</v>
       </c>
@@ -3022,8 +3153,10 @@
         <v>0.8</v>
       </c>
       <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>196</v>
       </c>
@@ -3051,8 +3184,10 @@
         <v>0.59</v>
       </c>
       <c r="K18" s="13"/>
-    </row>
-    <row r="19" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="1:13" ht="14.25" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>46</v>
       </c>
@@ -3082,8 +3217,10 @@
         <v>0.7</v>
       </c>
       <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>48</v>
       </c>
@@ -3113,8 +3250,10 @@
         <v>0.86</v>
       </c>
       <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>50</v>
       </c>
@@ -3144,8 +3283,10 @@
         <v>0.3</v>
       </c>
       <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
@@ -3175,8 +3316,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" ht="14.25" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>52</v>
       </c>
@@ -3206,8 +3349,10 @@
         <v>0.77</v>
       </c>
       <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.25" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
@@ -3237,8 +3382,10 @@
         <v>0</v>
       </c>
       <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" ht="14.25" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>56</v>
       </c>
@@ -3268,8 +3415,10 @@
         <v>0.82</v>
       </c>
       <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" ht="14.25" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>58</v>
       </c>
@@ -3299,8 +3448,10 @@
         <v>0.73</v>
       </c>
       <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" ht="14.25" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>60</v>
       </c>
@@ -3330,8 +3481,10 @@
         <v>0.84</v>
       </c>
       <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" ht="14.25" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>62</v>
       </c>
@@ -3361,8 +3514,10 @@
         <v>0.64</v>
       </c>
       <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" ht="14.25" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>64</v>
       </c>
@@ -3392,8 +3547,10 @@
         <v>0.68</v>
       </c>
       <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" ht="14.25" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>66</v>
       </c>
@@ -3423,8 +3580,10 @@
         <v>0.86</v>
       </c>
       <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" ht="14.25" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>68</v>
       </c>
@@ -3454,8 +3613,10 @@
         <v>0.7</v>
       </c>
       <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" ht="14.25" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>70</v>
       </c>
@@ -3485,8 +3646,10 @@
         <v>0.73</v>
       </c>
       <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" ht="14.25" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>72</v>
       </c>
@@ -3516,8 +3679,10 @@
         <v>0.41</v>
       </c>
       <c r="K33" s="5"/>
-    </row>
-    <row r="34" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" ht="14.25" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>72</v>
       </c>
@@ -3547,8 +3712,10 @@
         <v>0.61</v>
       </c>
       <c r="K34" s="5"/>
-    </row>
-    <row r="35" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" ht="14.25" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>75</v>
       </c>
@@ -3578,8 +3745,10 @@
         <v>0.68</v>
       </c>
       <c r="K35" s="5"/>
-    </row>
-    <row r="36" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" ht="14.25" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>77</v>
       </c>
@@ -3609,8 +3778,10 @@
         <v>0.45</v>
       </c>
       <c r="K36" s="5"/>
-    </row>
-    <row r="37" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" ht="14.25" customHeight="1">
       <c r="A37" s="14" t="s">
         <v>198</v>
       </c>
@@ -3640,8 +3811,10 @@
         <v>0.27</v>
       </c>
       <c r="K37" s="13"/>
-    </row>
-    <row r="38" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+    </row>
+    <row r="38" spans="1:13" ht="14.25" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>79</v>
       </c>
@@ -3671,8 +3844,10 @@
         <v>0.68</v>
       </c>
       <c r="K38" s="5"/>
-    </row>
-    <row r="39" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" ht="14.25" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>81</v>
       </c>
@@ -3702,8 +3877,10 @@
         <v>0</v>
       </c>
       <c r="K39" s="5"/>
-    </row>
-    <row r="40" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" ht="14.25" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>83</v>
       </c>
@@ -3733,8 +3910,10 @@
         <v>0.82</v>
       </c>
       <c r="K40" s="5"/>
-    </row>
-    <row r="41" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:13" ht="14.25" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>85</v>
       </c>
@@ -3764,8 +3943,10 @@
         <v>0.66</v>
       </c>
       <c r="K41" s="5"/>
-    </row>
-    <row r="42" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" ht="14.25" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +3976,10 @@
         <v>0.73</v>
       </c>
       <c r="K42" s="5"/>
-    </row>
-    <row r="43" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" ht="14.25" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>193</v>
       </c>
@@ -3826,8 +4009,10 @@
         <v>0.75</v>
       </c>
       <c r="K43" s="11"/>
-    </row>
-    <row r="44" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+    </row>
+    <row r="44" spans="1:13" ht="14.25" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>89</v>
       </c>
@@ -3857,8 +4042,10 @@
         <v>0.73</v>
       </c>
       <c r="K44" s="5"/>
-    </row>
-    <row r="45" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" ht="14.25" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>91</v>
       </c>
@@ -3888,8 +4075,10 @@
         <v>0.82</v>
       </c>
       <c r="K45" s="5"/>
-    </row>
-    <row r="46" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" ht="14.25" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>93</v>
       </c>
@@ -3919,8 +4108,10 @@
         <v>0.68</v>
       </c>
       <c r="K46" s="5"/>
-    </row>
-    <row r="47" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" ht="14.25" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>95</v>
       </c>
@@ -3950,8 +4141,10 @@
         <v>0.8</v>
       </c>
       <c r="K47" s="5"/>
-    </row>
-    <row r="48" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" spans="1:13" ht="14.25" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>97</v>
       </c>
@@ -3981,8 +4174,10 @@
         <v>0.77</v>
       </c>
       <c r="K48" s="5"/>
-    </row>
-    <row r="49" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+    </row>
+    <row r="49" spans="1:13" ht="14.25" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>99</v>
       </c>
@@ -4012,8 +4207,10 @@
         <v>0.7</v>
       </c>
       <c r="K49" s="5"/>
-    </row>
-    <row r="50" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" spans="1:13" ht="14.25" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>101</v>
       </c>
@@ -4043,8 +4240,10 @@
         <v>0.82</v>
       </c>
       <c r="K50" s="5"/>
-    </row>
-    <row r="51" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+    </row>
+    <row r="51" spans="1:13" ht="14.25" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>103</v>
       </c>
@@ -4074,8 +4273,10 @@
         <v>0.45</v>
       </c>
       <c r="K51" s="5"/>
-    </row>
-    <row r="52" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+    </row>
+    <row r="52" spans="1:13" ht="14.25" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>105</v>
       </c>
@@ -4105,8 +4306,10 @@
         <v>0.86</v>
       </c>
       <c r="K52" s="5"/>
-    </row>
-    <row r="53" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+    </row>
+    <row r="53" spans="1:13" ht="14.25" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>107</v>
       </c>
@@ -4134,8 +4337,10 @@
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5"/>
-    </row>
-    <row r="54" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+    </row>
+    <row r="54" spans="1:13" ht="14.25" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>110</v>
       </c>
@@ -4165,8 +4370,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="K54" s="5"/>
-    </row>
-    <row r="55" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+    </row>
+    <row r="55" spans="1:13" ht="14.25" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>112</v>
       </c>
@@ -4194,8 +4401,10 @@
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
-    </row>
-    <row r="56" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+    </row>
+    <row r="56" spans="1:13" ht="14.25" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>114</v>
       </c>
@@ -4223,8 +4432,10 @@
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="5"/>
-    </row>
-    <row r="57" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+    </row>
+    <row r="57" spans="1:13" ht="14.25" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>116</v>
       </c>
@@ -4252,8 +4463,10 @@
       </c>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-    </row>
-    <row r="58" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+    </row>
+    <row r="58" spans="1:13" ht="14.25" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>118</v>
       </c>
@@ -4279,10 +4492,14 @@
       <c r="I58" s="5">
         <v>0.25</v>
       </c>
-      <c r="J58" s="5"/>
+      <c r="J58" s="5">
+        <v>0.79</v>
+      </c>
       <c r="K58" s="5"/>
-    </row>
-    <row r="59" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+    </row>
+    <row r="59" spans="1:13" ht="14.25" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>120</v>
       </c>
@@ -4308,10 +4525,14 @@
       <c r="I59" s="5">
         <v>0.44</v>
       </c>
-      <c r="J59" s="5"/>
+      <c r="J59" s="5">
+        <v>0.79</v>
+      </c>
       <c r="K59" s="5"/>
-    </row>
-    <row r="60" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="1:13" ht="14.25" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>122</v>
       </c>
@@ -4339,8 +4560,10 @@
       </c>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-    </row>
-    <row r="61" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+    </row>
+    <row r="61" spans="1:13" ht="14.25" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>124</v>
       </c>
@@ -4368,8 +4591,10 @@
       </c>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-    </row>
-    <row r="62" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+    </row>
+    <row r="62" spans="1:13" ht="14.25" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>126</v>
       </c>
@@ -4397,8 +4622,10 @@
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-    </row>
-    <row r="63" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+    </row>
+    <row r="63" spans="1:13" ht="14.25" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>128</v>
       </c>
@@ -4426,8 +4653,10 @@
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-    </row>
-    <row r="64" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+    </row>
+    <row r="64" spans="1:13" ht="14.25" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>130</v>
       </c>
@@ -4453,10 +4682,14 @@
       <c r="I64" s="5">
         <v>0.5</v>
       </c>
-      <c r="J64" s="5"/>
+      <c r="J64" s="5">
+        <v>0.46</v>
+      </c>
       <c r="K64" s="5"/>
-    </row>
-    <row r="65" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+    </row>
+    <row r="65" spans="1:13" ht="14.25" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>132</v>
       </c>
@@ -4486,8 +4719,10 @@
         <v>0.38</v>
       </c>
       <c r="K65" s="5"/>
-    </row>
-    <row r="66" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+    </row>
+    <row r="66" spans="1:13" ht="14.25" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>134</v>
       </c>
@@ -4515,8 +4750,10 @@
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-    </row>
-    <row r="67" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+    </row>
+    <row r="67" spans="1:13" ht="14.25" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>136</v>
       </c>
@@ -4546,8 +4783,10 @@
         <v>0.63</v>
       </c>
       <c r="K67" s="5"/>
-    </row>
-    <row r="68" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+    </row>
+    <row r="68" spans="1:13" ht="14.25" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>138</v>
       </c>
@@ -4575,8 +4814,10 @@
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-    </row>
-    <row r="69" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+    </row>
+    <row r="69" spans="1:13" ht="14.25" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>140</v>
       </c>
@@ -4602,10 +4843,14 @@
       <c r="I69" s="5">
         <v>0.75</v>
       </c>
-      <c r="J69" s="5"/>
+      <c r="J69" s="5">
+        <v>0.75</v>
+      </c>
       <c r="K69" s="5"/>
-    </row>
-    <row r="70" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+    </row>
+    <row r="70" spans="1:13" ht="14.25" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>142</v>
       </c>
@@ -4633,8 +4878,10 @@
       </c>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-    </row>
-    <row r="71" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+    </row>
+    <row r="71" spans="1:13" ht="14.25" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>144</v>
       </c>
@@ -4662,8 +4909,10 @@
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-    </row>
-    <row r="72" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+    </row>
+    <row r="72" spans="1:13" ht="14.25" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>146</v>
       </c>
@@ -4693,8 +4942,10 @@
         <v>0.54</v>
       </c>
       <c r="K72" s="5"/>
-    </row>
-    <row r="73" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+    </row>
+    <row r="73" spans="1:13" ht="14.25" customHeight="1">
       <c r="A73" s="4" t="s">
         <v>148</v>
       </c>
@@ -4724,8 +4975,10 @@
         <v>0.63</v>
       </c>
       <c r="K73" s="5"/>
-    </row>
-    <row r="74" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+    </row>
+    <row r="74" spans="1:13" ht="14.25" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>150</v>
       </c>
@@ -4751,10 +5004,14 @@
       <c r="I74" s="5">
         <v>0</v>
       </c>
-      <c r="J74" s="5"/>
+      <c r="J74" s="5">
+        <v>0.5</v>
+      </c>
       <c r="K74" s="5"/>
-    </row>
-    <row r="75" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+    </row>
+    <row r="75" spans="1:13" ht="14.25" customHeight="1">
       <c r="A75" s="4" t="s">
         <v>152</v>
       </c>
@@ -4780,10 +5037,14 @@
       <c r="I75" s="5">
         <v>0.75</v>
       </c>
-      <c r="J75" s="5"/>
+      <c r="J75" s="5">
+        <v>0.67</v>
+      </c>
       <c r="K75" s="5"/>
-    </row>
-    <row r="76" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+    </row>
+    <row r="76" spans="1:13" ht="14.25" customHeight="1">
       <c r="A76" s="4" t="s">
         <v>154</v>
       </c>
@@ -4811,8 +5072,10 @@
       </c>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-    </row>
-    <row r="77" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+    </row>
+    <row r="77" spans="1:13" ht="14.25" customHeight="1">
       <c r="A77" s="4" t="s">
         <v>156</v>
       </c>
@@ -4838,10 +5101,14 @@
       <c r="I77" s="5">
         <v>0.67</v>
       </c>
-      <c r="J77" s="5"/>
+      <c r="J77" s="5">
+        <v>0.54</v>
+      </c>
       <c r="K77" s="5"/>
-    </row>
-    <row r="78" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+    </row>
+    <row r="78" spans="1:13" ht="14.25" customHeight="1">
       <c r="A78" s="4" t="s">
         <v>158</v>
       </c>
@@ -4867,10 +5134,14 @@
       <c r="I78" s="5">
         <v>0.92</v>
       </c>
-      <c r="J78" s="5"/>
+      <c r="J78" s="5">
+        <v>0.71</v>
+      </c>
       <c r="K78" s="5"/>
-    </row>
-    <row r="79" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+    </row>
+    <row r="79" spans="1:13" ht="14.25" customHeight="1">
       <c r="A79" s="4" t="s">
         <v>160</v>
       </c>
@@ -4898,8 +5169,10 @@
       </c>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-    </row>
-    <row r="80" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+    </row>
+    <row r="80" spans="1:13" ht="14.25" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>162</v>
       </c>
@@ -4927,8 +5200,10 @@
       </c>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-    </row>
-    <row r="81" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+    </row>
+    <row r="81" spans="1:13" ht="14.25" customHeight="1">
       <c r="A81" s="4" t="s">
         <v>164</v>
       </c>
@@ -4956,8 +5231,10 @@
       </c>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-    </row>
-    <row r="82" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+    </row>
+    <row r="82" spans="1:13" ht="14.25" customHeight="1">
       <c r="A82" s="4" t="s">
         <v>166</v>
       </c>
@@ -4985,8 +5262,10 @@
       </c>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-    </row>
-    <row r="83" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+    </row>
+    <row r="83" spans="1:13" ht="14.25" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>168</v>
       </c>
@@ -5014,8 +5293,10 @@
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-    </row>
-    <row r="84" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+    </row>
+    <row r="84" spans="1:13" ht="14.25" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>170</v>
       </c>
@@ -5045,8 +5326,10 @@
         <v>0.54</v>
       </c>
       <c r="K84" s="5"/>
-    </row>
-    <row r="85" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+    </row>
+    <row r="85" spans="1:13" ht="14.25" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>172</v>
       </c>
@@ -5074,8 +5357,10 @@
       </c>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-    </row>
-    <row r="86" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+    </row>
+    <row r="86" spans="1:13" ht="14.25" customHeight="1">
       <c r="A86" s="4" t="s">
         <v>174</v>
       </c>
@@ -5103,8 +5388,10 @@
       </c>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
-    </row>
-    <row r="87" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+    </row>
+    <row r="87" spans="1:13" ht="14.25" customHeight="1">
       <c r="A87" s="4" t="s">
         <v>12</v>
       </c>
@@ -5132,8 +5419,10 @@
       </c>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
-    </row>
-    <row r="88" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+    </row>
+    <row r="88" spans="1:13" ht="14.25" customHeight="1">
       <c r="A88" s="4" t="s">
         <v>14</v>
       </c>
@@ -5161,8 +5450,10 @@
       </c>
       <c r="J88" s="5"/>
       <c r="K88" s="5"/>
-    </row>
-    <row r="89" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+    </row>
+    <row r="89" spans="1:13" ht="14.25" customHeight="1">
       <c r="A89" s="4" t="s">
         <v>177</v>
       </c>
@@ -5190,8 +5481,10 @@
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
-    </row>
-    <row r="90" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+    </row>
+    <row r="90" spans="1:13" ht="14.25" customHeight="1">
       <c r="A90" s="4" t="s">
         <v>179</v>
       </c>
@@ -5219,8 +5512,10 @@
       </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
-    </row>
-    <row r="91" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+    </row>
+    <row r="91" spans="1:13" ht="14.25" customHeight="1">
       <c r="A91" s="4" t="s">
         <v>181</v>
       </c>
@@ -5246,10 +5541,14 @@
       <c r="I91" s="5">
         <v>0</v>
       </c>
-      <c r="J91" s="5"/>
+      <c r="J91" s="5">
+        <v>0.46</v>
+      </c>
       <c r="K91" s="5"/>
-    </row>
-    <row r="92" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+    </row>
+    <row r="92" spans="1:13" ht="14.25" customHeight="1">
       <c r="A92" s="6" t="s">
         <v>183</v>
       </c>
@@ -5275,10 +5574,14 @@
       <c r="I92" s="5">
         <v>0.88</v>
       </c>
-      <c r="J92" s="5"/>
+      <c r="J92" s="5">
+        <v>0.54</v>
+      </c>
       <c r="K92" s="5"/>
-    </row>
-    <row r="93" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+    </row>
+    <row r="93" spans="1:13" ht="14.25" customHeight="1">
       <c r="A93" s="6" t="s">
         <v>185</v>
       </c>
@@ -5306,8 +5609,10 @@
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
-    </row>
-    <row r="94" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+    </row>
+    <row r="94" spans="1:13" ht="14.25" customHeight="1">
       <c r="A94" s="6" t="s">
         <v>187</v>
       </c>
@@ -5335,8 +5640,10 @@
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
-    </row>
-    <row r="95" spans="1:11" ht="20" customHeight="1">
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+    </row>
+    <row r="95" spans="1:13" ht="20" customHeight="1">
       <c r="A95" s="8" t="s">
         <v>189</v>
       </c>
@@ -5364,8 +5671,11 @@
       </c>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAE866B-6B97-9D4D-AFBF-3ABE4DF29213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A593D0-64F1-9246-BBB3-0DAF807CA696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5800" yWindow="800" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A593D0-64F1-9246-BBB3-0DAF807CA696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8275C4A6-8C1F-0640-89F4-0AF48C2BEDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5800" yWindow="800" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2567,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="J78" sqref="J78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -4335,7 +4335,9 @@
       <c r="I53" s="5">
         <v>0.81</v>
       </c>
-      <c r="J53" s="5"/>
+      <c r="J53" s="5">
+        <v>0.83</v>
+      </c>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -4399,7 +4401,9 @@
       <c r="I55" s="5">
         <v>0.77</v>
       </c>
-      <c r="J55" s="5"/>
+      <c r="J55" s="5">
+        <v>0.63</v>
+      </c>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
@@ -4430,7 +4434,9 @@
       <c r="I56" s="5">
         <v>0</v>
       </c>
-      <c r="J56" s="5"/>
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
@@ -4461,7 +4467,9 @@
       <c r="I57" s="5">
         <v>0.75</v>
       </c>
-      <c r="J57" s="5"/>
+      <c r="J57" s="5">
+        <v>0.63</v>
+      </c>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
@@ -4558,7 +4566,9 @@
       <c r="I60" s="5">
         <v>0.44</v>
       </c>
-      <c r="J60" s="5"/>
+      <c r="J60" s="5">
+        <v>0.79</v>
+      </c>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
@@ -4589,7 +4599,9 @@
       <c r="I61" s="5">
         <v>0</v>
       </c>
-      <c r="J61" s="5"/>
+      <c r="J61" s="5">
+        <v>0.92</v>
+      </c>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
@@ -4620,7 +4632,9 @@
       <c r="I62" s="5">
         <v>0</v>
       </c>
-      <c r="J62" s="5"/>
+      <c r="J62" s="5">
+        <v>0</v>
+      </c>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
@@ -4651,7 +4665,9 @@
       <c r="I63" s="5">
         <v>0.69</v>
       </c>
-      <c r="J63" s="5"/>
+      <c r="J63" s="5">
+        <v>0.67</v>
+      </c>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
@@ -4748,7 +4764,9 @@
       <c r="I66" s="5">
         <v>0.27</v>
       </c>
-      <c r="J66" s="5"/>
+      <c r="J66" s="5">
+        <v>0.88</v>
+      </c>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -4812,7 +4830,9 @@
       <c r="I68" s="5">
         <v>0.5</v>
       </c>
-      <c r="J68" s="5"/>
+      <c r="J68" s="5">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
@@ -4876,7 +4896,9 @@
       <c r="I70" s="5">
         <v>0.46</v>
       </c>
-      <c r="J70" s="5"/>
+      <c r="J70" s="5">
+        <v>0</v>
+      </c>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
@@ -4907,7 +4929,9 @@
       <c r="I71" s="5">
         <v>0.75</v>
       </c>
-      <c r="J71" s="5"/>
+      <c r="J71" s="5">
+        <v>0</v>
+      </c>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
@@ -5070,7 +5094,9 @@
       <c r="I76" s="5">
         <v>0</v>
       </c>
-      <c r="J76" s="5"/>
+      <c r="J76" s="5">
+        <v>0</v>
+      </c>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
@@ -5167,7 +5193,9 @@
       <c r="I79" s="5">
         <v>0.15</v>
       </c>
-      <c r="J79" s="5"/>
+      <c r="J79" s="5">
+        <v>0.71</v>
+      </c>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
@@ -5198,7 +5226,9 @@
       <c r="I80" s="5">
         <v>0.6</v>
       </c>
-      <c r="J80" s="5"/>
+      <c r="J80" s="5">
+        <v>0.67</v>
+      </c>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
@@ -5229,7 +5259,9 @@
       <c r="I81" s="5">
         <v>0.4</v>
       </c>
-      <c r="J81" s="5"/>
+      <c r="J81" s="5">
+        <v>0.83</v>
+      </c>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
@@ -5260,7 +5292,9 @@
       <c r="I82" s="5">
         <v>0.21</v>
       </c>
-      <c r="J82" s="5"/>
+      <c r="J82" s="5">
+        <v>0.83</v>
+      </c>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
@@ -5291,7 +5325,9 @@
       <c r="I83" s="5">
         <v>0.5</v>
       </c>
-      <c r="J83" s="5"/>
+      <c r="J83" s="5">
+        <v>0.63</v>
+      </c>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
@@ -5355,7 +5391,9 @@
       <c r="I85" s="5">
         <v>0.65</v>
       </c>
-      <c r="J85" s="5"/>
+      <c r="J85" s="5">
+        <v>0.88</v>
+      </c>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
@@ -5386,7 +5424,9 @@
       <c r="I86" s="5">
         <v>0.35</v>
       </c>
-      <c r="J86" s="5"/>
+      <c r="J86" s="5">
+        <v>0.46</v>
+      </c>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -5417,7 +5457,9 @@
       <c r="I87" s="5">
         <v>0</v>
       </c>
-      <c r="J87" s="5"/>
+      <c r="J87" s="5">
+        <v>0</v>
+      </c>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
@@ -5448,7 +5490,9 @@
       <c r="I88" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J88" s="5"/>
+      <c r="J88" s="5">
+        <v>0.46</v>
+      </c>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
@@ -5479,7 +5523,9 @@
       <c r="I89" s="5">
         <v>0</v>
       </c>
-      <c r="J89" s="5"/>
+      <c r="J89" s="5">
+        <v>0</v>
+      </c>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
@@ -5510,7 +5556,9 @@
       <c r="I90" s="5">
         <v>0.42</v>
       </c>
-      <c r="J90" s="5"/>
+      <c r="J90" s="5">
+        <v>0.79</v>
+      </c>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
@@ -5607,7 +5655,9 @@
       <c r="I93" s="5">
         <v>0.85</v>
       </c>
-      <c r="J93" s="5"/>
+      <c r="J93" s="5">
+        <v>0.63</v>
+      </c>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
@@ -5638,7 +5688,9 @@
       <c r="I94" s="5">
         <v>0.42</v>
       </c>
-      <c r="J94" s="5"/>
+      <c r="J94" s="5">
+        <v>0.42</v>
+      </c>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
@@ -5669,7 +5721,9 @@
       <c r="I95" s="12">
         <v>0.87</v>
       </c>
-      <c r="J95" s="12"/>
+      <c r="J95" s="12">
+        <v>0.83</v>
+      </c>
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8275C4A6-8C1F-0640-89F4-0AF48C2BEDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F0F0A4-E29D-2E44-9659-43D4B6EB25E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="800" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="680" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2567,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -4325,7 +4325,9 @@
       <c r="E53" s="5">
         <v>1</v>
       </c>
-      <c r="F53" s="5"/>
+      <c r="F53" s="5">
+        <v>0</v>
+      </c>
       <c r="G53" s="5">
         <v>0.73</v>
       </c>
@@ -4358,7 +4360,9 @@
       <c r="E54" s="5">
         <v>0.96</v>
       </c>
-      <c r="F54" s="5"/>
+      <c r="F54" s="5">
+        <v>0</v>
+      </c>
       <c r="G54" s="5">
         <v>0.6</v>
       </c>
@@ -4391,7 +4395,9 @@
       <c r="E55" s="5">
         <v>0.85</v>
       </c>
-      <c r="F55" s="5"/>
+      <c r="F55" s="5">
+        <v>0.78</v>
+      </c>
       <c r="G55" s="5">
         <v>0.77</v>
       </c>
@@ -4424,7 +4430,9 @@
       <c r="E56" s="5">
         <v>1</v>
       </c>
-      <c r="F56" s="5"/>
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
       <c r="G56" s="5">
         <v>0.52</v>
       </c>
@@ -4457,7 +4465,9 @@
       <c r="E57" s="5">
         <v>0.96</v>
       </c>
-      <c r="F57" s="5"/>
+      <c r="F57" s="5">
+        <v>0</v>
+      </c>
       <c r="G57" s="5">
         <v>0.69</v>
       </c>
@@ -4490,7 +4500,9 @@
       <c r="E58" s="5">
         <v>0.88</v>
       </c>
-      <c r="F58" s="5"/>
+      <c r="F58" s="5">
+        <v>0.78</v>
+      </c>
       <c r="G58" s="5">
         <v>0.32</v>
       </c>
@@ -4523,7 +4535,9 @@
       <c r="E59" s="5">
         <v>0.92</v>
       </c>
-      <c r="F59" s="5"/>
+      <c r="F59" s="5">
+        <v>0.96</v>
+      </c>
       <c r="G59" s="5">
         <v>0.52</v>
       </c>
@@ -4556,7 +4570,9 @@
       <c r="E60" s="5">
         <v>0.96</v>
       </c>
-      <c r="F60" s="5"/>
+      <c r="F60" s="5">
+        <v>0</v>
+      </c>
       <c r="G60" s="5">
         <v>0.63</v>
       </c>
@@ -4589,7 +4605,9 @@
       <c r="E61" s="5">
         <v>0.88</v>
       </c>
-      <c r="F61" s="5"/>
+      <c r="F61" s="5">
+        <v>1</v>
+      </c>
       <c r="G61" s="5">
         <v>0.76</v>
       </c>
@@ -4622,7 +4640,9 @@
       <c r="E62" s="5">
         <v>0.96</v>
       </c>
-      <c r="F62" s="5"/>
+      <c r="F62" s="5">
+        <v>0</v>
+      </c>
       <c r="G62" s="5">
         <v>0.6</v>
       </c>
@@ -4655,7 +4675,9 @@
       <c r="E63" s="5">
         <v>0</v>
       </c>
-      <c r="F63" s="5"/>
+      <c r="F63" s="5">
+        <v>1</v>
+      </c>
       <c r="G63" s="5">
         <v>0.52</v>
       </c>
@@ -4688,7 +4710,9 @@
       <c r="E64" s="5">
         <v>0.96</v>
       </c>
-      <c r="F64" s="5"/>
+      <c r="F64" s="5">
+        <v>1</v>
+      </c>
       <c r="G64" s="5">
         <v>0.68</v>
       </c>
@@ -4721,7 +4745,9 @@
       <c r="E65" s="5">
         <v>0.92</v>
       </c>
-      <c r="F65" s="5"/>
+      <c r="F65" s="5">
+        <v>0</v>
+      </c>
       <c r="G65" s="5">
         <v>0.66</v>
       </c>
@@ -4754,7 +4780,9 @@
       <c r="E66" s="5">
         <v>0.96</v>
       </c>
-      <c r="F66" s="5"/>
+      <c r="F66" s="5">
+        <v>0.93</v>
+      </c>
       <c r="G66" s="5">
         <v>0.63</v>
       </c>
@@ -4787,7 +4815,9 @@
       <c r="E67" s="5">
         <v>0.96</v>
       </c>
-      <c r="F67" s="5"/>
+      <c r="F67" s="5">
+        <v>1</v>
+      </c>
       <c r="G67" s="5">
         <v>0.85</v>
       </c>
@@ -4820,7 +4850,9 @@
       <c r="E68" s="5">
         <v>0.96</v>
       </c>
-      <c r="F68" s="5"/>
+      <c r="F68" s="5">
+        <v>1</v>
+      </c>
       <c r="G68" s="5">
         <v>0.61</v>
       </c>
@@ -4853,7 +4885,9 @@
       <c r="E69" s="5">
         <v>0.96</v>
       </c>
-      <c r="F69" s="5"/>
+      <c r="F69" s="5">
+        <v>0</v>
+      </c>
       <c r="G69" s="5">
         <v>0.82</v>
       </c>
@@ -4886,7 +4920,9 @@
       <c r="E70" s="5">
         <v>0.96</v>
       </c>
-      <c r="F70" s="5"/>
+      <c r="F70" s="5">
+        <v>1</v>
+      </c>
       <c r="G70" s="5">
         <v>0.66</v>
       </c>
@@ -4919,7 +4955,9 @@
       <c r="E71" s="5">
         <v>0.69</v>
       </c>
-      <c r="F71" s="5"/>
+      <c r="F71" s="5">
+        <v>0</v>
+      </c>
       <c r="G71" s="5">
         <v>0</v>
       </c>
@@ -4952,7 +4990,9 @@
       <c r="E72" s="5">
         <v>0.96</v>
       </c>
-      <c r="F72" s="5"/>
+      <c r="F72" s="5">
+        <v>0.96</v>
+      </c>
       <c r="G72" s="5">
         <v>0.73</v>
       </c>
@@ -4985,7 +5025,9 @@
       <c r="E73" s="5">
         <v>0.96</v>
       </c>
-      <c r="F73" s="5"/>
+      <c r="F73" s="5">
+        <v>1</v>
+      </c>
       <c r="G73" s="5">
         <v>0.97</v>
       </c>
@@ -5018,7 +5060,9 @@
       <c r="E74" s="5">
         <v>0.96</v>
       </c>
-      <c r="F74" s="5"/>
+      <c r="F74" s="5">
+        <v>0</v>
+      </c>
       <c r="G74" s="5">
         <v>0.69</v>
       </c>
@@ -5051,7 +5095,9 @@
       <c r="E75" s="5">
         <v>0.92</v>
       </c>
-      <c r="F75" s="5"/>
+      <c r="F75" s="5">
+        <v>0.93</v>
+      </c>
       <c r="G75" s="5">
         <v>0.56000000000000005</v>
       </c>
@@ -5084,7 +5130,9 @@
       <c r="E76" s="5">
         <v>0</v>
       </c>
-      <c r="F76" s="5"/>
+      <c r="F76" s="5">
+        <v>0</v>
+      </c>
       <c r="G76" s="5">
         <v>0</v>
       </c>
@@ -5117,7 +5165,9 @@
       <c r="E77" s="5">
         <v>0.92</v>
       </c>
-      <c r="F77" s="5"/>
+      <c r="F77" s="5">
+        <v>0.93</v>
+      </c>
       <c r="G77" s="5">
         <v>0.61</v>
       </c>
@@ -5150,7 +5200,9 @@
       <c r="E78" s="5">
         <v>0.96</v>
       </c>
-      <c r="F78" s="5"/>
+      <c r="F78" s="5">
+        <v>1</v>
+      </c>
       <c r="G78" s="5">
         <v>0.81</v>
       </c>
@@ -5183,7 +5235,9 @@
       <c r="E79" s="5">
         <v>0.96</v>
       </c>
-      <c r="F79" s="5"/>
+      <c r="F79" s="5">
+        <v>0.85</v>
+      </c>
       <c r="G79" s="5">
         <v>0</v>
       </c>
@@ -5216,7 +5270,9 @@
       <c r="E80" s="5">
         <v>0.81</v>
       </c>
-      <c r="F80" s="5"/>
+      <c r="F80" s="5">
+        <v>0.93</v>
+      </c>
       <c r="G80" s="5">
         <v>0</v>
       </c>
@@ -5249,7 +5305,9 @@
       <c r="E81" s="5">
         <v>0.92</v>
       </c>
-      <c r="F81" s="5"/>
+      <c r="F81" s="5">
+        <v>0.96</v>
+      </c>
       <c r="G81" s="5">
         <v>0.74</v>
       </c>
@@ -5282,7 +5340,9 @@
       <c r="E82" s="5">
         <v>0.92</v>
       </c>
-      <c r="F82" s="5"/>
+      <c r="F82" s="5">
+        <v>0.96</v>
+      </c>
       <c r="G82" s="5">
         <v>0.53</v>
       </c>
@@ -5315,7 +5375,9 @@
       <c r="E83" s="5">
         <v>0.96</v>
       </c>
-      <c r="F83" s="5"/>
+      <c r="F83" s="5">
+        <v>0</v>
+      </c>
       <c r="G83" s="5">
         <v>0.69</v>
       </c>
@@ -5348,7 +5410,9 @@
       <c r="E84" s="5">
         <v>0.88</v>
       </c>
-      <c r="F84" s="5"/>
+      <c r="F84" s="5">
+        <v>1</v>
+      </c>
       <c r="G84" s="5">
         <v>0.73</v>
       </c>
@@ -5381,7 +5445,9 @@
       <c r="E85" s="5">
         <v>1</v>
       </c>
-      <c r="F85" s="5"/>
+      <c r="F85" s="5">
+        <v>0</v>
+      </c>
       <c r="G85" s="5">
         <v>0.77</v>
       </c>
@@ -5414,7 +5480,9 @@
       <c r="E86" s="5">
         <v>0.92</v>
       </c>
-      <c r="F86" s="5"/>
+      <c r="F86" s="5">
+        <v>0.96</v>
+      </c>
       <c r="G86" s="5">
         <v>0.71</v>
       </c>
@@ -5447,7 +5515,9 @@
       <c r="E87" s="5">
         <v>0</v>
       </c>
-      <c r="F87" s="5"/>
+      <c r="F87" s="5">
+        <v>0</v>
+      </c>
       <c r="G87" s="5">
         <v>0</v>
       </c>
@@ -5480,7 +5550,9 @@
       <c r="E88" s="5">
         <v>0.92</v>
       </c>
-      <c r="F88" s="5"/>
+      <c r="F88" s="5">
+        <v>0.93</v>
+      </c>
       <c r="G88" s="5">
         <v>0.19</v>
       </c>
@@ -5513,7 +5585,9 @@
       <c r="E89" s="5">
         <v>0</v>
       </c>
-      <c r="F89" s="5"/>
+      <c r="F89" s="5">
+        <v>0</v>
+      </c>
       <c r="G89" s="5">
         <v>0</v>
       </c>
@@ -5546,7 +5620,9 @@
       <c r="E90" s="5">
         <v>0</v>
       </c>
-      <c r="F90" s="5"/>
+      <c r="F90" s="5">
+        <v>0</v>
+      </c>
       <c r="G90" s="5">
         <v>0.65</v>
       </c>
@@ -5579,7 +5655,9 @@
       <c r="E91" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F91" s="5"/>
+      <c r="F91" s="5">
+        <v>0.7</v>
+      </c>
       <c r="G91" s="5">
         <v>0</v>
       </c>
@@ -5612,7 +5690,9 @@
       <c r="E92" s="7">
         <v>1</v>
       </c>
-      <c r="F92" s="7"/>
+      <c r="F92" s="7">
+        <v>0</v>
+      </c>
       <c r="G92" s="7">
         <v>0.68</v>
       </c>
@@ -5645,7 +5725,9 @@
       <c r="E93" s="7">
         <v>0.69</v>
       </c>
-      <c r="F93" s="7"/>
+      <c r="F93" s="7">
+        <v>0.81</v>
+      </c>
       <c r="G93" s="7">
         <v>0.55000000000000004</v>
       </c>
@@ -5678,7 +5760,9 @@
       <c r="E94" s="7">
         <v>1</v>
       </c>
-      <c r="F94" s="7"/>
+      <c r="F94" s="7">
+        <v>0</v>
+      </c>
       <c r="G94" s="7">
         <v>0.52</v>
       </c>
@@ -5711,7 +5795,9 @@
       <c r="E95" s="9">
         <v>1</v>
       </c>
-      <c r="F95" s="9"/>
+      <c r="F95" s="9">
+        <v>1</v>
+      </c>
       <c r="G95" s="9">
         <v>0.84</v>
       </c>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F0F0A4-E29D-2E44-9659-43D4B6EB25E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CB9D91-9213-B34B-AAA1-4202F147AC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="680" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2567,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="5">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="G90" s="5">
         <v>0.65</v>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CB9D91-9213-B34B-AAA1-4202F147AC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09436D1-AA0D-184F-B157-0DF136360E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="680" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2567,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A67" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2644,7 +2644,9 @@
       <c r="E2" s="3">
         <v>0.91</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3">
+        <v>0.95</v>
+      </c>
       <c r="G2" s="3">
         <v>0.34</v>
       </c>
@@ -2677,7 +2679,9 @@
       <c r="E3" s="5">
         <v>0.94</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
       <c r="G3" s="5">
         <v>0.28000000000000003</v>
       </c>
@@ -2710,7 +2714,9 @@
       <c r="E4" s="5">
         <v>0.91</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5">
+        <v>0.89</v>
+      </c>
       <c r="G4" s="5">
         <v>0</v>
       </c>
@@ -2743,7 +2749,9 @@
       <c r="E5" s="5">
         <v>0.6</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
       <c r="G5" s="5">
         <v>0.47</v>
       </c>
@@ -2776,7 +2784,9 @@
       <c r="E6" s="5">
         <v>0.91</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5">
+        <v>0.74</v>
+      </c>
       <c r="G6" s="5">
         <v>0.38</v>
       </c>
@@ -2809,7 +2819,9 @@
       <c r="E7" s="5">
         <v>0.94</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5">
+        <v>0.84</v>
+      </c>
       <c r="G7" s="5">
         <v>0.45</v>
       </c>
@@ -2842,7 +2854,9 @@
       <c r="E8" s="5">
         <v>0.79</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
       <c r="G8" s="5">
         <v>0.26</v>
       </c>
@@ -2875,7 +2889,9 @@
       <c r="E9" s="5">
         <v>0.47</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5">
+        <v>0.89</v>
+      </c>
       <c r="G9" s="5">
         <v>0.34</v>
       </c>
@@ -2908,7 +2924,9 @@
       <c r="E10" s="5">
         <v>0.94</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5">
+        <v>0.79</v>
+      </c>
       <c r="G10" s="5">
         <v>0.38</v>
       </c>
@@ -2941,7 +2959,9 @@
       <c r="E11" s="5">
         <v>0.91</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5">
+        <v>0.74</v>
+      </c>
       <c r="G11" s="5">
         <v>0.19</v>
       </c>
@@ -2974,7 +2994,9 @@
       <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
       <c r="G12" s="5">
         <v>0.38</v>
       </c>
@@ -3007,7 +3029,9 @@
       <c r="E13" s="5">
         <v>0.53</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
       <c r="G13" s="5">
         <v>0.47</v>
       </c>
@@ -3040,7 +3064,9 @@
       <c r="E14" s="5">
         <v>0.91</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5">
+        <v>0.89</v>
+      </c>
       <c r="G14" s="5">
         <v>0.32</v>
       </c>
@@ -3073,7 +3099,9 @@
       <c r="E15" s="5">
         <v>0.91</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="5">
+        <v>0.74</v>
+      </c>
       <c r="G15" s="5">
         <v>0.38</v>
       </c>
@@ -3106,7 +3134,9 @@
       <c r="E16" s="5">
         <v>0.94</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5">
+        <v>0.89</v>
+      </c>
       <c r="G16" s="5">
         <v>0.34</v>
       </c>
@@ -3139,7 +3169,9 @@
       <c r="E17" s="5">
         <v>1</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="5">
+        <v>0.95</v>
+      </c>
       <c r="G17" s="5">
         <v>0.68</v>
       </c>
@@ -3170,7 +3202,9 @@
       <c r="E18" s="13">
         <v>0.74</v>
       </c>
-      <c r="F18" s="13"/>
+      <c r="F18" s="13">
+        <v>0.84</v>
+      </c>
       <c r="G18" s="13">
         <v>0</v>
       </c>
@@ -3203,7 +3237,9 @@
       <c r="E19" s="5">
         <v>0.94</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5">
+        <v>0.79</v>
+      </c>
       <c r="G19" s="5">
         <v>0.72</v>
       </c>
@@ -3236,7 +3272,9 @@
       <c r="E20" s="5">
         <v>1</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5">
+        <v>0.95</v>
+      </c>
       <c r="G20" s="5">
         <v>0.64</v>
       </c>
@@ -3269,7 +3307,9 @@
       <c r="E21" s="5">
         <v>1</v>
       </c>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5">
+        <v>0.95</v>
+      </c>
       <c r="G21" s="5">
         <v>0.28000000000000003</v>
       </c>
@@ -3302,7 +3342,9 @@
       <c r="E22" s="5">
         <v>0</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
       <c r="G22" s="5">
         <v>0</v>
       </c>
@@ -3335,7 +3377,9 @@
       <c r="E23" s="5">
         <v>1</v>
       </c>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5">
+        <v>0.95</v>
+      </c>
       <c r="G23" s="5">
         <v>0.62</v>
       </c>
@@ -3368,7 +3412,9 @@
       <c r="E24" s="5">
         <v>0</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
       <c r="G24" s="5">
         <v>0.04</v>
       </c>
@@ -3401,7 +3447,9 @@
       <c r="E25" s="5">
         <v>0.91</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
       <c r="G25" s="5">
         <v>0.49</v>
       </c>
@@ -3434,7 +3482,9 @@
       <c r="E26" s="5">
         <v>0.68</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
       <c r="G26" s="5">
         <v>0.36</v>
       </c>
@@ -3467,7 +3517,9 @@
       <c r="E27" s="5">
         <v>0.91</v>
       </c>
-      <c r="F27" s="5"/>
+      <c r="F27" s="5">
+        <v>0.95</v>
+      </c>
       <c r="G27" s="5">
         <v>0.55000000000000004</v>
       </c>
@@ -3500,7 +3552,9 @@
       <c r="E28" s="5">
         <v>1</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="5">
+        <v>0.89</v>
+      </c>
       <c r="G28" s="5">
         <v>0.43</v>
       </c>
@@ -3533,7 +3587,9 @@
       <c r="E29" s="5">
         <v>0.81</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="5">
+        <v>0.95</v>
+      </c>
       <c r="G29" s="5">
         <v>0.19</v>
       </c>
@@ -3566,7 +3622,9 @@
       <c r="E30" s="5">
         <v>1</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
       <c r="G30" s="5">
         <v>0.62</v>
       </c>
@@ -3599,7 +3657,9 @@
       <c r="E31" s="5">
         <v>0.91</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="5">
+        <v>0.84</v>
+      </c>
       <c r="G31" s="5">
         <v>0.47</v>
       </c>
@@ -3632,7 +3692,9 @@
       <c r="E32" s="5">
         <v>0.94</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
       <c r="G32" s="5">
         <v>0.28000000000000003</v>
       </c>
@@ -3665,7 +3727,9 @@
       <c r="E33" s="5">
         <v>0.43</v>
       </c>
-      <c r="F33" s="5"/>
+      <c r="F33" s="5">
+        <v>0.79</v>
+      </c>
       <c r="G33" s="5">
         <v>0.09</v>
       </c>
@@ -3698,7 +3762,9 @@
       <c r="E34" s="5">
         <v>1</v>
       </c>
-      <c r="F34" s="5"/>
+      <c r="F34" s="5">
+        <v>0.79</v>
+      </c>
       <c r="G34" s="5">
         <v>0.06</v>
       </c>
@@ -3731,7 +3797,9 @@
       <c r="E35" s="5">
         <v>1</v>
       </c>
-      <c r="F35" s="5"/>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
       <c r="G35" s="5">
         <v>0.47</v>
       </c>
@@ -3764,7 +3832,9 @@
       <c r="E36" s="5">
         <v>1</v>
       </c>
-      <c r="F36" s="5"/>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
       <c r="G36" s="5">
         <v>0.13</v>
       </c>
@@ -3797,7 +3867,9 @@
       <c r="E37" s="13">
         <v>0.74</v>
       </c>
-      <c r="F37" s="13"/>
+      <c r="F37" s="13">
+        <v>0.74</v>
+      </c>
       <c r="G37" s="13">
         <v>0</v>
       </c>
@@ -3830,7 +3902,9 @@
       <c r="E38" s="5">
         <v>1</v>
       </c>
-      <c r="F38" s="5"/>
+      <c r="F38" s="5">
+        <v>0.95</v>
+      </c>
       <c r="G38" s="5">
         <v>0.36</v>
       </c>
@@ -3863,7 +3937,9 @@
       <c r="E39" s="5">
         <v>0.66</v>
       </c>
-      <c r="F39" s="5"/>
+      <c r="F39" s="5">
+        <v>0.84</v>
+      </c>
       <c r="G39" s="5">
         <v>0.21</v>
       </c>
@@ -3896,7 +3972,9 @@
       <c r="E40" s="5">
         <v>1</v>
       </c>
-      <c r="F40" s="5"/>
+      <c r="F40" s="5">
+        <v>0.79</v>
+      </c>
       <c r="G40" s="5">
         <v>0.55000000000000004</v>
       </c>
@@ -3929,7 +4007,9 @@
       <c r="E41" s="5">
         <v>0</v>
       </c>
-      <c r="F41" s="5"/>
+      <c r="F41" s="5">
+        <v>0.89</v>
+      </c>
       <c r="G41" s="5">
         <v>0.23</v>
       </c>
@@ -3962,7 +4042,9 @@
       <c r="E42" s="5">
         <v>0.72</v>
       </c>
-      <c r="F42" s="5"/>
+      <c r="F42" s="5">
+        <v>0.89</v>
+      </c>
       <c r="G42" s="5">
         <v>0.43</v>
       </c>
@@ -3995,7 +4077,9 @@
       <c r="E43" s="11">
         <v>0.91</v>
       </c>
-      <c r="F43" s="11"/>
+      <c r="F43" s="11">
+        <v>0</v>
+      </c>
       <c r="G43" s="5">
         <v>0</v>
       </c>
@@ -4028,7 +4112,9 @@
       <c r="E44" s="5">
         <v>0.4</v>
       </c>
-      <c r="F44" s="5"/>
+      <c r="F44" s="5">
+        <v>0.89</v>
+      </c>
       <c r="G44" s="5">
         <v>0.51</v>
       </c>
@@ -4061,7 +4147,9 @@
       <c r="E45" s="5">
         <v>0.66</v>
       </c>
-      <c r="F45" s="5"/>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
       <c r="G45" s="5">
         <v>0</v>
       </c>
@@ -4094,7 +4182,9 @@
       <c r="E46" s="5">
         <v>1</v>
       </c>
-      <c r="F46" s="5"/>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
       <c r="G46" s="5">
         <v>0.26</v>
       </c>
@@ -4127,7 +4217,9 @@
       <c r="E47" s="5">
         <v>0.3</v>
       </c>
-      <c r="F47" s="5"/>
+      <c r="F47" s="5">
+        <v>1</v>
+      </c>
       <c r="G47" s="5">
         <v>0.34</v>
       </c>
@@ -4160,7 +4252,9 @@
       <c r="E48" s="5">
         <v>1</v>
       </c>
-      <c r="F48" s="5"/>
+      <c r="F48" s="5">
+        <v>0.95</v>
+      </c>
       <c r="G48" s="5">
         <v>0.36</v>
       </c>
@@ -4193,7 +4287,9 @@
       <c r="E49" s="5">
         <v>0.91</v>
       </c>
-      <c r="F49" s="5"/>
+      <c r="F49" s="5">
+        <v>0.84</v>
+      </c>
       <c r="G49" s="5">
         <v>0.11</v>
       </c>
@@ -4226,7 +4322,9 @@
       <c r="E50" s="5">
         <v>1</v>
       </c>
-      <c r="F50" s="5"/>
+      <c r="F50" s="5">
+        <v>0.84</v>
+      </c>
       <c r="G50" s="5">
         <v>0.3</v>
       </c>
@@ -4259,7 +4357,9 @@
       <c r="E51" s="5">
         <v>0.81</v>
       </c>
-      <c r="F51" s="5"/>
+      <c r="F51" s="5">
+        <v>0.95</v>
+      </c>
       <c r="G51" s="5">
         <v>0.69</v>
       </c>
@@ -4292,7 +4392,9 @@
       <c r="E52" s="5">
         <v>0.87</v>
       </c>
-      <c r="F52" s="5"/>
+      <c r="F52" s="5">
+        <v>1</v>
+      </c>
       <c r="G52" s="5">
         <v>0.32</v>
       </c>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09436D1-AA0D-184F-B157-0DF136360E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C41A78F-4E5D-1C4F-A640-F5E621B49963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="680" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1512,9 +1512,9 @@
     <tableColumn id="8" xr3:uid="{99D84DCE-7040-C54F-8C73-B2AB39CAB36C}" name="Test_2" dataDxfId="5"/>
     <tableColumn id="9" xr3:uid="{87033C86-6194-A341-9E8E-123C36BF91AE}" name="Test_3" dataDxfId="4"/>
     <tableColumn id="10" xr3:uid="{07C69C5C-5C64-A249-BACD-8290E9A17F3A}" name="AS_1" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{C7AA010D-240A-9045-96E7-67319A9D8BEE}" name="AS_2" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{8B47A38A-88F2-5E4C-BC4B-4A7E3733A68C}" name="AS_3" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{791909E3-DD60-2844-A81E-180A04C85B15}" name="CW" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{C7AA010D-240A-9045-96E7-67319A9D8BEE}" name="AS_2" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{8B47A38A-88F2-5E4C-BC4B-4A7E3733A68C}" name="AS_3" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{791909E3-DD60-2844-A81E-180A04C85B15}" name="CW" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2567,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -4757,7 +4757,9 @@
       <c r="J62" s="5">
         <v>0</v>
       </c>
-      <c r="K62" s="5"/>
+      <c r="K62" s="5">
+        <v>0.66</v>
+      </c>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
@@ -5072,7 +5074,9 @@
       <c r="J71" s="5">
         <v>0</v>
       </c>
-      <c r="K71" s="5"/>
+      <c r="K71" s="5">
+        <v>0.71</v>
+      </c>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
     </row>
@@ -5142,7 +5146,9 @@
       <c r="J73" s="5">
         <v>0.63</v>
       </c>
-      <c r="K73" s="5"/>
+      <c r="K73" s="5">
+        <v>0.77</v>
+      </c>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
     </row>
@@ -5352,7 +5358,9 @@
       <c r="J79" s="5">
         <v>0.71</v>
       </c>
-      <c r="K79" s="5"/>
+      <c r="K79" s="5">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
     </row>
@@ -5877,7 +5885,9 @@
       <c r="J94" s="5">
         <v>0.42</v>
       </c>
-      <c r="K94" s="5"/>
+      <c r="K94" s="5">
+        <v>0.63</v>
+      </c>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
     </row>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C41A78F-4E5D-1C4F-A640-F5E621B49963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C486ED-8751-984F-B572-8B4ABC5C4D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="680" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2567,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A51" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -4582,7 +4582,9 @@
       <c r="J57" s="5">
         <v>0.63</v>
       </c>
-      <c r="K57" s="5"/>
+      <c r="K57" s="5">
+        <v>0.63</v>
+      </c>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
     </row>
@@ -4617,7 +4619,9 @@
       <c r="J58" s="5">
         <v>0.79</v>
       </c>
-      <c r="K58" s="5"/>
+      <c r="K58" s="5">
+        <v>0.54</v>
+      </c>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
     </row>
@@ -4652,7 +4656,9 @@
       <c r="J59" s="5">
         <v>0.79</v>
       </c>
-      <c r="K59" s="5"/>
+      <c r="K59" s="5">
+        <v>0.66</v>
+      </c>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
@@ -4829,7 +4835,9 @@
       <c r="J64" s="5">
         <v>0.46</v>
       </c>
-      <c r="K64" s="5"/>
+      <c r="K64" s="5">
+        <v>0.49</v>
+      </c>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
     </row>
@@ -4864,7 +4872,9 @@
       <c r="J65" s="5">
         <v>0.38</v>
       </c>
-      <c r="K65" s="5"/>
+      <c r="K65" s="5">
+        <v>0.63</v>
+      </c>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
     </row>
@@ -4934,7 +4944,9 @@
       <c r="J67" s="5">
         <v>0.63</v>
       </c>
-      <c r="K67" s="5"/>
+      <c r="K67" s="5">
+        <v>0.74</v>
+      </c>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
     </row>
@@ -5183,7 +5195,9 @@
       <c r="J74" s="5">
         <v>0.5</v>
       </c>
-      <c r="K74" s="5"/>
+      <c r="K74" s="5">
+        <v>0.77</v>
+      </c>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
     </row>
@@ -5218,7 +5232,9 @@
       <c r="J75" s="5">
         <v>0.67</v>
       </c>
-      <c r="K75" s="5"/>
+      <c r="K75" s="5">
+        <v>0.54</v>
+      </c>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
     </row>
@@ -5570,7 +5586,9 @@
       <c r="J85" s="5">
         <v>0.88</v>
       </c>
-      <c r="K85" s="5"/>
+      <c r="K85" s="5">
+        <v>0.91</v>
+      </c>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
     </row>
@@ -5675,7 +5693,9 @@
       <c r="J88" s="5">
         <v>0.46</v>
       </c>
-      <c r="K88" s="5"/>
+      <c r="K88" s="5">
+        <v>0.77</v>
+      </c>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
     </row>
@@ -5850,7 +5870,9 @@
       <c r="J93" s="5">
         <v>0.63</v>
       </c>
-      <c r="K93" s="5"/>
+      <c r="K93" s="5">
+        <v>0.66</v>
+      </c>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
     </row>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C486ED-8751-984F-B572-8B4ABC5C4D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC625B3-3E71-1D43-8451-2A0A5977E555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="680" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2567,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -4442,7 +4442,9 @@
       <c r="J53" s="5">
         <v>0.83</v>
       </c>
-      <c r="K53" s="5"/>
+      <c r="K53" s="5">
+        <v>0.83</v>
+      </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
     </row>
@@ -4477,7 +4479,9 @@
       <c r="J54" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K54" s="5"/>
+      <c r="K54" s="5">
+        <v>0.43</v>
+      </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
     </row>
@@ -4512,7 +4516,9 @@
       <c r="J55" s="5">
         <v>0.63</v>
       </c>
-      <c r="K55" s="5"/>
+      <c r="K55" s="5">
+        <v>0.74</v>
+      </c>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
     </row>
@@ -4547,7 +4553,9 @@
       <c r="J56" s="5">
         <v>0</v>
       </c>
-      <c r="K56" s="5"/>
+      <c r="K56" s="5">
+        <v>0.74</v>
+      </c>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
     </row>
@@ -4693,7 +4701,9 @@
       <c r="J60" s="5">
         <v>0.79</v>
       </c>
-      <c r="K60" s="5"/>
+      <c r="K60" s="5">
+        <v>0.71</v>
+      </c>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
     </row>
@@ -4728,7 +4738,9 @@
       <c r="J61" s="5">
         <v>0.92</v>
       </c>
-      <c r="K61" s="5"/>
+      <c r="K61" s="5">
+        <v>0</v>
+      </c>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
     </row>
@@ -4800,7 +4812,9 @@
       <c r="J63" s="5">
         <v>0.67</v>
       </c>
-      <c r="K63" s="5"/>
+      <c r="K63" s="5">
+        <v>0.74</v>
+      </c>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
     </row>
@@ -4909,7 +4923,9 @@
       <c r="J66" s="5">
         <v>0.88</v>
       </c>
-      <c r="K66" s="5"/>
+      <c r="K66" s="5">
+        <v>0.69</v>
+      </c>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
     </row>
@@ -4981,7 +4997,9 @@
       <c r="J68" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K68" s="5"/>
+      <c r="K68" s="5">
+        <v>0.77</v>
+      </c>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
     </row>
@@ -5016,7 +5034,9 @@
       <c r="J69" s="5">
         <v>0.75</v>
       </c>
-      <c r="K69" s="5"/>
+      <c r="K69" s="5">
+        <v>0.51</v>
+      </c>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
     </row>
@@ -5051,7 +5071,9 @@
       <c r="J70" s="5">
         <v>0</v>
       </c>
-      <c r="K70" s="5"/>
+      <c r="K70" s="5">
+        <v>0.46</v>
+      </c>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
     </row>
@@ -5123,7 +5145,9 @@
       <c r="J72" s="5">
         <v>0.54</v>
       </c>
-      <c r="K72" s="5"/>
+      <c r="K72" s="5">
+        <v>0.37</v>
+      </c>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
     </row>
@@ -5269,7 +5293,9 @@
       <c r="J76" s="5">
         <v>0</v>
       </c>
-      <c r="K76" s="5"/>
+      <c r="K76" s="5">
+        <v>0</v>
+      </c>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
     </row>
@@ -5304,7 +5330,9 @@
       <c r="J77" s="5">
         <v>0.54</v>
       </c>
-      <c r="K77" s="5"/>
+      <c r="K77" s="5">
+        <v>0.6</v>
+      </c>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
@@ -5339,7 +5367,9 @@
       <c r="J78" s="5">
         <v>0.71</v>
       </c>
-      <c r="K78" s="5"/>
+      <c r="K78" s="5">
+        <v>0.63</v>
+      </c>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
     </row>
@@ -5411,7 +5441,9 @@
       <c r="J80" s="5">
         <v>0.67</v>
       </c>
-      <c r="K80" s="5"/>
+      <c r="K80" s="5">
+        <v>0.71</v>
+      </c>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
     </row>
@@ -5446,7 +5478,9 @@
       <c r="J81" s="5">
         <v>0.83</v>
       </c>
-      <c r="K81" s="5"/>
+      <c r="K81" s="5">
+        <v>0.71</v>
+      </c>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
     </row>
@@ -5481,7 +5515,9 @@
       <c r="J82" s="5">
         <v>0.83</v>
       </c>
-      <c r="K82" s="5"/>
+      <c r="K82" s="5">
+        <v>0.71</v>
+      </c>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
     </row>
@@ -5516,7 +5552,9 @@
       <c r="J83" s="5">
         <v>0.63</v>
       </c>
-      <c r="K83" s="5"/>
+      <c r="K83" s="5">
+        <v>0.74</v>
+      </c>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
     </row>
@@ -5551,7 +5589,9 @@
       <c r="J84" s="5">
         <v>0.54</v>
       </c>
-      <c r="K84" s="5"/>
+      <c r="K84" s="5">
+        <v>0.77</v>
+      </c>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
     </row>
@@ -5623,7 +5663,9 @@
       <c r="J86" s="5">
         <v>0.46</v>
       </c>
-      <c r="K86" s="5"/>
+      <c r="K86" s="5">
+        <v>0.54</v>
+      </c>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
     </row>
@@ -5658,7 +5700,9 @@
       <c r="J87" s="5">
         <v>0</v>
       </c>
-      <c r="K87" s="5"/>
+      <c r="K87" s="5">
+        <v>0</v>
+      </c>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
     </row>
@@ -5730,7 +5774,9 @@
       <c r="J89" s="5">
         <v>0</v>
       </c>
-      <c r="K89" s="5"/>
+      <c r="K89" s="5">
+        <v>0</v>
+      </c>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
@@ -5765,7 +5811,9 @@
       <c r="J90" s="5">
         <v>0.79</v>
       </c>
-      <c r="K90" s="5"/>
+      <c r="K90" s="5">
+        <v>0.86</v>
+      </c>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
     </row>
@@ -5800,7 +5848,9 @@
       <c r="J91" s="5">
         <v>0.46</v>
       </c>
-      <c r="K91" s="5"/>
+      <c r="K91" s="5">
+        <v>0</v>
+      </c>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
     </row>
@@ -5835,7 +5885,9 @@
       <c r="J92" s="5">
         <v>0.54</v>
       </c>
-      <c r="K92" s="5"/>
+      <c r="K92" s="5">
+        <v>0.63</v>
+      </c>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
     </row>
@@ -5944,7 +5996,9 @@
       <c r="J95" s="12">
         <v>0.83</v>
       </c>
-      <c r="K95" s="12"/>
+      <c r="K95" s="12">
+        <v>0.66</v>
+      </c>
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
     </row>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC625B3-3E71-1D43-8451-2A0A5977E555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC54D173-B68C-164B-B28B-2BC106A8E7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="680" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2567,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A76" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2729,7 +2729,9 @@
       <c r="J4" s="5">
         <v>0.77</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="5">
+        <v>0.69</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
@@ -2869,7 +2871,9 @@
       <c r="J8" s="5">
         <v>0.95</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="5">
+        <v>0.75</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
@@ -2939,7 +2943,9 @@
       <c r="J10" s="5">
         <v>0.59</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="5">
+        <v>0.52</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
@@ -3044,7 +3050,9 @@
       <c r="J13" s="5">
         <v>0.61</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="5">
+        <v>0.67</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
@@ -3252,7 +3260,9 @@
       <c r="J19" s="5">
         <v>0.7</v>
       </c>
-      <c r="K19" s="5"/>
+      <c r="K19" s="5">
+        <v>0.69</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
@@ -3567,7 +3577,9 @@
       <c r="J28" s="5">
         <v>0.64</v>
       </c>
-      <c r="K28" s="5"/>
+      <c r="K28" s="5">
+        <v>0.77</v>
+      </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
@@ -3672,7 +3684,9 @@
       <c r="J31" s="5">
         <v>0.7</v>
       </c>
-      <c r="K31" s="5"/>
+      <c r="K31" s="5">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
@@ -3882,7 +3896,9 @@
       <c r="J37" s="13">
         <v>0.27</v>
       </c>
-      <c r="K37" s="13"/>
+      <c r="K37" s="13">
+        <v>0.35</v>
+      </c>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
     </row>
@@ -4127,7 +4143,9 @@
       <c r="J44" s="5">
         <v>0.73</v>
       </c>
-      <c r="K44" s="5"/>
+      <c r="K44" s="5">
+        <v>0.67</v>
+      </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
@@ -4302,7 +4320,9 @@
       <c r="J49" s="5">
         <v>0.7</v>
       </c>
-      <c r="K49" s="5"/>
+      <c r="K49" s="5">
+        <v>0.73</v>
+      </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
     </row>
@@ -4372,7 +4392,9 @@
       <c r="J51" s="5">
         <v>0.45</v>
       </c>
-      <c r="K51" s="5"/>
+      <c r="K51" s="5">
+        <v>0.71</v>
+      </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
     </row>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC54D173-B68C-164B-B28B-2BC106A8E7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14A8BAE-D3D1-A24B-BC16-B4D09861C31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="680" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14A8BAE-D3D1-A24B-BC16-B4D09861C31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5839036-13C1-1B47-8223-5BB3D43452F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="680" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2567,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2659,7 +2659,9 @@
       <c r="J2" s="3">
         <v>0.64</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="3">
+        <v>0.73</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
@@ -2836,7 +2838,9 @@
       <c r="J7" s="5">
         <v>0.86</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="5">
+        <v>0.54</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
@@ -2908,7 +2912,9 @@
       <c r="J9" s="5">
         <v>0.64</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="5">
+        <v>0.6</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
@@ -3192,7 +3198,9 @@
       <c r="J17" s="5">
         <v>0.8</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="K17" s="5">
+        <v>0.69</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
@@ -3225,7 +3233,9 @@
       <c r="J18" s="13">
         <v>0.59</v>
       </c>
-      <c r="K18" s="13"/>
+      <c r="K18" s="13">
+        <v>0.52</v>
+      </c>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
     </row>
@@ -3332,7 +3342,9 @@
       <c r="J21" s="5">
         <v>0.3</v>
       </c>
-      <c r="K21" s="5"/>
+      <c r="K21" s="5">
+        <v>0.69</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
@@ -3402,7 +3414,9 @@
       <c r="J23" s="5">
         <v>0.77</v>
       </c>
-      <c r="K23" s="5"/>
+      <c r="K23" s="5">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
@@ -3542,7 +3556,9 @@
       <c r="J27" s="5">
         <v>0.84</v>
       </c>
-      <c r="K27" s="5"/>
+      <c r="K27" s="5">
+        <v>0.63</v>
+      </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
@@ -3826,7 +3842,9 @@
       <c r="J35" s="5">
         <v>0.68</v>
       </c>
-      <c r="K35" s="5"/>
+      <c r="K35" s="5">
+        <v>0.79</v>
+      </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
@@ -3861,7 +3879,9 @@
       <c r="J36" s="5">
         <v>0.45</v>
       </c>
-      <c r="K36" s="5"/>
+      <c r="K36" s="5">
+        <v>0.6</v>
+      </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
@@ -4180,7 +4200,9 @@
       <c r="J45" s="5">
         <v>0.82</v>
       </c>
-      <c r="K45" s="5"/>
+      <c r="K45" s="5">
+        <v>0.71</v>
+      </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
@@ -4215,7 +4237,9 @@
       <c r="J46" s="5">
         <v>0.68</v>
       </c>
-      <c r="K46" s="5"/>
+      <c r="K46" s="5">
+        <v>0.69</v>
+      </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
@@ -4285,7 +4309,9 @@
       <c r="J48" s="5">
         <v>0.77</v>
       </c>
-      <c r="K48" s="5"/>
+      <c r="K48" s="5">
+        <v>0.75</v>
+      </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
     </row>
@@ -4429,7 +4455,9 @@
       <c r="J52" s="5">
         <v>0.86</v>
       </c>
-      <c r="K52" s="5"/>
+      <c r="K52" s="5">
+        <v>0.77</v>
+      </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5839036-13C1-1B47-8223-5BB3D43452F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61AB284-9358-2D46-A7F5-9CF3E05C8E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="680" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2567,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2696,7 +2696,9 @@
       <c r="J3" s="5">
         <v>0.8</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
@@ -2768,7 +2770,9 @@
       <c r="J5" s="5">
         <v>0.73</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="5">
+        <v>0.69</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
@@ -2803,7 +2807,9 @@
       <c r="J6" s="5">
         <v>0.48</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
@@ -2986,7 +2992,9 @@
       <c r="J11" s="5">
         <v>0.77</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
@@ -3021,7 +3029,9 @@
       <c r="J12" s="5">
         <v>0.86</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="5">
+        <v>0.73</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
@@ -3093,7 +3103,9 @@
       <c r="J14" s="5">
         <v>0.59</v>
       </c>
-      <c r="K14" s="5"/>
+      <c r="K14" s="5">
+        <v>0.6</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
@@ -3128,7 +3140,9 @@
       <c r="J15" s="5">
         <v>0.75</v>
       </c>
-      <c r="K15" s="5"/>
+      <c r="K15" s="5">
+        <v>0.71</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
@@ -3163,7 +3177,9 @@
       <c r="J16" s="5">
         <v>0.82</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="5">
+        <v>0.85</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
@@ -3307,7 +3323,9 @@
       <c r="J20" s="5">
         <v>0.86</v>
       </c>
-      <c r="K20" s="5"/>
+      <c r="K20" s="5">
+        <v>0.85</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
@@ -3379,7 +3397,9 @@
       <c r="J22" s="5">
         <v>0</v>
       </c>
-      <c r="K22" s="5"/>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
@@ -3451,7 +3471,9 @@
       <c r="J24" s="5">
         <v>0</v>
       </c>
-      <c r="K24" s="5"/>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
@@ -3486,7 +3508,9 @@
       <c r="J25" s="5">
         <v>0.82</v>
       </c>
-      <c r="K25" s="5"/>
+      <c r="K25" s="5">
+        <v>0.9</v>
+      </c>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
@@ -3521,7 +3545,9 @@
       <c r="J26" s="5">
         <v>0.73</v>
       </c>
-      <c r="K26" s="5"/>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
@@ -3630,7 +3656,9 @@
       <c r="J29" s="5">
         <v>0.68</v>
       </c>
-      <c r="K29" s="5"/>
+      <c r="K29" s="5">
+        <v>0.75</v>
+      </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
     </row>
@@ -3665,7 +3693,9 @@
       <c r="J30" s="5">
         <v>0.86</v>
       </c>
-      <c r="K30" s="5"/>
+      <c r="K30" s="5">
+        <v>0.75</v>
+      </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
     </row>
@@ -3737,7 +3767,9 @@
       <c r="J32" s="5">
         <v>0.73</v>
       </c>
-      <c r="K32" s="5"/>
+      <c r="K32" s="5">
+        <v>0.75</v>
+      </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
@@ -3772,7 +3804,9 @@
       <c r="J33" s="5">
         <v>0.41</v>
       </c>
-      <c r="K33" s="5"/>
+      <c r="K33" s="5">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
     </row>
@@ -3807,7 +3841,9 @@
       <c r="J34" s="5">
         <v>0.61</v>
       </c>
-      <c r="K34" s="5"/>
+      <c r="K34" s="5">
+        <v>0.63</v>
+      </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
@@ -3953,7 +3989,9 @@
       <c r="J38" s="5">
         <v>0.68</v>
       </c>
-      <c r="K38" s="5"/>
+      <c r="K38" s="5">
+        <v>0.75</v>
+      </c>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
@@ -3988,7 +4026,9 @@
       <c r="J39" s="5">
         <v>0</v>
       </c>
-      <c r="K39" s="5"/>
+      <c r="K39" s="5">
+        <v>0.54</v>
+      </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
@@ -4023,7 +4063,9 @@
       <c r="J40" s="5">
         <v>0.82</v>
       </c>
-      <c r="K40" s="5"/>
+      <c r="K40" s="5">
+        <v>0.79</v>
+      </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
@@ -4058,7 +4100,9 @@
       <c r="J41" s="5">
         <v>0.66</v>
       </c>
-      <c r="K41" s="5"/>
+      <c r="K41" s="5">
+        <v>0</v>
+      </c>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
@@ -4093,7 +4137,9 @@
       <c r="J42" s="5">
         <v>0.73</v>
       </c>
-      <c r="K42" s="5"/>
+      <c r="K42" s="5">
+        <v>0.79</v>
+      </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
     </row>
@@ -4128,7 +4174,9 @@
       <c r="J43" s="11">
         <v>0.75</v>
       </c>
-      <c r="K43" s="11"/>
+      <c r="K43" s="11">
+        <v>0.65</v>
+      </c>
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
     </row>
@@ -4274,7 +4322,9 @@
       <c r="J47" s="5">
         <v>0.8</v>
       </c>
-      <c r="K47" s="5"/>
+      <c r="K47" s="5">
+        <v>0.65</v>
+      </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
@@ -4383,7 +4433,9 @@
       <c r="J50" s="5">
         <v>0.82</v>
       </c>
-      <c r="K50" s="5"/>
+      <c r="K50" s="5">
+        <v>0.65</v>
+      </c>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
     </row>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61AB284-9358-2D46-A7F5-9CF3E05C8E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86D5E20-1BB1-E246-81A2-75C27505589D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="680" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -645,7 +645,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -666,6 +666,20 @@
       <sz val="8"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF38761D"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -688,7 +702,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -767,13 +781,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -819,11 +848,20 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="21">
     <dxf>
       <font>
         <b val="0"/>
@@ -840,7 +878,7 @@
         <name val="Times Roman"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -864,6 +902,42 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF38761D"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF38761D"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1496,24 +1570,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E12D2C3A-56FF-EE48-BF21-6E043A7A5D80}" name="Table1" displayName="Table1" ref="A1:M95" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E12D2C3A-56FF-EE48-BF21-6E043A7A5D80}" name="Table1" displayName="Table1" ref="A1:M95" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
   <autoFilter ref="A1:M95" xr:uid="{E12D2C3A-56FF-EE48-BF21-6E043A7A5D80}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M95">
     <sortCondition ref="C1:C95"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{CA68C236-9B81-6943-9124-FCB1EFF82B61}" name="Surname" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{772AD85A-09E9-824D-920B-32ECA0508909}" name="Reg" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{19CF2E5D-B4B7-E04D-8776-FF144460D950}" name="Dept" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{E87336A0-4BDA-FA47-AD74-82EC3F149A91}" name="Quiz_1" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{FAC627FA-AD03-4640-83D5-C316A650FDA0}" name="Quiz_2" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{4BA926F4-730D-824B-8373-6D78B9323821}" name="Quiz_3" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{4BF9782F-8E5B-614A-A28C-A3AF428C2B3B}" name="Test_1" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{99D84DCE-7040-C54F-8C73-B2AB39CAB36C}" name="Test_2" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{87033C86-6194-A341-9E8E-123C36BF91AE}" name="Test_3" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{07C69C5C-5C64-A249-BACD-8290E9A17F3A}" name="AS_1" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{C7AA010D-240A-9045-96E7-67319A9D8BEE}" name="AS_2" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{8B47A38A-88F2-5E4C-BC4B-4A7E3733A68C}" name="AS_3" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{CA68C236-9B81-6943-9124-FCB1EFF82B61}" name="Surname" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{772AD85A-09E9-824D-920B-32ECA0508909}" name="Reg" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{19CF2E5D-B4B7-E04D-8776-FF144460D950}" name="Dept" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{E87336A0-4BDA-FA47-AD74-82EC3F149A91}" name="Quiz_1" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{FAC627FA-AD03-4640-83D5-C316A650FDA0}" name="Quiz_2" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{4BA926F4-730D-824B-8373-6D78B9323821}" name="Quiz_3" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{4BF9782F-8E5B-614A-A28C-A3AF428C2B3B}" name="Test_1" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{99D84DCE-7040-C54F-8C73-B2AB39CAB36C}" name="Test_2" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{87033C86-6194-A341-9E8E-123C36BF91AE}" name="Test_3" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{07C69C5C-5C64-A249-BACD-8290E9A17F3A}" name="AS_1" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{C7AA010D-240A-9045-96E7-67319A9D8BEE}" name="AS_2" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{8B47A38A-88F2-5E4C-BC4B-4A7E3733A68C}" name="AS_3" dataDxfId="5"/>
     <tableColumn id="11" xr3:uid="{791909E3-DD60-2844-A81E-180A04C85B15}" name="CW" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2567,8 +2641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2663,7 +2737,7 @@
         <v>0.73</v>
       </c>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -2736,8 +2810,13 @@
       <c r="K4" s="5">
         <v>0.69</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="L4" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="M4" s="17">
+        <f>(((LARGE(D4:F4,1)+LARGE(D4:F4,2))*0.05+(LARGE(G4:I4,1)+LARGE(G4:I4,2))*0.3+(LARGE(J4:L4,1)+LARGE(J4:L4,2))*0.15))</f>
+        <v>0.63749999999999996</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1">
       <c r="A5" s="4" t="s">
@@ -2810,8 +2889,13 @@
       <c r="K6" s="5">
         <v>0</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <f>(((LARGE(D6:F6,1)+LARGE(D6:F6,2))*0.05+(LARGE(G6:I6,1)+LARGE(G6:I6,2))*0.3+(LARGE(J6:L6,1)+LARGE(J6:L6,2))*0.15))</f>
+        <v>0.58949999999999991</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="s">
@@ -3289,8 +3373,13 @@
       <c r="K19" s="5">
         <v>0.69</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="L19" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="M19" s="17">
+        <f>(((LARGE(D19:F19,1)+LARGE(D19:F19,2))*0.05+(LARGE(G19:I19,1)+LARGE(G19:I19,2))*0.3+(LARGE(J19:L19,1)+LARGE(J19:L19,2))*0.15))</f>
+        <v>0.78999999999999992</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="14.25" customHeight="1">
       <c r="A20" s="4" t="s">
@@ -3363,8 +3452,13 @@
       <c r="K21" s="5">
         <v>0.69</v>
       </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="L21" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="M21" s="17">
+        <f>(((LARGE(D21:F21,1)+LARGE(D21:F21,2))*0.05+(LARGE(G21:I21,1)+LARGE(G21:I21,2))*0.3+(LARGE(J21:L21,1)+LARGE(J21:L21,2))*0.15))</f>
+        <v>0.73799999999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
       <c r="A22" s="4" t="s">
@@ -3733,8 +3827,13 @@
       <c r="K31" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
+      <c r="L31" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="M31" s="17">
+        <f>(((LARGE(D31:F31,1)+LARGE(D31:F31,2))*0.05+(LARGE(G31:I31,1)+LARGE(G31:I31,2))*0.3+(LARGE(J31:L31,1)+LARGE(J31:L31,2))*0.15))</f>
+        <v>0.73849999999999993</v>
+      </c>
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1">
       <c r="A32" s="4" t="s">
@@ -3770,8 +3869,13 @@
       <c r="K32" s="5">
         <v>0.75</v>
       </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
+      <c r="L32" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="M32" s="17">
+        <f>(((LARGE(D32:F32,1)+LARGE(D32:F32,2))*0.05+(LARGE(G32:I32,1)+LARGE(G32:I32,2))*0.3+(LARGE(J32:L32,1)+LARGE(J32:L32,2))*0.15))</f>
+        <v>0.60099999999999998</v>
+      </c>
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1">
       <c r="A33" s="4" t="s">
@@ -3844,8 +3948,13 @@
       <c r="K34" s="5">
         <v>0.63</v>
       </c>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
+      <c r="L34" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="M34" s="17">
+        <f>(((LARGE(D34:F34,1)+LARGE(D34:F34,2))*0.05+(LARGE(G34:I34,1)+LARGE(G34:I34,2))*0.3+(LARGE(J34:L34,1)+LARGE(J34:L34,2))*0.15))</f>
+        <v>0.62949999999999995</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1">
       <c r="A35" s="4" t="s">
@@ -4103,8 +4212,13 @@
       <c r="K41" s="5">
         <v>0</v>
       </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
+      <c r="L41" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="M41" s="17">
+        <f>(((LARGE(D41:F41,1)+LARGE(D41:F41,2))*0.05+(LARGE(G41:I41,1)+LARGE(G41:I41,2))*0.3+(LARGE(J41:L41,1)+LARGE(J41:L41,2))*0.15))</f>
+        <v>0.67249999999999999</v>
+      </c>
     </row>
     <row r="42" spans="1:13" ht="14.25" customHeight="1">
       <c r="A42" s="4" t="s">
@@ -4178,7 +4292,7 @@
         <v>0.65</v>
       </c>
       <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
+      <c r="M43" s="16"/>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1">
       <c r="A44" s="4" t="s">
@@ -4288,8 +4402,13 @@
       <c r="K46" s="5">
         <v>0.69</v>
       </c>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
+      <c r="L46" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="M46" s="17">
+        <f>(((LARGE(D46:F46,1)+LARGE(D46:F46,2))*0.05+(LARGE(G46:I46,1)+LARGE(G46:I46,2))*0.3+(LARGE(J46:L46,1)+LARGE(J46:L46,2))*0.15))</f>
+        <v>0.80049999999999988</v>
+      </c>
     </row>
     <row r="47" spans="1:13" ht="14.25" customHeight="1">
       <c r="A47" s="4" t="s">
@@ -4362,8 +4481,13 @@
       <c r="K48" s="5">
         <v>0.75</v>
       </c>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
+      <c r="L48" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="M48" s="17">
+        <f>(((LARGE(D48:F48,1)+LARGE(D48:F48,2))*0.05+(LARGE(G48:I48,1)+LARGE(G48:I48,2))*0.3+(LARGE(J48:L48,1)+LARGE(J48:L48,2))*0.15))</f>
+        <v>0.82799999999999985</v>
+      </c>
     </row>
     <row r="49" spans="1:13" ht="14.25" customHeight="1">
       <c r="A49" s="4" t="s">
@@ -4436,8 +4560,13 @@
       <c r="K50" s="5">
         <v>0.65</v>
       </c>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
+      <c r="L50" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="M50" s="17">
+        <f>(((LARGE(D50:F50,1)+LARGE(D50:F50,2))*0.05+(LARGE(G50:I50,1)+LARGE(G50:I50,2))*0.3+(LARGE(J50:L50,1)+LARGE(J50:L50,2))*0.15))</f>
+        <v>0.78349999999999997</v>
+      </c>
     </row>
     <row r="51" spans="1:13" ht="14.25" customHeight="1">
       <c r="A51" s="4" t="s">
@@ -6106,6 +6235,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="M2">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+      <formula>49.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
+      <formula>74.5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86D5E20-1BB1-E246-81A2-75C27505589D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D63CC61-11C4-4647-9725-32D6A0EF8D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="680" windowWidth="21820" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="680" windowWidth="29660" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -645,7 +645,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -671,13 +671,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF38761D"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Georgia"/>
       <family val="1"/>
     </font>
@@ -802,7 +795,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -847,9 +840,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2641,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2736,8 +2726,13 @@
       <c r="K2" s="3">
         <v>0.73</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="15"/>
+      <c r="L2" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="M2" s="16">
+        <f>(((LARGE(D2:F2,1)+LARGE(D2:F2,2))*0.05+(LARGE(G2:I2,1)+LARGE(G2:I2,2))*0.3+(LARGE(J2:L2,1)+LARGE(J2:L2,2))*0.15))</f>
+        <v>0.91349999999999987</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -2813,7 +2808,7 @@
       <c r="L4" s="5">
         <v>0.96</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="16">
         <f>(((LARGE(D4:F4,1)+LARGE(D4:F4,2))*0.05+(LARGE(G4:I4,1)+LARGE(G4:I4,2))*0.3+(LARGE(J4:L4,1)+LARGE(J4:L4,2))*0.15))</f>
         <v>0.63749999999999996</v>
       </c>
@@ -2892,7 +2887,7 @@
       <c r="L6" s="5">
         <v>0</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="16">
         <f>(((LARGE(D6:F6,1)+LARGE(D6:F6,2))*0.05+(LARGE(G6:I6,1)+LARGE(G6:I6,2))*0.3+(LARGE(J6:L6,1)+LARGE(J6:L6,2))*0.15))</f>
         <v>0.58949999999999991</v>
       </c>
@@ -3005,8 +3000,13 @@
       <c r="K9" s="5">
         <v>0.6</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="L9" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="M9" s="16">
+        <f>(((LARGE(D9:F9,1)+LARGE(D9:F9,2))*0.05+(LARGE(G9:I9,1)+LARGE(G9:I9,2))*0.3+(LARGE(J9:L9,1)+LARGE(J9:L9,2))*0.15))</f>
+        <v>0.74049999999999994</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1">
       <c r="A10" s="4" t="s">
@@ -3042,8 +3042,13 @@
       <c r="K10" s="5">
         <v>0.52</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="L10" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="M10" s="16">
+        <f>(((LARGE(D10:F10,1)+LARGE(D10:F10,2))*0.05+(LARGE(G10:I10,1)+LARGE(G10:I10,2))*0.3+(LARGE(J10:L10,1)+LARGE(J10:L10,2))*0.15))</f>
+        <v>0.81700000000000006</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1">
       <c r="A11" s="4" t="s">
@@ -3079,8 +3084,13 @@
       <c r="K11" s="5">
         <v>0</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="L11" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="M11" s="16">
+        <f>(((LARGE(D11:F11,1)+LARGE(D11:F11,2))*0.05+(LARGE(G11:I11,1)+LARGE(G11:I11,2))*0.3+(LARGE(J11:L11,1)+LARGE(J11:L11,2))*0.15))</f>
+        <v>0.84649999999999992</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
       <c r="A12" s="4" t="s">
@@ -3153,8 +3163,13 @@
       <c r="K13" s="5">
         <v>0.67</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="L13" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="M13" s="16">
+        <f>(((LARGE(D13:F13,1)+LARGE(D13:F13,2))*0.05+(LARGE(G13:I13,1)+LARGE(G13:I13,2))*0.3+(LARGE(J13:L13,1)+LARGE(J13:L13,2))*0.15))</f>
+        <v>0.88650000000000007</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="4" t="s">
@@ -3190,8 +3205,13 @@
       <c r="K14" s="5">
         <v>0.6</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="L14" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="M14" s="16">
+        <f>(((LARGE(D14:F14,1)+LARGE(D14:F14,2))*0.05+(LARGE(G14:I14,1)+LARGE(G14:I14,2))*0.3+(LARGE(J14:L14,1)+LARGE(J14:L14,2))*0.15))</f>
+        <v>0.69750000000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
       <c r="A15" s="4" t="s">
@@ -3227,8 +3247,13 @@
       <c r="K15" s="5">
         <v>0.71</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="L15" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="M15" s="16">
+        <f>(((LARGE(D15:F15,1)+LARGE(D15:F15,2))*0.05+(LARGE(G15:I15,1)+LARGE(G15:I15,2))*0.3+(LARGE(J15:L15,1)+LARGE(J15:L15,2))*0.15))</f>
+        <v>0.80099999999999993</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1">
       <c r="A16" s="4" t="s">
@@ -3336,8 +3361,13 @@
       <c r="K18" s="13">
         <v>0.52</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
+      <c r="L18" s="13">
+        <v>0.64</v>
+      </c>
+      <c r="M18" s="16">
+        <f>(((LARGE(D18:F18,1)+LARGE(D18:F18,2))*0.05+(LARGE(G18:I18,1)+LARGE(G18:I18,2))*0.3+(LARGE(J18:L18,1)+LARGE(J18:L18,2))*0.15))</f>
+        <v>0.4345</v>
+      </c>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1">
       <c r="A19" s="4" t="s">
@@ -3376,7 +3406,7 @@
       <c r="L19" s="5">
         <v>0.52</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="16">
         <f>(((LARGE(D19:F19,1)+LARGE(D19:F19,2))*0.05+(LARGE(G19:I19,1)+LARGE(G19:I19,2))*0.3+(LARGE(J19:L19,1)+LARGE(J19:L19,2))*0.15))</f>
         <v>0.78999999999999992</v>
       </c>
@@ -3415,8 +3445,13 @@
       <c r="K20" s="5">
         <v>0.85</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="L20" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="M20" s="16">
+        <f>(((LARGE(D20:F20,1)+LARGE(D20:F20,2))*0.05+(LARGE(G20:I20,1)+LARGE(G20:I20,2))*0.3+(LARGE(J20:L20,1)+LARGE(J20:L20,2))*0.15))</f>
+        <v>0.91349999999999998</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1">
       <c r="A21" s="4" t="s">
@@ -3455,7 +3490,7 @@
       <c r="L21" s="5">
         <v>0.96</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M21" s="16">
         <f>(((LARGE(D21:F21,1)+LARGE(D21:F21,2))*0.05+(LARGE(G21:I21,1)+LARGE(G21:I21,2))*0.3+(LARGE(J21:L21,1)+LARGE(J21:L21,2))*0.15))</f>
         <v>0.73799999999999999</v>
       </c>
@@ -3716,8 +3751,13 @@
       <c r="K28" s="5">
         <v>0.77</v>
       </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
+      <c r="L28" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="M28" s="16">
+        <f>(((LARGE(D28:F28,1)+LARGE(D28:F28,2))*0.05+(LARGE(G28:I28,1)+LARGE(G28:I28,2))*0.3+(LARGE(J28:L28,1)+LARGE(J28:L28,2))*0.15))</f>
+        <v>0.86999999999999988</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1">
       <c r="A29" s="4" t="s">
@@ -3830,7 +3870,7 @@
       <c r="L31" s="5">
         <v>0.6</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M31" s="16">
         <f>(((LARGE(D31:F31,1)+LARGE(D31:F31,2))*0.05+(LARGE(G31:I31,1)+LARGE(G31:I31,2))*0.3+(LARGE(J31:L31,1)+LARGE(J31:L31,2))*0.15))</f>
         <v>0.73849999999999993</v>
       </c>
@@ -3872,7 +3912,7 @@
       <c r="L32" s="5">
         <v>0.6</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M32" s="16">
         <f>(((LARGE(D32:F32,1)+LARGE(D32:F32,2))*0.05+(LARGE(G32:I32,1)+LARGE(G32:I32,2))*0.3+(LARGE(J32:L32,1)+LARGE(J32:L32,2))*0.15))</f>
         <v>0.60099999999999998</v>
       </c>
@@ -3951,7 +3991,7 @@
       <c r="L34" s="5">
         <v>0.6</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="16">
         <f>(((LARGE(D34:F34,1)+LARGE(D34:F34,2))*0.05+(LARGE(G34:I34,1)+LARGE(G34:I34,2))*0.3+(LARGE(J34:L34,1)+LARGE(J34:L34,2))*0.15))</f>
         <v>0.62949999999999995</v>
       </c>
@@ -4064,8 +4104,13 @@
       <c r="K37" s="13">
         <v>0.35</v>
       </c>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
+      <c r="L37" s="13">
+        <v>0.36</v>
+      </c>
+      <c r="M37" s="16">
+        <f>(((LARGE(D37:F37,1)+LARGE(D37:F37,2))*0.05+(LARGE(G37:I37,1)+LARGE(G37:I37,2))*0.3+(LARGE(J37:L37,1)+LARGE(J37:L37,2))*0.15))</f>
+        <v>0.33649999999999997</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1">
       <c r="A38" s="4" t="s">
@@ -4138,8 +4183,13 @@
       <c r="K39" s="5">
         <v>0.54</v>
       </c>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
+      <c r="L39" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="M39" s="16">
+        <f>(((LARGE(D39:F39,1)+LARGE(D39:F39,2))*0.05+(LARGE(G39:I39,1)+LARGE(G39:I39,2))*0.3+(LARGE(J39:L39,1)+LARGE(J39:L39,2))*0.15))</f>
+        <v>0.57300000000000006</v>
+      </c>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1">
       <c r="A40" s="4" t="s">
@@ -4175,8 +4225,13 @@
       <c r="K40" s="5">
         <v>0.79</v>
       </c>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
+      <c r="L40" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="M40" s="16">
+        <f>(((LARGE(D40:F40,1)+LARGE(D40:F40,2))*0.05+(LARGE(G40:I40,1)+LARGE(G40:I40,2))*0.3+(LARGE(J40:L40,1)+LARGE(J40:L40,2))*0.15))</f>
+        <v>0.84399999999999997</v>
+      </c>
     </row>
     <row r="41" spans="1:13" ht="14.25" customHeight="1">
       <c r="A41" s="4" t="s">
@@ -4215,7 +4270,7 @@
       <c r="L41" s="5">
         <v>0.76</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M41" s="16">
         <f>(((LARGE(D41:F41,1)+LARGE(D41:F41,2))*0.05+(LARGE(G41:I41,1)+LARGE(G41:I41,2))*0.3+(LARGE(J41:L41,1)+LARGE(J41:L41,2))*0.15))</f>
         <v>0.67249999999999999</v>
       </c>
@@ -4292,7 +4347,7 @@
         <v>0.65</v>
       </c>
       <c r="L43" s="11"/>
-      <c r="M43" s="16"/>
+      <c r="M43" s="15"/>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1">
       <c r="A44" s="4" t="s">
@@ -4328,8 +4383,13 @@
       <c r="K44" s="5">
         <v>0.67</v>
       </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
+      <c r="L44" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="M44" s="16">
+        <f>(((LARGE(D44:F44,1)+LARGE(D44:F44,2))*0.05+(LARGE(G44:I44,1)+LARGE(G44:I44,2))*0.3+(LARGE(J44:L44,1)+LARGE(J44:L44,2))*0.15))</f>
+        <v>0.629</v>
+      </c>
     </row>
     <row r="45" spans="1:13" ht="14.25" customHeight="1">
       <c r="A45" s="4" t="s">
@@ -4405,7 +4465,7 @@
       <c r="L46" s="5">
         <v>0.84</v>
       </c>
-      <c r="M46" s="17">
+      <c r="M46" s="16">
         <f>(((LARGE(D46:F46,1)+LARGE(D46:F46,2))*0.05+(LARGE(G46:I46,1)+LARGE(G46:I46,2))*0.3+(LARGE(J46:L46,1)+LARGE(J46:L46,2))*0.15))</f>
         <v>0.80049999999999988</v>
       </c>
@@ -4484,7 +4544,7 @@
       <c r="L48" s="5">
         <v>0.92</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M48" s="16">
         <f>(((LARGE(D48:F48,1)+LARGE(D48:F48,2))*0.05+(LARGE(G48:I48,1)+LARGE(G48:I48,2))*0.3+(LARGE(J48:L48,1)+LARGE(J48:L48,2))*0.15))</f>
         <v>0.82799999999999985</v>
       </c>
@@ -4523,8 +4583,13 @@
       <c r="K49" s="5">
         <v>0.73</v>
       </c>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
+      <c r="L49" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="M49" s="16">
+        <f>(((LARGE(D49:F49,1)+LARGE(D49:F49,2))*0.05+(LARGE(G49:I49,1)+LARGE(G49:I49,2))*0.3+(LARGE(J49:L49,1)+LARGE(J49:L49,2))*0.15))</f>
+        <v>0.67700000000000005</v>
+      </c>
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1">
       <c r="A50" s="4" t="s">
@@ -4563,7 +4628,7 @@
       <c r="L50" s="5">
         <v>0.64</v>
       </c>
-      <c r="M50" s="17">
+      <c r="M50" s="16">
         <f>(((LARGE(D50:F50,1)+LARGE(D50:F50,2))*0.05+(LARGE(G50:I50,1)+LARGE(G50:I50,2))*0.3+(LARGE(J50:L50,1)+LARGE(J50:L50,2))*0.15))</f>
         <v>0.78349999999999997</v>
       </c>
@@ -4639,8 +4704,13 @@
       <c r="K52" s="5">
         <v>0.77</v>
       </c>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
+      <c r="L52" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="M52" s="16">
+        <f>(((LARGE(D52:F52,1)+LARGE(D52:F52,2))*0.05+(LARGE(G52:I52,1)+LARGE(G52:I52,2))*0.3+(LARGE(J52:L52,1)+LARGE(J52:L52,2))*0.15))</f>
+        <v>0.8194999999999999</v>
+      </c>
     </row>
     <row r="53" spans="1:13" ht="14.25" customHeight="1">
       <c r="A53" s="4" t="s">
@@ -6235,14 +6305,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
-      <formula>49.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
-      <formula>74.5</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D63CC61-11C4-4647-9725-32D6A0EF8D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA51428-EB06-044C-9DD8-9FC40C21C45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="680" windowWidth="29660" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -795,7 +795,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -840,9 +840,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2631,8 +2628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2729,7 +2726,7 @@
       <c r="L2" s="3">
         <v>0.84</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="15">
         <f>(((LARGE(D2:F2,1)+LARGE(D2:F2,2))*0.05+(LARGE(G2:I2,1)+LARGE(G2:I2,2))*0.3+(LARGE(J2:L2,1)+LARGE(J2:L2,2))*0.15))</f>
         <v>0.91349999999999987</v>
       </c>
@@ -2768,8 +2765,13 @@
       <c r="K3" s="5">
         <v>0</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="L3" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="M3" s="15">
+        <f>(((LARGE(D3:F3,1)+LARGE(D3:F3,2))*0.05+(LARGE(G3:I3,1)+LARGE(G3:I3,2))*0.3+(LARGE(J3:L3,1)+LARGE(J3:L3,2))*0.15))</f>
+        <v>0.7659999999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1">
       <c r="A4" s="4" t="s">
@@ -2808,7 +2810,7 @@
       <c r="L4" s="5">
         <v>0.96</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <f>(((LARGE(D4:F4,1)+LARGE(D4:F4,2))*0.05+(LARGE(G4:I4,1)+LARGE(G4:I4,2))*0.3+(LARGE(J4:L4,1)+LARGE(J4:L4,2))*0.15))</f>
         <v>0.63749999999999996</v>
       </c>
@@ -2847,8 +2849,13 @@
       <c r="K5" s="5">
         <v>0.69</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="L5" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="M5" s="15">
+        <f>(((LARGE(D5:F5,1)+LARGE(D5:F5,2))*0.05+(LARGE(G5:I5,1)+LARGE(G5:I5,2))*0.3+(LARGE(J5:L5,1)+LARGE(J5:L5,2))*0.15))</f>
+        <v>0.73950000000000005</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1">
       <c r="A6" s="4" t="s">
@@ -2887,7 +2894,7 @@
       <c r="L6" s="5">
         <v>0</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="15">
         <f>(((LARGE(D6:F6,1)+LARGE(D6:F6,2))*0.05+(LARGE(G6:I6,1)+LARGE(G6:I6,2))*0.3+(LARGE(J6:L6,1)+LARGE(J6:L6,2))*0.15))</f>
         <v>0.58949999999999991</v>
       </c>
@@ -2926,8 +2933,13 @@
       <c r="K7" s="5">
         <v>0.54</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="L7" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="M7" s="15">
+        <f>(((LARGE(D7:F7,1)+LARGE(D7:F7,2))*0.05+(LARGE(G7:I7,1)+LARGE(G7:I7,2))*0.3+(LARGE(J7:L7,1)+LARGE(J7:L7,2))*0.15))</f>
+        <v>0.64700000000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -2963,8 +2975,13 @@
       <c r="K8" s="5">
         <v>0.75</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="15">
+        <f>(((LARGE(D8:F8,1)+LARGE(D8:F8,2))*0.05+(LARGE(G8:I8,1)+LARGE(G8:I8,2))*0.3+(LARGE(J8:L8,1)+LARGE(J8:L8,2))*0.15))</f>
+        <v>0.82550000000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
@@ -3003,7 +3020,7 @@
       <c r="L9" s="5">
         <v>0.08</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="15">
         <f>(((LARGE(D9:F9,1)+LARGE(D9:F9,2))*0.05+(LARGE(G9:I9,1)+LARGE(G9:I9,2))*0.3+(LARGE(J9:L9,1)+LARGE(J9:L9,2))*0.15))</f>
         <v>0.74049999999999994</v>
       </c>
@@ -3045,7 +3062,7 @@
       <c r="L10" s="5">
         <v>0.84</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="15">
         <f>(((LARGE(D10:F10,1)+LARGE(D10:F10,2))*0.05+(LARGE(G10:I10,1)+LARGE(G10:I10,2))*0.3+(LARGE(J10:L10,1)+LARGE(J10:L10,2))*0.15))</f>
         <v>0.81700000000000006</v>
       </c>
@@ -3087,7 +3104,7 @@
       <c r="L11" s="5">
         <v>0.84</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="15">
         <f>(((LARGE(D11:F11,1)+LARGE(D11:F11,2))*0.05+(LARGE(G11:I11,1)+LARGE(G11:I11,2))*0.3+(LARGE(J11:L11,1)+LARGE(J11:L11,2))*0.15))</f>
         <v>0.84649999999999992</v>
       </c>
@@ -3126,8 +3143,13 @@
       <c r="K12" s="5">
         <v>0.73</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="L12" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="M12" s="15">
+        <f>(((LARGE(D12:F12,1)+LARGE(D12:F12,2))*0.05+(LARGE(G12:I12,1)+LARGE(G12:I12,2))*0.3+(LARGE(J12:L12,1)+LARGE(J12:L12,2))*0.15))</f>
+        <v>0.877</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
       <c r="A13" s="4" t="s">
@@ -3166,7 +3188,7 @@
       <c r="L13" s="5">
         <v>0.84</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="15">
         <f>(((LARGE(D13:F13,1)+LARGE(D13:F13,2))*0.05+(LARGE(G13:I13,1)+LARGE(G13:I13,2))*0.3+(LARGE(J13:L13,1)+LARGE(J13:L13,2))*0.15))</f>
         <v>0.88650000000000007</v>
       </c>
@@ -3208,7 +3230,7 @@
       <c r="L14" s="5">
         <v>0.08</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="15">
         <f>(((LARGE(D14:F14,1)+LARGE(D14:F14,2))*0.05+(LARGE(G14:I14,1)+LARGE(G14:I14,2))*0.3+(LARGE(J14:L14,1)+LARGE(J14:L14,2))*0.15))</f>
         <v>0.69750000000000001</v>
       </c>
@@ -3250,7 +3272,7 @@
       <c r="L15" s="5">
         <v>0.84</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="15">
         <f>(((LARGE(D15:F15,1)+LARGE(D15:F15,2))*0.05+(LARGE(G15:I15,1)+LARGE(G15:I15,2))*0.3+(LARGE(J15:L15,1)+LARGE(J15:L15,2))*0.15))</f>
         <v>0.80099999999999993</v>
       </c>
@@ -3289,8 +3311,13 @@
       <c r="K16" s="5">
         <v>0.85</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="L16" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="M16" s="15">
+        <f>(((LARGE(D16:F16,1)+LARGE(D16:F16,2))*0.05+(LARGE(G16:I16,1)+LARGE(G16:I16,2))*0.3+(LARGE(J16:L16,1)+LARGE(J16:L16,2))*0.15))</f>
+        <v>0.79200000000000004</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="14.25" customHeight="1">
       <c r="A17" s="4" t="s">
@@ -3326,8 +3353,13 @@
       <c r="K17" s="5">
         <v>0.69</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="L17" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="M17" s="15">
+        <f>(((LARGE(D17:F17,1)+LARGE(D17:F17,2))*0.05+(LARGE(G17:I17,1)+LARGE(G17:I17,2))*0.3+(LARGE(J17:L17,1)+LARGE(J17:L17,2))*0.15))</f>
+        <v>0.84600000000000009</v>
+      </c>
     </row>
     <row r="18" spans="1:13" ht="14.25" customHeight="1">
       <c r="A18" s="14" t="s">
@@ -3364,7 +3396,7 @@
       <c r="L18" s="13">
         <v>0.64</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="15">
         <f>(((LARGE(D18:F18,1)+LARGE(D18:F18,2))*0.05+(LARGE(G18:I18,1)+LARGE(G18:I18,2))*0.3+(LARGE(J18:L18,1)+LARGE(J18:L18,2))*0.15))</f>
         <v>0.4345</v>
       </c>
@@ -3406,7 +3438,7 @@
       <c r="L19" s="5">
         <v>0.52</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="15">
         <f>(((LARGE(D19:F19,1)+LARGE(D19:F19,2))*0.05+(LARGE(G19:I19,1)+LARGE(G19:I19,2))*0.3+(LARGE(J19:L19,1)+LARGE(J19:L19,2))*0.15))</f>
         <v>0.78999999999999992</v>
       </c>
@@ -3448,7 +3480,7 @@
       <c r="L20" s="5">
         <v>0.96</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="15">
         <f>(((LARGE(D20:F20,1)+LARGE(D20:F20,2))*0.05+(LARGE(G20:I20,1)+LARGE(G20:I20,2))*0.3+(LARGE(J20:L20,1)+LARGE(J20:L20,2))*0.15))</f>
         <v>0.91349999999999998</v>
       </c>
@@ -3490,7 +3522,7 @@
       <c r="L21" s="5">
         <v>0.96</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M21" s="15">
         <f>(((LARGE(D21:F21,1)+LARGE(D21:F21,2))*0.05+(LARGE(G21:I21,1)+LARGE(G21:I21,2))*0.3+(LARGE(J21:L21,1)+LARGE(J21:L21,2))*0.15))</f>
         <v>0.73799999999999999</v>
       </c>
@@ -3529,8 +3561,13 @@
       <c r="K22" s="5">
         <v>0</v>
       </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <f>(((LARGE(D22:F22,1)+LARGE(D22:F22,2))*0.05+(LARGE(G22:I22,1)+LARGE(G22:I22,2))*0.3+(LARGE(J22:L22,1)+LARGE(J22:L22,2))*0.15))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1">
       <c r="A23" s="4" t="s">
@@ -3566,8 +3603,13 @@
       <c r="K23" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="L23" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="M23" s="15">
+        <f>(((LARGE(D23:F23,1)+LARGE(D23:F23,2))*0.05+(LARGE(G23:I23,1)+LARGE(G23:I23,2))*0.3+(LARGE(J23:L23,1)+LARGE(J23:L23,2))*0.15))</f>
+        <v>0.79200000000000004</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="14.25" customHeight="1">
       <c r="A24" s="4" t="s">
@@ -3603,8 +3645,13 @@
       <c r="K24" s="5">
         <v>0</v>
       </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
+        <f>(((LARGE(D24:F24,1)+LARGE(D24:F24,2))*0.05+(LARGE(G24:I24,1)+LARGE(G24:I24,2))*0.3+(LARGE(J24:L24,1)+LARGE(J24:L24,2))*0.15))</f>
+        <v>0.23650000000000002</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="14.25" customHeight="1">
       <c r="A25" s="4" t="s">
@@ -3640,8 +3687,13 @@
       <c r="K25" s="5">
         <v>0.9</v>
       </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="15">
+        <f>(((LARGE(D25:F25,1)+LARGE(D25:F25,2))*0.05+(LARGE(G25:I25,1)+LARGE(G25:I25,2))*0.3+(LARGE(J25:L25,1)+LARGE(J25:L25,2))*0.15))</f>
+        <v>0.79649999999999999</v>
+      </c>
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1">
       <c r="A26" s="4" t="s">
@@ -3677,8 +3729,13 @@
       <c r="K26" s="5">
         <v>0</v>
       </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <f>(((LARGE(D26:F26,1)+LARGE(D26:F26,2))*0.05+(LARGE(G26:I26,1)+LARGE(G26:I26,2))*0.3+(LARGE(J26:L26,1)+LARGE(J26:L26,2))*0.15))</f>
+        <v>0.69500000000000006</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1">
       <c r="A27" s="4" t="s">
@@ -3714,8 +3771,13 @@
       <c r="K27" s="5">
         <v>0.63</v>
       </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="15">
+        <f>(((LARGE(D27:F27,1)+LARGE(D27:F27,2))*0.05+(LARGE(G27:I27,1)+LARGE(G27:I27,2))*0.3+(LARGE(J27:L27,1)+LARGE(J27:L27,2))*0.15))</f>
+        <v>0.67649999999999999</v>
+      </c>
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1">
       <c r="A28" s="4" t="s">
@@ -3754,7 +3816,7 @@
       <c r="L28" s="5">
         <v>0.84</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M28" s="15">
         <f>(((LARGE(D28:F28,1)+LARGE(D28:F28,2))*0.05+(LARGE(G28:I28,1)+LARGE(G28:I28,2))*0.3+(LARGE(J28:L28,1)+LARGE(J28:L28,2))*0.15))</f>
         <v>0.86999999999999988</v>
       </c>
@@ -3793,8 +3855,13 @@
       <c r="K29" s="5">
         <v>0.75</v>
       </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="L29" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="M29" s="15">
+        <f>(((LARGE(D29:F29,1)+LARGE(D29:F29,2))*0.05+(LARGE(G29:I29,1)+LARGE(G29:I29,2))*0.3+(LARGE(J29:L29,1)+LARGE(J29:L29,2))*0.15))</f>
+        <v>0.62950000000000006</v>
+      </c>
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1">
       <c r="A30" s="4" t="s">
@@ -3830,8 +3897,13 @@
       <c r="K30" s="5">
         <v>0.75</v>
       </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="L30" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="M30" s="15">
+        <f>(((LARGE(D30:F30,1)+LARGE(D30:F30,2))*0.05+(LARGE(G30:I30,1)+LARGE(G30:I30,2))*0.3+(LARGE(J30:L30,1)+LARGE(J30:L30,2))*0.15))</f>
+        <v>0.92499999999999993</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1">
       <c r="A31" s="4" t="s">
@@ -3870,7 +3942,7 @@
       <c r="L31" s="5">
         <v>0.6</v>
       </c>
-      <c r="M31" s="16">
+      <c r="M31" s="15">
         <f>(((LARGE(D31:F31,1)+LARGE(D31:F31,2))*0.05+(LARGE(G31:I31,1)+LARGE(G31:I31,2))*0.3+(LARGE(J31:L31,1)+LARGE(J31:L31,2))*0.15))</f>
         <v>0.73849999999999993</v>
       </c>
@@ -3912,7 +3984,7 @@
       <c r="L32" s="5">
         <v>0.6</v>
       </c>
-      <c r="M32" s="16">
+      <c r="M32" s="15">
         <f>(((LARGE(D32:F32,1)+LARGE(D32:F32,2))*0.05+(LARGE(G32:I32,1)+LARGE(G32:I32,2))*0.3+(LARGE(J32:L32,1)+LARGE(J32:L32,2))*0.15))</f>
         <v>0.60099999999999998</v>
       </c>
@@ -3951,8 +4023,13 @@
       <c r="K33" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
+      <c r="L33" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="M33" s="15">
+        <f>(((LARGE(D33:F33,1)+LARGE(D33:F33,2))*0.05+(LARGE(G33:I33,1)+LARGE(G33:I33,2))*0.3+(LARGE(J33:L33,1)+LARGE(J33:L33,2))*0.15))</f>
+        <v>0.5575</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1">
       <c r="A34" s="4" t="s">
@@ -3991,7 +4068,7 @@
       <c r="L34" s="5">
         <v>0.6</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M34" s="15">
         <f>(((LARGE(D34:F34,1)+LARGE(D34:F34,2))*0.05+(LARGE(G34:I34,1)+LARGE(G34:I34,2))*0.3+(LARGE(J34:L34,1)+LARGE(J34:L34,2))*0.15))</f>
         <v>0.62949999999999995</v>
       </c>
@@ -4030,8 +4107,13 @@
       <c r="K35" s="5">
         <v>0.79</v>
       </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
+      <c r="L35" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="M35" s="15">
+        <f>(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
+        <v>0.77349999999999997</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="14.25" customHeight="1">
       <c r="A36" s="4" t="s">
@@ -4067,8 +4149,13 @@
       <c r="K36" s="5">
         <v>0.6</v>
       </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
+      <c r="L36" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="M36" s="15">
+        <f>(((LARGE(D36:F36,1)+LARGE(D36:F36,2))*0.05+(LARGE(G36:I36,1)+LARGE(G36:I36,2))*0.3+(LARGE(J36:L36,1)+LARGE(J36:L36,2))*0.15))</f>
+        <v>0.82750000000000001</v>
+      </c>
     </row>
     <row r="37" spans="1:13" ht="14.25" customHeight="1">
       <c r="A37" s="14" t="s">
@@ -4107,7 +4194,7 @@
       <c r="L37" s="13">
         <v>0.36</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M37" s="15">
         <f>(((LARGE(D37:F37,1)+LARGE(D37:F37,2))*0.05+(LARGE(G37:I37,1)+LARGE(G37:I37,2))*0.3+(LARGE(J37:L37,1)+LARGE(J37:L37,2))*0.15))</f>
         <v>0.33649999999999997</v>
       </c>
@@ -4146,8 +4233,13 @@
       <c r="K38" s="5">
         <v>0.75</v>
       </c>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
+      <c r="L38" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="M38" s="15">
+        <f>(((LARGE(D38:F38,1)+LARGE(D38:F38,2))*0.05+(LARGE(G38:I38,1)+LARGE(G38:I38,2))*0.3+(LARGE(J38:L38,1)+LARGE(J38:L38,2))*0.15))</f>
+        <v>0.879</v>
+      </c>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1">
       <c r="A39" s="4" t="s">
@@ -4186,7 +4278,7 @@
       <c r="L39" s="5">
         <v>0.08</v>
       </c>
-      <c r="M39" s="16">
+      <c r="M39" s="15">
         <f>(((LARGE(D39:F39,1)+LARGE(D39:F39,2))*0.05+(LARGE(G39:I39,1)+LARGE(G39:I39,2))*0.3+(LARGE(J39:L39,1)+LARGE(J39:L39,2))*0.15))</f>
         <v>0.57300000000000006</v>
       </c>
@@ -4228,7 +4320,7 @@
       <c r="L40" s="5">
         <v>0.76</v>
       </c>
-      <c r="M40" s="16">
+      <c r="M40" s="15">
         <f>(((LARGE(D40:F40,1)+LARGE(D40:F40,2))*0.05+(LARGE(G40:I40,1)+LARGE(G40:I40,2))*0.3+(LARGE(J40:L40,1)+LARGE(J40:L40,2))*0.15))</f>
         <v>0.84399999999999997</v>
       </c>
@@ -4270,7 +4362,7 @@
       <c r="L41" s="5">
         <v>0.76</v>
       </c>
-      <c r="M41" s="16">
+      <c r="M41" s="15">
         <f>(((LARGE(D41:F41,1)+LARGE(D41:F41,2))*0.05+(LARGE(G41:I41,1)+LARGE(G41:I41,2))*0.3+(LARGE(J41:L41,1)+LARGE(J41:L41,2))*0.15))</f>
         <v>0.67249999999999999</v>
       </c>
@@ -4309,8 +4401,13 @@
       <c r="K42" s="5">
         <v>0.79</v>
       </c>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
+      <c r="L42" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="M42" s="15">
+        <f>(((LARGE(D42:F42,1)+LARGE(D42:F42,2))*0.05+(LARGE(G42:I42,1)+LARGE(G42:I42,2))*0.3+(LARGE(J42:L42,1)+LARGE(J42:L42,2))*0.15))</f>
+        <v>0.7569999999999999</v>
+      </c>
     </row>
     <row r="43" spans="1:13" ht="14.25" customHeight="1">
       <c r="A43" s="4" t="s">
@@ -4346,8 +4443,13 @@
       <c r="K43" s="11">
         <v>0.65</v>
       </c>
-      <c r="L43" s="11"/>
-      <c r="M43" s="15"/>
+      <c r="L43" s="11">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15">
+        <f>(((LARGE(D43:F43,1)+LARGE(D43:F43,2))*0.05+(LARGE(G43:I43,1)+LARGE(G43:I43,2))*0.3+(LARGE(J43:L43,1)+LARGE(J43:L43,2))*0.15))</f>
+        <v>0.59</v>
+      </c>
     </row>
     <row r="44" spans="1:13" ht="14.25" customHeight="1">
       <c r="A44" s="4" t="s">
@@ -4386,7 +4488,7 @@
       <c r="L44" s="5">
         <v>0.68</v>
       </c>
-      <c r="M44" s="16">
+      <c r="M44" s="15">
         <f>(((LARGE(D44:F44,1)+LARGE(D44:F44,2))*0.05+(LARGE(G44:I44,1)+LARGE(G44:I44,2))*0.3+(LARGE(J44:L44,1)+LARGE(J44:L44,2))*0.15))</f>
         <v>0.629</v>
       </c>
@@ -4425,8 +4527,13 @@
       <c r="K45" s="5">
         <v>0.71</v>
       </c>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
+      <c r="L45" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="M45" s="15">
+        <f>(((LARGE(D45:F45,1)+LARGE(D45:F45,2))*0.05+(LARGE(G45:I45,1)+LARGE(G45:I45,2))*0.3+(LARGE(J45:L45,1)+LARGE(J45:L45,2))*0.15))</f>
+        <v>0.66199999999999992</v>
+      </c>
     </row>
     <row r="46" spans="1:13" ht="14.25" customHeight="1">
       <c r="A46" s="4" t="s">
@@ -4465,7 +4572,7 @@
       <c r="L46" s="5">
         <v>0.84</v>
       </c>
-      <c r="M46" s="16">
+      <c r="M46" s="15">
         <f>(((LARGE(D46:F46,1)+LARGE(D46:F46,2))*0.05+(LARGE(G46:I46,1)+LARGE(G46:I46,2))*0.3+(LARGE(J46:L46,1)+LARGE(J46:L46,2))*0.15))</f>
         <v>0.80049999999999988</v>
       </c>
@@ -4504,8 +4611,13 @@
       <c r="K47" s="5">
         <v>0.65</v>
       </c>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
+      <c r="L47" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M47" s="15">
+        <f>(((LARGE(D47:F47,1)+LARGE(D47:F47,2))*0.05+(LARGE(G47:I47,1)+LARGE(G47:I47,2))*0.3+(LARGE(J47:L47,1)+LARGE(J47:L47,2))*0.15))</f>
+        <v>0.59350000000000003</v>
+      </c>
     </row>
     <row r="48" spans="1:13" ht="14.25" customHeight="1">
       <c r="A48" s="4" t="s">
@@ -4544,7 +4656,7 @@
       <c r="L48" s="5">
         <v>0.92</v>
       </c>
-      <c r="M48" s="16">
+      <c r="M48" s="15">
         <f>(((LARGE(D48:F48,1)+LARGE(D48:F48,2))*0.05+(LARGE(G48:I48,1)+LARGE(G48:I48,2))*0.3+(LARGE(J48:L48,1)+LARGE(J48:L48,2))*0.15))</f>
         <v>0.82799999999999985</v>
       </c>
@@ -4586,7 +4698,7 @@
       <c r="L49" s="5">
         <v>0.88</v>
       </c>
-      <c r="M49" s="16">
+      <c r="M49" s="15">
         <f>(((LARGE(D49:F49,1)+LARGE(D49:F49,2))*0.05+(LARGE(G49:I49,1)+LARGE(G49:I49,2))*0.3+(LARGE(J49:L49,1)+LARGE(J49:L49,2))*0.15))</f>
         <v>0.67700000000000005</v>
       </c>
@@ -4628,7 +4740,7 @@
       <c r="L50" s="5">
         <v>0.64</v>
       </c>
-      <c r="M50" s="16">
+      <c r="M50" s="15">
         <f>(((LARGE(D50:F50,1)+LARGE(D50:F50,2))*0.05+(LARGE(G50:I50,1)+LARGE(G50:I50,2))*0.3+(LARGE(J50:L50,1)+LARGE(J50:L50,2))*0.15))</f>
         <v>0.78349999999999997</v>
       </c>
@@ -4667,8 +4779,13 @@
       <c r="K51" s="5">
         <v>0.71</v>
       </c>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
+      <c r="L51" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="M51" s="15">
+        <f>(((LARGE(D51:F51,1)+LARGE(D51:F51,2))*0.05+(LARGE(G51:I51,1)+LARGE(G51:I51,2))*0.3+(LARGE(J51:L51,1)+LARGE(J51:L51,2))*0.15))</f>
+        <v>0.76149999999999995</v>
+      </c>
     </row>
     <row r="52" spans="1:13" ht="14.25" customHeight="1">
       <c r="A52" s="4" t="s">
@@ -4707,7 +4824,7 @@
       <c r="L52" s="5">
         <v>0.96</v>
       </c>
-      <c r="M52" s="16">
+      <c r="M52" s="15">
         <f>(((LARGE(D52:F52,1)+LARGE(D52:F52,2))*0.05+(LARGE(G52:I52,1)+LARGE(G52:I52,2))*0.3+(LARGE(J52:L52,1)+LARGE(J52:L52,2))*0.15))</f>
         <v>0.8194999999999999</v>
       </c>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA51428-EB06-044C-9DD8-9FC40C21C45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBB84C7-5174-AE40-8EC7-7CE38B47328A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="680" windowWidth="29660" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="203">
   <si>
     <t>Surname</t>
   </si>
@@ -639,6 +639,9 @@
   </si>
   <si>
     <t>AS_3</t>
+  </si>
+  <si>
+    <t>ISE</t>
   </si>
 </sst>
 </file>
@@ -2628,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -4123,7 +4126,7 @@
         <v>78</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="D36" s="5">
         <v>0.91</v>
@@ -4863,8 +4866,13 @@
       <c r="K53" s="5">
         <v>0.83</v>
       </c>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
+      <c r="L53" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="M53" s="15">
+        <f t="shared" ref="M53:M95" si="0">(((LARGE(D53:F53,1)+LARGE(D53:F53,2))*0.05+(LARGE(G53:I53,1)+LARGE(G53:I53,2))*0.3+(LARGE(J53:L53,1)+LARGE(J53:L53,2))*0.15))</f>
+        <v>0.871</v>
+      </c>
     </row>
     <row r="54" spans="1:13" ht="14.25" customHeight="1">
       <c r="A54" s="4" t="s">
@@ -4900,8 +4908,13 @@
       <c r="K54" s="5">
         <v>0.43</v>
       </c>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
+      <c r="L54" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="M54" s="15">
+        <f t="shared" si="0"/>
+        <v>0.64400000000000002</v>
+      </c>
     </row>
     <row r="55" spans="1:13" ht="14.25" customHeight="1">
       <c r="A55" s="4" t="s">
@@ -4937,8 +4950,13 @@
       <c r="K55" s="5">
         <v>0.74</v>
       </c>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
+      <c r="L55" s="5">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <f t="shared" si="0"/>
+        <v>0.75449999999999995</v>
+      </c>
     </row>
     <row r="56" spans="1:13" ht="14.25" customHeight="1">
       <c r="A56" s="4" t="s">
@@ -4974,8 +4992,13 @@
       <c r="K56" s="5">
         <v>0.74</v>
       </c>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
+      <c r="L56" s="5">
+        <v>0</v>
+      </c>
+      <c r="M56" s="15">
+        <f t="shared" si="0"/>
+        <v>0.47599999999999998</v>
+      </c>
     </row>
     <row r="57" spans="1:13" ht="14.25" customHeight="1">
       <c r="A57" s="4" t="s">
@@ -5011,8 +5034,13 @@
       <c r="K57" s="5">
         <v>0.63</v>
       </c>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
+      <c r="L57" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="M57" s="15">
+        <f t="shared" si="0"/>
+        <v>0.73299999999999998</v>
+      </c>
     </row>
     <row r="58" spans="1:13" ht="14.25" customHeight="1">
       <c r="A58" s="4" t="s">
@@ -5048,8 +5076,13 @@
       <c r="K58" s="5">
         <v>0.54</v>
       </c>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
+      <c r="L58" s="5">
+        <v>0</v>
+      </c>
+      <c r="M58" s="15">
+        <f t="shared" si="0"/>
+        <v>0.50800000000000001</v>
+      </c>
     </row>
     <row r="59" spans="1:13" ht="14.25" customHeight="1">
       <c r="A59" s="4" t="s">
@@ -5085,8 +5118,13 @@
       <c r="K59" s="5">
         <v>0.66</v>
       </c>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
+      <c r="L59" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="M59" s="15">
+        <f t="shared" si="0"/>
+        <v>0.68049999999999988</v>
+      </c>
     </row>
     <row r="60" spans="1:13" ht="14.25" customHeight="1">
       <c r="A60" s="4" t="s">
@@ -5122,8 +5160,13 @@
       <c r="K60" s="5">
         <v>0.71</v>
       </c>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
+      <c r="L60" s="5">
+        <v>0</v>
+      </c>
+      <c r="M60" s="15">
+        <f t="shared" si="0"/>
+        <v>0.69700000000000006</v>
+      </c>
     </row>
     <row r="61" spans="1:13" ht="14.25" customHeight="1">
       <c r="A61" s="4" t="s">
@@ -5159,8 +5202,13 @@
       <c r="K61" s="5">
         <v>0</v>
       </c>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
+      <c r="L61" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="M61" s="15">
+        <f t="shared" si="0"/>
+        <v>0.6865</v>
+      </c>
     </row>
     <row r="62" spans="1:13" ht="14.25" customHeight="1">
       <c r="A62" s="4" t="s">
@@ -5196,8 +5244,13 @@
       <c r="K62" s="5">
         <v>0.66</v>
       </c>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
+      <c r="L62" s="5">
+        <v>0</v>
+      </c>
+      <c r="M62" s="15">
+        <f t="shared" si="0"/>
+        <v>0.52549999999999997</v>
+      </c>
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1">
       <c r="A63" s="4" t="s">
@@ -5233,8 +5286,13 @@
       <c r="K63" s="5">
         <v>0.74</v>
       </c>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
+      <c r="L63" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="M63" s="15">
+        <f t="shared" si="0"/>
+        <v>0.69750000000000001</v>
+      </c>
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1">
       <c r="A64" s="4" t="s">
@@ -5270,8 +5328,13 @@
       <c r="K64" s="5">
         <v>0.49</v>
       </c>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
+      <c r="L64" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="M64" s="15">
+        <f t="shared" si="0"/>
+        <v>0.65900000000000003</v>
+      </c>
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1">
       <c r="A65" s="4" t="s">
@@ -5307,8 +5370,13 @@
       <c r="K65" s="5">
         <v>0.63</v>
       </c>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
+      <c r="L65" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="M65" s="15">
+        <f t="shared" si="0"/>
+        <v>0.70700000000000007</v>
+      </c>
     </row>
     <row r="66" spans="1:13" ht="14.25" customHeight="1">
       <c r="A66" s="4" t="s">
@@ -5344,8 +5412,13 @@
       <c r="K66" s="5">
         <v>0.69</v>
       </c>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
+      <c r="L66" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="M66" s="15">
+        <f t="shared" si="0"/>
+        <v>0.63000000000000012</v>
+      </c>
     </row>
     <row r="67" spans="1:13" ht="14.25" customHeight="1">
       <c r="A67" s="4" t="s">
@@ -5381,8 +5454,13 @@
       <c r="K67" s="5">
         <v>0.74</v>
       </c>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
+      <c r="L67" s="5">
+        <v>0</v>
+      </c>
+      <c r="M67" s="15">
+        <f t="shared" si="0"/>
+        <v>0.79549999999999998</v>
+      </c>
     </row>
     <row r="68" spans="1:13" ht="14.25" customHeight="1">
       <c r="A68" s="4" t="s">
@@ -5418,8 +5496,13 @@
       <c r="K68" s="5">
         <v>0.77</v>
       </c>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
+      <c r="L68" s="5">
+        <v>0</v>
+      </c>
+      <c r="M68" s="15">
+        <f t="shared" si="0"/>
+        <v>0.63349999999999995</v>
+      </c>
     </row>
     <row r="69" spans="1:13" ht="14.25" customHeight="1">
       <c r="A69" s="4" t="s">
@@ -5455,8 +5538,13 @@
       <c r="K69" s="5">
         <v>0.51</v>
       </c>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
+      <c r="L69" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="M69" s="15">
+        <f t="shared" si="0"/>
+        <v>0.79549999999999987</v>
+      </c>
     </row>
     <row r="70" spans="1:13" ht="14.25" customHeight="1">
       <c r="A70" s="4" t="s">
@@ -5492,8 +5580,13 @@
       <c r="K70" s="5">
         <v>0.46</v>
       </c>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
+      <c r="L70" s="5">
+        <v>0</v>
+      </c>
+      <c r="M70" s="15">
+        <f t="shared" si="0"/>
+        <v>0.50300000000000011</v>
+      </c>
     </row>
     <row r="71" spans="1:13" ht="14.25" customHeight="1">
       <c r="A71" s="4" t="s">
@@ -5529,8 +5622,13 @@
       <c r="K71" s="5">
         <v>0.71</v>
       </c>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
+      <c r="L71" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="M71" s="15">
+        <f t="shared" si="0"/>
+        <v>0.71149999999999991</v>
+      </c>
     </row>
     <row r="72" spans="1:13" ht="14.25" customHeight="1">
       <c r="A72" s="4" t="s">
@@ -5566,8 +5664,13 @@
       <c r="K72" s="5">
         <v>0.37</v>
       </c>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
+      <c r="L72" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="M72" s="15">
+        <f t="shared" si="0"/>
+        <v>0.73799999999999999</v>
+      </c>
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1">
       <c r="A73" s="4" t="s">
@@ -5603,8 +5706,13 @@
       <c r="K73" s="5">
         <v>0.77</v>
       </c>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
+      <c r="L73" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="M73" s="15">
+        <f t="shared" si="0"/>
+        <v>0.93199999999999994</v>
+      </c>
     </row>
     <row r="74" spans="1:13" ht="14.25" customHeight="1">
       <c r="A74" s="4" t="s">
@@ -5640,8 +5748,13 @@
       <c r="K74" s="5">
         <v>0.77</v>
       </c>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
+      <c r="L74" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="M74" s="15">
+        <f t="shared" si="0"/>
+        <v>0.78150000000000008</v>
+      </c>
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1">
       <c r="A75" s="4" t="s">
@@ -5677,8 +5790,13 @@
       <c r="K75" s="5">
         <v>0.54</v>
       </c>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
+      <c r="L75" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="M75" s="15">
+        <f t="shared" si="0"/>
+        <v>0.6925</v>
+      </c>
     </row>
     <row r="76" spans="1:13" ht="14.25" customHeight="1">
       <c r="A76" s="4" t="s">
@@ -5714,8 +5832,13 @@
       <c r="K76" s="5">
         <v>0</v>
       </c>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
+      <c r="L76" s="5">
+        <v>0</v>
+      </c>
+      <c r="M76" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
       <c r="A77" s="4" t="s">
@@ -5751,8 +5874,13 @@
       <c r="K77" s="5">
         <v>0.6</v>
       </c>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
+      <c r="L77" s="5">
+        <v>0</v>
+      </c>
+      <c r="M77" s="15">
+        <f t="shared" si="0"/>
+        <v>0.64750000000000008</v>
+      </c>
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1">
       <c r="A78" s="4" t="s">
@@ -5788,8 +5916,13 @@
       <c r="K78" s="5">
         <v>0.63</v>
       </c>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
+      <c r="L78" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="M78" s="15">
+        <f t="shared" si="0"/>
+        <v>0.83599999999999997</v>
+      </c>
     </row>
     <row r="79" spans="1:13" ht="14.25" customHeight="1">
       <c r="A79" s="4" t="s">
@@ -5825,8 +5958,13 @@
       <c r="K79" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
+      <c r="L79" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="M79" s="15">
+        <f t="shared" si="0"/>
+        <v>0.3785</v>
+      </c>
     </row>
     <row r="80" spans="1:13" ht="14.25" customHeight="1">
       <c r="A80" s="4" t="s">
@@ -5862,8 +6000,13 @@
       <c r="K80" s="5">
         <v>0.71</v>
       </c>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
+      <c r="L80" s="5">
+        <v>0</v>
+      </c>
+      <c r="M80" s="15">
+        <f t="shared" si="0"/>
+        <v>0.63200000000000001</v>
+      </c>
     </row>
     <row r="81" spans="1:13" ht="14.25" customHeight="1">
       <c r="A81" s="4" t="s">
@@ -5899,8 +6042,13 @@
       <c r="K81" s="5">
         <v>0.71</v>
       </c>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
+      <c r="L81" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="M81" s="15">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
+      </c>
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
       <c r="A82" s="4" t="s">
@@ -5936,8 +6084,13 @@
       <c r="K82" s="5">
         <v>0.71</v>
       </c>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
+      <c r="L82" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="M82" s="15">
+        <f t="shared" si="0"/>
+        <v>0.62949999999999995</v>
+      </c>
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1">
       <c r="A83" s="4" t="s">
@@ -5973,8 +6126,13 @@
       <c r="K83" s="5">
         <v>0.74</v>
       </c>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
+      <c r="L83" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="M83" s="15">
+        <f t="shared" si="0"/>
+        <v>0.6905</v>
+      </c>
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1">
       <c r="A84" s="4" t="s">
@@ -6010,8 +6168,13 @@
       <c r="K84" s="5">
         <v>0.77</v>
       </c>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
+      <c r="L84" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="M84" s="15">
+        <f t="shared" si="0"/>
+        <v>0.88150000000000006</v>
+      </c>
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1">
       <c r="A85" s="4" t="s">
@@ -6047,8 +6210,13 @@
       <c r="K85" s="5">
         <v>0.91</v>
       </c>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
+      <c r="L85" s="5">
+        <v>1</v>
+      </c>
+      <c r="M85" s="15">
+        <f t="shared" si="0"/>
+        <v>0.80800000000000005</v>
+      </c>
     </row>
     <row r="86" spans="1:13" ht="14.25" customHeight="1">
       <c r="A86" s="4" t="s">
@@ -6084,8 +6252,13 @@
       <c r="K86" s="5">
         <v>0.54</v>
       </c>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
+      <c r="L86" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="M86" s="15">
+        <f t="shared" si="0"/>
+        <v>0.65649999999999997</v>
+      </c>
     </row>
     <row r="87" spans="1:13" ht="14.25" customHeight="1">
       <c r="A87" s="4" t="s">
@@ -6121,8 +6294,13 @@
       <c r="K87" s="5">
         <v>0</v>
       </c>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
+      <c r="L87" s="5">
+        <v>0</v>
+      </c>
+      <c r="M87" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:13" ht="14.25" customHeight="1">
       <c r="A88" s="4" t="s">
@@ -6158,8 +6336,13 @@
       <c r="K88" s="5">
         <v>0.77</v>
       </c>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
+      <c r="L88" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="M88" s="15">
+        <f t="shared" si="0"/>
+        <v>0.60699999999999998</v>
+      </c>
     </row>
     <row r="89" spans="1:13" ht="14.25" customHeight="1">
       <c r="A89" s="4" t="s">
@@ -6195,8 +6378,13 @@
       <c r="K89" s="5">
         <v>0</v>
       </c>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
+      <c r="L89" s="5">
+        <v>0</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1">
       <c r="A90" s="4" t="s">
@@ -6232,8 +6420,13 @@
       <c r="K90" s="5">
         <v>0.86</v>
       </c>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
+      <c r="L90" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="M90" s="15">
+        <f t="shared" si="0"/>
+        <v>0.71750000000000003</v>
+      </c>
     </row>
     <row r="91" spans="1:13" ht="14.25" customHeight="1">
       <c r="A91" s="4" t="s">
@@ -6269,8 +6462,13 @@
       <c r="K91" s="5">
         <v>0</v>
       </c>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
+      <c r="L91" s="5">
+        <v>0</v>
+      </c>
+      <c r="M91" s="15">
+        <f t="shared" si="0"/>
+        <v>0.13300000000000001</v>
+      </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1">
       <c r="A92" s="6" t="s">
@@ -6306,8 +6504,13 @@
       <c r="K92" s="5">
         <v>0.63</v>
       </c>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
+      <c r="L92" s="5">
+        <v>0</v>
+      </c>
+      <c r="M92" s="15">
+        <f t="shared" si="0"/>
+        <v>0.79900000000000004</v>
+      </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1">
       <c r="A93" s="6" t="s">
@@ -6343,8 +6546,13 @@
       <c r="K93" s="5">
         <v>0.66</v>
       </c>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
+      <c r="L93" s="5">
+        <v>0</v>
+      </c>
+      <c r="M93" s="15">
+        <f t="shared" si="0"/>
+        <v>0.69599999999999995</v>
+      </c>
     </row>
     <row r="94" spans="1:13" ht="14.25" customHeight="1">
       <c r="A94" s="6" t="s">
@@ -6380,8 +6588,13 @@
       <c r="K94" s="5">
         <v>0.63</v>
       </c>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
+      <c r="L94" s="5">
+        <v>0</v>
+      </c>
+      <c r="M94" s="15">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="95" spans="1:13" ht="20" customHeight="1">
       <c r="A95" s="8" t="s">
@@ -6417,8 +6630,13 @@
       <c r="K95" s="12">
         <v>0.66</v>
       </c>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
+      <c r="L95" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="M95" s="15">
+        <f t="shared" si="0"/>
+        <v>0.88149999999999995</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBB84C7-5174-AE40-8EC7-7CE38B47328A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC233926-3D72-DE40-92B5-4D14B50BEFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="680" windowWidth="29660" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2631,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>

--- a/cw21062023.xlsx
+++ b/cw21062023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevor/Documents/GitHub/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC233926-3D72-DE40-92B5-4D14B50BEFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14EA2AA-94A2-974D-8FF0-076EACF34B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="680" windowWidth="29660" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -851,7 +851,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="17">
     <dxf>
       <font>
         <b val="0"/>
@@ -892,42 +892,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF38761D"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF38761D"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1560,24 +1524,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E12D2C3A-56FF-EE48-BF21-6E043A7A5D80}" name="Table1" displayName="Table1" ref="A1:M95" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E12D2C3A-56FF-EE48-BF21-6E043A7A5D80}" name="Table1" displayName="Table1" ref="A1:M95" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
   <autoFilter ref="A1:M95" xr:uid="{E12D2C3A-56FF-EE48-BF21-6E043A7A5D80}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M95">
     <sortCondition ref="C1:C95"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{CA68C236-9B81-6943-9124-FCB1EFF82B61}" name="Surname" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{772AD85A-09E9-824D-920B-32ECA0508909}" name="Reg" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{19CF2E5D-B4B7-E04D-8776-FF144460D950}" name="Dept" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{E87336A0-4BDA-FA47-AD74-82EC3F149A91}" name="Quiz_1" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{FAC627FA-AD03-4640-83D5-C316A650FDA0}" name="Quiz_2" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{4BA926F4-730D-824B-8373-6D78B9323821}" name="Quiz_3" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{4BF9782F-8E5B-614A-A28C-A3AF428C2B3B}" name="Test_1" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{99D84DCE-7040-C54F-8C73-B2AB39CAB36C}" name="Test_2" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{87033C86-6194-A341-9E8E-123C36BF91AE}" name="Test_3" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{07C69C5C-5C64-A249-BACD-8290E9A17F3A}" name="AS_1" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{C7AA010D-240A-9045-96E7-67319A9D8BEE}" name="AS_2" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{8B47A38A-88F2-5E4C-BC4B-4A7E3733A68C}" name="AS_3" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{CA68C236-9B81-6943-9124-FCB1EFF82B61}" name="Surname" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{772AD85A-09E9-824D-920B-32ECA0508909}" name="Reg" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{19CF2E5D-B4B7-E04D-8776-FF144460D950}" name="Dept" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{E87336A0-4BDA-FA47-AD74-82EC3F149A91}" name="Quiz_1" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{FAC627FA-AD03-4640-83D5-C316A650FDA0}" name="Quiz_2" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{4BA926F4-730D-824B-8373-6D78B9323821}" name="Quiz_3" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{4BF9782F-8E5B-614A-A28C-A3AF428C2B3B}" name="Test_1" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{99D84DCE-7040-C54F-8C73-B2AB39CAB36C}" name="Test_2" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{87033C86-6194-A341-9E8E-123C36BF91AE}" name="Test_3" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{07C69C5C-5C64-A249-BACD-8290E9A17F3A}" name="AS_1" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{C7AA010D-240A-9045-96E7-67319A9D8BEE}" name="AS_2" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{8B47A38A-88F2-5E4C-BC4B-4A7E3733A68C}" name="AS_3" dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{791909E3-DD60-2844-A81E-180A04C85B15}" name="CW" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2631,8 +2595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2730,7 +2694,7 @@
         <v>0.84</v>
       </c>
       <c r="M2" s="15">
-        <f>(((LARGE(D2:F2,1)+LARGE(D2:F2,2))*0.05+(LARGE(G2:I2,1)+LARGE(G2:I2,2))*0.3+(LARGE(J2:L2,1)+LARGE(J2:L2,2))*0.15))</f>
+        <f t="shared" ref="M2:M33" si="0">(((LARGE(D2:F2,1)+LARGE(D2:F2,2))*0.05+(LARGE(G2:I2,1)+LARGE(G2:I2,2))*0.3+(LARGE(J2:L2,1)+LARGE(J2:L2,2))*0.15))</f>
         <v>0.91349999999999987</v>
       </c>
     </row>
@@ -2772,7 +2736,7 @@
         <v>0.64</v>
       </c>
       <c r="M3" s="15">
-        <f>(((LARGE(D3:F3,1)+LARGE(D3:F3,2))*0.05+(LARGE(G3:I3,1)+LARGE(G3:I3,2))*0.3+(LARGE(J3:L3,1)+LARGE(J3:L3,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.7659999999999999</v>
       </c>
     </row>
@@ -2814,7 +2778,7 @@
         <v>0.96</v>
       </c>
       <c r="M4" s="15">
-        <f>(((LARGE(D4:F4,1)+LARGE(D4:F4,2))*0.05+(LARGE(G4:I4,1)+LARGE(G4:I4,2))*0.3+(LARGE(J4:L4,1)+LARGE(J4:L4,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.63749999999999996</v>
       </c>
     </row>
@@ -2856,7 +2820,7 @@
         <v>0.72</v>
       </c>
       <c r="M5" s="15">
-        <f>(((LARGE(D5:F5,1)+LARGE(D5:F5,2))*0.05+(LARGE(G5:I5,1)+LARGE(G5:I5,2))*0.3+(LARGE(J5:L5,1)+LARGE(J5:L5,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.73950000000000005</v>
       </c>
     </row>
@@ -2898,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="15">
-        <f>(((LARGE(D6:F6,1)+LARGE(D6:F6,2))*0.05+(LARGE(G6:I6,1)+LARGE(G6:I6,2))*0.3+(LARGE(J6:L6,1)+LARGE(J6:L6,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.58949999999999991</v>
       </c>
     </row>
@@ -2940,7 +2904,7 @@
         <v>0.84</v>
       </c>
       <c r="M7" s="15">
-        <f>(((LARGE(D7:F7,1)+LARGE(D7:F7,2))*0.05+(LARGE(G7:I7,1)+LARGE(G7:I7,2))*0.3+(LARGE(J7:L7,1)+LARGE(J7:L7,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.64700000000000002</v>
       </c>
     </row>
@@ -2982,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="15">
-        <f>(((LARGE(D8:F8,1)+LARGE(D8:F8,2))*0.05+(LARGE(G8:I8,1)+LARGE(G8:I8,2))*0.3+(LARGE(J8:L8,1)+LARGE(J8:L8,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.82550000000000001</v>
       </c>
     </row>
@@ -3024,7 +2988,7 @@
         <v>0.08</v>
       </c>
       <c r="M9" s="15">
-        <f>(((LARGE(D9:F9,1)+LARGE(D9:F9,2))*0.05+(LARGE(G9:I9,1)+LARGE(G9:I9,2))*0.3+(LARGE(J9:L9,1)+LARGE(J9:L9,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.74049999999999994</v>
       </c>
     </row>
@@ -3066,7 +3030,7 @@
         <v>0.84</v>
       </c>
       <c r="M10" s="15">
-        <f>(((LARGE(D10:F10,1)+LARGE(D10:F10,2))*0.05+(LARGE(G10:I10,1)+LARGE(G10:I10,2))*0.3+(LARGE(J10:L10,1)+LARGE(J10:L10,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.81700000000000006</v>
       </c>
     </row>
@@ -3108,7 +3072,7 @@
         <v>0.84</v>
       </c>
       <c r="M11" s="15">
-        <f>(((LARGE(D11:F11,1)+LARGE(D11:F11,2))*0.05+(LARGE(G11:I11,1)+LARGE(G11:I11,2))*0.3+(LARGE(J11:L11,1)+LARGE(J11:L11,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.84649999999999992</v>
       </c>
     </row>
@@ -3150,7 +3114,7 @@
         <v>0.96</v>
       </c>
       <c r="M12" s="15">
-        <f>(((LARGE(D12:F12,1)+LARGE(D12:F12,2))*0.05+(LARGE(G12:I12,1)+LARGE(G12:I12,2))*0.3+(LARGE(J12:L12,1)+LARGE(J12:L12,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.877</v>
       </c>
     </row>
@@ -3192,7 +3156,7 @@
         <v>0.84</v>
       </c>
       <c r="M13" s="15">
-        <f>(((LARGE(D13:F13,1)+LARGE(D13:F13,2))*0.05+(LARGE(G13:I13,1)+LARGE(G13:I13,2))*0.3+(LARGE(J13:L13,1)+LARGE(J13:L13,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.88650000000000007</v>
       </c>
     </row>
@@ -3234,7 +3198,7 @@
         <v>0.08</v>
       </c>
       <c r="M14" s="15">
-        <f>(((LARGE(D14:F14,1)+LARGE(D14:F14,2))*0.05+(LARGE(G14:I14,1)+LARGE(G14:I14,2))*0.3+(LARGE(J14:L14,1)+LARGE(J14:L14,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.69750000000000001</v>
       </c>
     </row>
@@ -3276,7 +3240,7 @@
         <v>0.84</v>
       </c>
       <c r="M15" s="15">
-        <f>(((LARGE(D15:F15,1)+LARGE(D15:F15,2))*0.05+(LARGE(G15:I15,1)+LARGE(G15:I15,2))*0.3+(LARGE(J15:L15,1)+LARGE(J15:L15,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.80099999999999993</v>
       </c>
     </row>
@@ -3318,7 +3282,7 @@
         <v>0.72</v>
       </c>
       <c r="M16" s="15">
-        <f>(((LARGE(D16:F16,1)+LARGE(D16:F16,2))*0.05+(LARGE(G16:I16,1)+LARGE(G16:I16,2))*0.3+(LARGE(J16:L16,1)+LARGE(J16:L16,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.79200000000000004</v>
       </c>
     </row>
@@ -3360,7 +3324,7 @@
         <v>0.48</v>
       </c>
       <c r="M17" s="15">
-        <f>(((LARGE(D17:F17,1)+LARGE(D17:F17,2))*0.05+(LARGE(G17:I17,1)+LARGE(G17:I17,2))*0.3+(LARGE(J17:L17,1)+LARGE(J17:L17,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.84600000000000009</v>
       </c>
     </row>
@@ -3374,7 +3338,9 @@
       <c r="C18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
       <c r="E18" s="13">
         <v>0.74</v>
       </c>
@@ -3385,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="13">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I18" s="13">
         <v>0.56999999999999995</v>
@@ -3400,8 +3366,8 @@
         <v>0.64</v>
       </c>
       <c r="M18" s="15">
-        <f>(((LARGE(D18:F18,1)+LARGE(D18:F18,2))*0.05+(LARGE(G18:I18,1)+LARGE(G18:I18,2))*0.3+(LARGE(J18:L18,1)+LARGE(J18:L18,2))*0.15))</f>
-        <v>0.4345</v>
+        <f t="shared" si="0"/>
+        <v>0.59950000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="14.25" customHeight="1">
@@ -3442,7 +3408,7 @@
         <v>0.52</v>
       </c>
       <c r="M19" s="15">
-        <f>(((LARGE(D19:F19,1)+LARGE(D19:F19,2))*0.05+(LARGE(G19:I19,1)+LARGE(G19:I19,2))*0.3+(LARGE(J19:L19,1)+LARGE(J19:L19,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.78999999999999992</v>
       </c>
     </row>
@@ -3484,7 +3450,7 @@
         <v>0.96</v>
       </c>
       <c r="M20" s="15">
-        <f>(((LARGE(D20:F20,1)+LARGE(D20:F20,2))*0.05+(LARGE(G20:I20,1)+LARGE(G20:I20,2))*0.3+(LARGE(J20:L20,1)+LARGE(J20:L20,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.91349999999999998</v>
       </c>
     </row>
@@ -3526,7 +3492,7 @@
         <v>0.96</v>
       </c>
       <c r="M21" s="15">
-        <f>(((LARGE(D21:F21,1)+LARGE(D21:F21,2))*0.05+(LARGE(G21:I21,1)+LARGE(G21:I21,2))*0.3+(LARGE(J21:L21,1)+LARGE(J21:L21,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.73799999999999999</v>
       </c>
     </row>
@@ -3568,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="15">
-        <f>(((LARGE(D22:F22,1)+LARGE(D22:F22,2))*0.05+(LARGE(G22:I22,1)+LARGE(G22:I22,2))*0.3+(LARGE(J22:L22,1)+LARGE(J22:L22,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3610,7 +3576,7 @@
         <v>0.52</v>
       </c>
       <c r="M23" s="15">
-        <f>(((LARGE(D23:F23,1)+LARGE(D23:F23,2))*0.05+(LARGE(G23:I23,1)+LARGE(G23:I23,2))*0.3+(LARGE(J23:L23,1)+LARGE(J23:L23,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.79200000000000004</v>
       </c>
     </row>
@@ -3652,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="15">
-        <f>(((LARGE(D24:F24,1)+LARGE(D24:F24,2))*0.05+(LARGE(G24:I24,1)+LARGE(G24:I24,2))*0.3+(LARGE(J24:L24,1)+LARGE(J24:L24,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.23650000000000002</v>
       </c>
     </row>
@@ -3694,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="15">
-        <f>(((LARGE(D25:F25,1)+LARGE(D25:F25,2))*0.05+(LARGE(G25:I25,1)+LARGE(G25:I25,2))*0.3+(LARGE(J25:L25,1)+LARGE(J25:L25,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.79649999999999999</v>
       </c>
     </row>
@@ -3736,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="15">
-        <f>(((LARGE(D26:F26,1)+LARGE(D26:F26,2))*0.05+(LARGE(G26:I26,1)+LARGE(G26:I26,2))*0.3+(LARGE(J26:L26,1)+LARGE(J26:L26,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.69500000000000006</v>
       </c>
     </row>
@@ -3778,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="15">
-        <f>(((LARGE(D27:F27,1)+LARGE(D27:F27,2))*0.05+(LARGE(G27:I27,1)+LARGE(G27:I27,2))*0.3+(LARGE(J27:L27,1)+LARGE(J27:L27,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.67649999999999999</v>
       </c>
     </row>
@@ -3820,7 +3786,7 @@
         <v>0.84</v>
       </c>
       <c r="M28" s="15">
-        <f>(((LARGE(D28:F28,1)+LARGE(D28:F28,2))*0.05+(LARGE(G28:I28,1)+LARGE(G28:I28,2))*0.3+(LARGE(J28:L28,1)+LARGE(J28:L28,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.86999999999999988</v>
       </c>
     </row>
@@ -3862,7 +3828,7 @@
         <v>0.52</v>
       </c>
       <c r="M29" s="15">
-        <f>(((LARGE(D29:F29,1)+LARGE(D29:F29,2))*0.05+(LARGE(G29:I29,1)+LARGE(G29:I29,2))*0.3+(LARGE(J29:L29,1)+LARGE(J29:L29,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.62950000000000006</v>
       </c>
     </row>
@@ -3904,7 +3870,7 @@
         <v>0.84</v>
       </c>
       <c r="M30" s="15">
-        <f>(((LARGE(D30:F30,1)+LARGE(D30:F30,2))*0.05+(LARGE(G30:I30,1)+LARGE(G30:I30,2))*0.3+(LARGE(J30:L30,1)+LARGE(J30:L30,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.92499999999999993</v>
       </c>
     </row>
@@ -3946,7 +3912,7 @@
         <v>0.6</v>
       </c>
       <c r="M31" s="15">
-        <f>(((LARGE(D31:F31,1)+LARGE(D31:F31,2))*0.05+(LARGE(G31:I31,1)+LARGE(G31:I31,2))*0.3+(LARGE(J31:L31,1)+LARGE(J31:L31,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.73849999999999993</v>
       </c>
     </row>
@@ -3988,7 +3954,7 @@
         <v>0.6</v>
       </c>
       <c r="M32" s="15">
-        <f>(((LARGE(D32:F32,1)+LARGE(D32:F32,2))*0.05+(LARGE(G32:I32,1)+LARGE(G32:I32,2))*0.3+(LARGE(J32:L32,1)+LARGE(J32:L32,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.60099999999999998</v>
       </c>
     </row>
@@ -4030,7 +3996,7 @@
         <v>0.08</v>
       </c>
       <c r="M33" s="15">
-        <f>(((LARGE(D33:F33,1)+LARGE(D33:F33,2))*0.05+(LARGE(G33:I33,1)+LARGE(G33:I33,2))*0.3+(LARGE(J33:L33,1)+LARGE(J33:L33,2))*0.15))</f>
+        <f t="shared" si="0"/>
         <v>0.5575</v>
       </c>
     </row>
@@ -4072,7 +4038,7 @@
         <v>0.6</v>
       </c>
       <c r="M34" s="15">
-        <f>(((LARGE(D34:F34,1)+LARGE(D34:F34,2))*0.05+(LARGE(G34:I34,1)+LARGE(G34:I34,2))*0.3+(LARGE(J34:L34,1)+LARGE(J34:L34,2))*0.15))</f>
+        <f t="shared" ref="M34:M65" si="1">(((LARGE(D34:F34,1)+LARGE(D34:F34,2))*0.05+(LARGE(G34:I34,1)+LARGE(G34:I34,2))*0.3+(LARGE(J34:L34,1)+LARGE(J34:L34,2))*0.15))</f>
         <v>0.62949999999999995</v>
       </c>
     </row>
@@ -4114,7 +4080,7 @@
         <v>0.84</v>
       </c>
       <c r="M35" s="15">
-        <f>(((LARGE(D35:F35,1)+LARGE(D35:F35,2))*0.05+(LARGE(G35:I35,1)+LARGE(G35:I35,2))*0.3+(LARGE(J35:L35,1)+LARGE(J35:L35,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.77349999999999997</v>
       </c>
     </row>
@@ -4156,7 +4122,7 @@
         <v>0.84</v>
       </c>
       <c r="M36" s="15">
-        <f>(((LARGE(D36:F36,1)+LARGE(D36:F36,2))*0.05+(LARGE(G36:I36,1)+LARGE(G36:I36,2))*0.3+(LARGE(J36:L36,1)+LARGE(J36:L36,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.82750000000000001</v>
       </c>
     </row>
@@ -4183,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="13">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="I37" s="13">
         <v>0.52</v>
@@ -4198,8 +4164,8 @@
         <v>0.36</v>
       </c>
       <c r="M37" s="15">
-        <f>(((LARGE(D37:F37,1)+LARGE(D37:F37,2))*0.05+(LARGE(G37:I37,1)+LARGE(G37:I37,2))*0.3+(LARGE(J37:L37,1)+LARGE(J37:L37,2))*0.15))</f>
-        <v>0.33649999999999997</v>
+        <f t="shared" si="1"/>
+        <v>0.5585</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="14.25" customHeight="1">
@@ -4240,7 +4206,7 @@
         <v>0.84</v>
       </c>
       <c r="M38" s="15">
-        <f>(((LARGE(D38:F38,1)+LARGE(D38:F38,2))*0.05+(LARGE(G38:I38,1)+LARGE(G38:I38,2))*0.3+(LARGE(J38:L38,1)+LARGE(J38:L38,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.879</v>
       </c>
     </row>
@@ -4282,7 +4248,7 @@
         <v>0.08</v>
       </c>
       <c r="M39" s="15">
-        <f>(((LARGE(D39:F39,1)+LARGE(D39:F39,2))*0.05+(LARGE(G39:I39,1)+LARGE(G39:I39,2))*0.3+(LARGE(J39:L39,1)+LARGE(J39:L39,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.57300000000000006</v>
       </c>
     </row>
@@ -4324,7 +4290,7 @@
         <v>0.76</v>
       </c>
       <c r="M40" s="15">
-        <f>(((LARGE(D40:F40,1)+LARGE(D40:F40,2))*0.05+(LARGE(G40:I40,1)+LARGE(G40:I40,2))*0.3+(LARGE(J40:L40,1)+LARGE(J40:L40,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.84399999999999997</v>
       </c>
     </row>
@@ -4366,7 +4332,7 @@
         <v>0.76</v>
       </c>
       <c r="M41" s="15">
-        <f>(((LARGE(D41:F41,1)+LARGE(D41:F41,2))*0.05+(LARGE(G41:I41,1)+LARGE(G41:I41,2))*0.3+(LARGE(J41:L41,1)+LARGE(J41:L41,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.67249999999999999</v>
       </c>
     </row>
@@ -4408,7 +4374,7 @@
         <v>0.84</v>
       </c>
       <c r="M42" s="15">
-        <f>(((LARGE(D42:F42,1)+LARGE(D42:F42,2))*0.05+(LARGE(G42:I42,1)+LARGE(G42:I42,2))*0.3+(LARGE(J42:L42,1)+LARGE(J42:L42,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.7569999999999999</v>
       </c>
     </row>
@@ -4450,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="15">
-        <f>(((LARGE(D43:F43,1)+LARGE(D43:F43,2))*0.05+(LARGE(G43:I43,1)+LARGE(G43:I43,2))*0.3+(LARGE(J43:L43,1)+LARGE(J43:L43,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.59</v>
       </c>
     </row>
@@ -4492,7 +4458,7 @@
         <v>0.68</v>
       </c>
       <c r="M44" s="15">
-        <f>(((LARGE(D44:F44,1)+LARGE(D44:F44,2))*0.05+(LARGE(G44:I44,1)+LARGE(G44:I44,2))*0.3+(LARGE(J44:L44,1)+LARGE(J44:L44,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.629</v>
       </c>
     </row>
@@ -4534,7 +4500,7 @@
         <v>0.6</v>
       </c>
       <c r="M45" s="15">
-        <f>(((LARGE(D45:F45,1)+LARGE(D45:F45,2))*0.05+(LARGE(G45:I45,1)+LARGE(G45:I45,2))*0.3+(LARGE(J45:L45,1)+LARGE(J45:L45,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.66199999999999992</v>
       </c>
     </row>
@@ -4576,7 +4542,7 @@
         <v>0.84</v>
       </c>
       <c r="M46" s="15">
-        <f>(((LARGE(D46:F46,1)+LARGE(D46:F46,2))*0.05+(LARGE(G46:I46,1)+LARGE(G46:I46,2))*0.3+(LARGE(J46:L46,1)+LARGE(J46:L46,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.80049999999999988</v>
       </c>
     </row>
@@ -4618,7 +4584,7 @@
         <v>0.8</v>
       </c>
       <c r="M47" s="15">
-        <f>(((LARGE(D47:F47,1)+LARGE(D47:F47,2))*0.05+(LARGE(G47:I47,1)+LARGE(G47:I47,2))*0.3+(LARGE(J47:L47,1)+LARGE(J47:L47,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.59350000000000003</v>
       </c>
     </row>
@@ -4660,7 +4626,7 @@
         <v>0.92</v>
       </c>
       <c r="M48" s="15">
-        <f>(((LARGE(D48:F48,1)+LARGE(D48:F48,2))*0.05+(LARGE(G48:I48,1)+LARGE(G48:I48,2))*0.3+(LARGE(J48:L48,1)+LARGE(J48:L48,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.82799999999999985</v>
       </c>
     </row>
@@ -4702,7 +4668,7 @@
         <v>0.88</v>
       </c>
       <c r="M49" s="15">
-        <f>(((LARGE(D49:F49,1)+LARGE(D49:F49,2))*0.05+(LARGE(G49:I49,1)+LARGE(G49:I49,2))*0.3+(LARGE(J49:L49,1)+LARGE(J49:L49,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.67700000000000005</v>
       </c>
     </row>
@@ -4744,7 +4710,7 @@
         <v>0.64</v>
       </c>
       <c r="M50" s="15">
-        <f>(((LARGE(D50:F50,1)+LARGE(D50:F50,2))*0.05+(LARGE(G50:I50,1)+LARGE(G50:I50,2))*0.3+(LARGE(J50:L50,1)+LARGE(J50:L50,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.78349999999999997</v>
       </c>
     </row>
@@ -4786,7 +4752,7 @@
         <v>0.64</v>
       </c>
       <c r="M51" s="15">
-        <f>(((LARGE(D51:F51,1)+LARGE(D51:F51,2))*0.05+(LARGE(G51:I51,1)+LARGE(G51:I51,2))*0.3+(LARGE(J51:L51,1)+LARGE(J51:L51,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.76149999999999995</v>
       </c>
     </row>
@@ -4828,7 +4794,7 @@
         <v>0.96</v>
       </c>
       <c r="M52" s="15">
-        <f>(((LARGE(D52:F52,1)+LARGE(D52:F52,2))*0.05+(LARGE(G52:I52,1)+LARGE(G52:I52,2))*0.3+(LARGE(J52:L52,1)+LARGE(J52:L52,2))*0.15))</f>
+        <f t="shared" si="1"/>
         <v>0.8194999999999999</v>
       </c>
     </row>
@@ -4870,7 +4836,7 @@
         <v>0.96</v>
       </c>
       <c r="M53" s="15">
-        <f t="shared" ref="M53:M95" si="0">(((LARGE(D53:F53,1)+LARGE(D53:F53,2))*0.05+(LARGE(G53:I53,1)+LARGE(G53:I53,2))*0.3+(LARGE(J53:L53,1)+LARGE(J53:L53,2))*0.15))</f>
+        <f t="shared" ref="M53:M95" si="2">(((LARGE(D53:F53,1)+LARGE(D53:F53,2))*0.05+(LARGE(G53:I53,1)+LARGE(G53:I53,2))*0.3+(LARGE(J53:L53,1)+LARGE(J53:L53,2))*0.15))</f>
         <v>0.871</v>
       </c>
     </row>
@@ -4912,7 +4878,7 @@
         <v>0.86</v>
       </c>
       <c r="M54" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.64400000000000002</v>
       </c>
     </row>
@@ -4954,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.75449999999999995</v>
       </c>
     </row>
@@ -4996,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.47599999999999998</v>
       </c>
     </row>
@@ -5038,7 +5004,7 @@
         <v>0.79</v>
       </c>
       <c r="M57" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.73299999999999998</v>
       </c>
     </row>
@@ -5080,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.50800000000000001</v>
       </c>
     </row>
@@ -5122,7 +5088,7 @@
         <v>0.82</v>
       </c>
       <c r="M59" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.68049999999999988</v>
       </c>
     </row>
@@ -5164,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.69700000000000006</v>
       </c>
     </row>
@@ -5206,7 +5172,7 @@
         <v>0.25</v>
       </c>
       <c r="M61" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6865</v>
       </c>
     </row>
@@ -5248,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.52549999999999997</v>
       </c>
     </row>
@@ -5290,7 +5256,7 @@
         <v>0.86</v>
       </c>
       <c r="M63" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.69750000000000001</v>
       </c>
     </row>
@@ -5332,7 +5298,7 @@
         <v>0.89</v>
       </c>
       <c r="M64" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.65900000000000003</v>
       </c>
     </row>
@@ -5374,7 +5340,7 @@
         <v>0.86</v>
       </c>
       <c r="M65" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.70700000000000007</v>
       </c>
     </row>
@@ -5416,7 +5382,7 @@
         <v>0.89</v>
       </c>
       <c r="M66" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.63000000000000012</v>
       </c>
     </row>
@@ -5458,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.79549999999999998</v>
       </c>
     </row>
@@ -5500,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.63349999999999995</v>
       </c>
     </row>
@@ -5542,7 +5508,7 @@
         <v>0.79</v>
       </c>
       <c r="M69" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.79549999999999987</v>
       </c>
     </row>
@@ -5584,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.50300000000000011</v>
       </c>
     </row>
@@ -5626,7 +5592,7 @@
         <v>0.86</v>
       </c>
       <c r="M71" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.71149999999999991</v>
       </c>
     </row>
@@ -5668,7 +5634,7 @@
         <v>0.82</v>
       </c>
       <c r="M72" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.73799999999999999</v>
       </c>
     </row>
@@ -5710,7 +5676,7 @@
         <v>0.93</v>
       </c>
       <c r="M73" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.93199999999999994</v>
       </c>
     </row>
@@ -5752,7 +5718,7 @@
         <v>0.96</v>
       </c>
       <c r="M74" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.78150000000000008</v>
       </c>
     </row>
@@ -5794,7 +5760,7 @@
         <v>0.71</v>
       </c>
       <c r="M75" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6925</v>
       </c>
     </row>
@@ -5836,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5878,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.64750000000000008</v>
       </c>
     </row>
@@ -5920,7 +5886,7 @@
         <v>0.75</v>
       </c>
       <c r="M78" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.83599999999999997</v>
       </c>
     </row>
@@ -5962,7 +5928,7 @@
         <v>0.89</v>
       </c>
       <c r="M79" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.3785</v>
       </c>
     </row>
@@ -6004,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.63200000000000001</v>
       </c>
     </row>
@@ -6046,7 +6012,7 @@
         <v>0.93</v>
       </c>
       <c r="M81" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
     </row>
@@ -6088,7 +6054,7 @@
         <v>0.82</v>
       </c>
       <c r="M82" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.62949999999999995</v>
       </c>
     </row>
@@ -6130,7 +6096,7 @@
         <v>0.86</v>
       </c>
       <c r="M83" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6905</v>
       </c>
     </row>
@@ -6172,7 +6138,7 @@
         <v>0.93</v>
       </c>
       <c r="M84" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.88150000000000006</v>
       </c>
     </row>
@@ -6214,7 +6180,7 @@
         <v>1</v>
       </c>
       <c r="M85" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.80800000000000005</v>
       </c>
     </row>
@@ -6256,7 +6222,7 @@
         <v>0.89</v>
       </c>
       <c r="M86" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.65649999999999997</v>
       </c>
     </row>
@@ -6298,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6340,7 +6306,7 @@
         <v>0.92</v>
       </c>
       <c r="M88" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.60699999999999998</v>
       </c>
     </row>
@@ -6382,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6424,7 +6390,7 @@
         <v>0.82</v>
       </c>
       <c r="M90" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.71750000000000003</v>
       </c>
     </row>
@@ -6466,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="M91" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13300000000000001</v>
       </c>
     </row>
@@ -6508,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="M92" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.79900000000000004</v>
       </c>
     </row>
@@ -6550,7 +6516,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.69599999999999995</v>
       </c>
     </row>
@@ -6592,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -6634,7 +6600,7 @@
         <v>0.96</v>
       </c>
       <c r="M95" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.88149999999999995</v>
       </c>
     </row>
